--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="43" activeTab="49"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="45" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,8 @@
     <sheet name="Namrata 216" sheetId="49" r:id="rId48"/>
     <sheet name="Aditya 217" sheetId="50" r:id="rId49"/>
     <sheet name="Aditya 218" sheetId="52" r:id="rId50"/>
+    <sheet name="Woven Gold 219" sheetId="54" r:id="rId51"/>
+    <sheet name="Unique 220" sheetId="53" r:id="rId52"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="81">
   <si>
     <t>Sr. No</t>
   </si>
@@ -296,6 +298,51 @@
   </si>
   <si>
     <t>DCS-F5712-L1</t>
+  </si>
+  <si>
+    <t>I-HIP4PI-S23X</t>
+  </si>
+  <si>
+    <t>Honeywell 4 MP Dome PTZ Camera</t>
+  </si>
+  <si>
+    <t>Phone and light, ozoniser.</t>
+  </si>
+  <si>
+    <t>Bluetooth function.</t>
+  </si>
+  <si>
+    <t>Steam outlet</t>
+  </si>
+  <si>
+    <t>Sensor &amp; its holder, pressure release valve</t>
+  </si>
+  <si>
+    <t>Automatic drainage of water</t>
+  </si>
+  <si>
+    <t>X-Series 6 KW</t>
+  </si>
+  <si>
+    <t>LCD display with touch pad.</t>
+  </si>
+  <si>
+    <t>Steam function control.</t>
+  </si>
+  <si>
+    <t>Temperature set and time set.</t>
+  </si>
+  <si>
+    <t>Discount 48%</t>
+  </si>
+  <si>
+    <t>Basic Amount</t>
+  </si>
+  <si>
+    <t>I-HIB5PI-VS</t>
+  </si>
+  <si>
+    <t>Honeywell 4 MP Day and Night Varifocal Outddor Bullet Network Camera</t>
   </si>
 </sst>
 </file>
@@ -395,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -490,12 +537,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -709,6 +767,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,6 +801,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1158,39 +1237,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1260,36 +1339,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1366,39 +1445,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1481,39 +1560,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1584,39 +1663,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1701,12 +1780,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1772,36 +1851,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1875,39 +1954,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1979,39 +2058,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2149,39 +2228,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2253,39 +2332,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2361,39 +2440,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2466,39 +2545,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2571,39 +2650,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2672,48 +2751,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2755,48 +2834,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2869,48 +2948,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3070,39 +3149,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3170,36 +3249,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3338,39 +3417,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3436,36 +3515,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3537,39 +3616,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="A3" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3642,39 +3721,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3742,36 +3821,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3981,39 +4060,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4085,39 +4164,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4186,36 +4265,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4283,35 +4362,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4384,39 +4463,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4489,39 +4568,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4594,39 +4673,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4763,39 +4842,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -4949,39 +5028,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="A4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5089,13 +5168,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5171,13 +5250,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5250,39 +5329,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5355,39 +5434,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5460,39 +5539,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5558,48 +5637,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -5665,48 +5744,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -5778,39 +5857,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -5885,39 +5964,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -5991,39 +6070,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6094,39 +6173,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6200,39 +6279,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -6306,39 +6385,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6358,23 +6437,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="6" style="7" customWidth="1"/>
     <col min="2" max="2" width="14" style="7" customWidth="1"/>
     <col min="3" max="3" width="28.109375" style="7" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="5.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
     <col min="6" max="6" width="6.44140625" style="7" customWidth="1"/>
     <col min="7" max="9" width="8.88671875" style="7"/>
     <col min="10" max="10" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -6405,53 +6485,53 @@
         <v>64</v>
       </c>
       <c r="D2" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>1907</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2" si="0">D2*E2</f>
-        <v>15256</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="A3" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
-        <v>15256</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
-        <v>2746.08</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
-        <v>18002.080000000002</v>
+        <v>28320</v>
       </c>
     </row>
   </sheetData>
@@ -6459,6 +6539,348 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="21"/>
+    <col min="2" max="2" width="32.5546875" style="21" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="21"/>
+    <col min="5" max="5" width="7.109375" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="85">
+        <v>1</v>
+      </c>
+      <c r="D2" s="85">
+        <v>84050</v>
+      </c>
+      <c r="E2" s="85">
+        <f t="shared" ref="E2" si="0">C2*D2</f>
+        <v>84050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="72">
+        <f>SUM(E2:E3)</f>
+        <v>84050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="72">
+        <v>40344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="72">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="72">
+        <f>E13*18%</f>
+        <v>7867.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="72">
+        <f>SUM(E13:E14)</f>
+        <v>51573.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="88"/>
+    <col min="2" max="2" width="18.77734375" style="88" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="88" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="88"/>
+    <col min="5" max="5" width="19.21875" style="88" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="88"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.2" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9">
+        <v>31000</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>8500</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="73">
+        <f>SUM(F2:F3)</f>
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="73">
+        <f>F4*18%</f>
+        <v>28440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="73">
+        <f>SUM(F4:F5)</f>
+        <v>186440</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6527,39 +6949,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -6635,39 +7057,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="A3" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -6749,13 +7171,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -6763,13 +7185,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -6777,13 +7199,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -6852,36 +7274,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="45" activeTab="51"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="47" activeTab="53"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,9 @@
     <sheet name="Aditya 217" sheetId="50" r:id="rId49"/>
     <sheet name="Aditya 218" sheetId="52" r:id="rId50"/>
     <sheet name="Woven Gold 219" sheetId="54" r:id="rId51"/>
-    <sheet name="Unique 220" sheetId="53" r:id="rId52"/>
+    <sheet name="IMCC &amp; Co 220" sheetId="53" r:id="rId52"/>
+    <sheet name="Namrata 221" sheetId="55" r:id="rId53"/>
+    <sheet name="Aditya 222" sheetId="56" r:id="rId54"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="84">
   <si>
     <t>Sr. No</t>
   </si>
@@ -342,7 +344,16 @@
     <t>I-HIB5PI-VS</t>
   </si>
   <si>
-    <t>Honeywell 4 MP Day and Night Varifocal Outddor Bullet Network Camera</t>
+    <t>4 MP Motorized Starlight IR Bullet Camera (Model no. I-HIB5PI-VS)</t>
+  </si>
+  <si>
+    <t>Honeywell 4 MP Day and Night Motorized Varifocal Outddor Bullet Network Camera</t>
+  </si>
+  <si>
+    <t>Dlink CAT6 UTP 23AWG PATCH CORD:1M,Plug 30U' Snagless</t>
+  </si>
+  <si>
+    <t>Dlink Patch Panel  UTP Keystone- 24 Port- Lloaded (Cat 5e,Cat 6 &amp; Cat 6 A )</t>
   </si>
 </sst>
 </file>
@@ -553,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -770,9 +781,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,12 +837,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1237,39 +1258,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1339,36 +1360,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
+      <c r="A3" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1445,39 +1466,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1560,39 +1581,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1663,39 +1684,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1780,12 +1801,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1851,36 +1872,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1954,39 +1975,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2058,39 +2079,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2228,39 +2249,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2332,39 +2353,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2440,39 +2461,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2545,39 +2566,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2650,39 +2671,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2751,48 +2772,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2834,48 +2855,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="A13" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2948,48 +2969,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3149,39 +3170,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="A7" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3249,36 +3270,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3417,39 +3438,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3515,36 +3536,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3616,39 +3637,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3721,39 +3742,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3821,36 +3842,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4060,39 +4081,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4164,39 +4185,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4265,36 +4286,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4362,35 +4383,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4463,39 +4484,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4568,39 +4589,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4673,39 +4694,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4842,39 +4863,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5028,39 +5049,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="A4" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5168,13 +5189,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5250,13 +5271,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5329,39 +5350,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5434,39 +5455,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5539,39 +5560,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5637,48 +5658,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -5744,48 +5765,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -5857,39 +5878,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -5964,39 +5985,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6070,39 +6091,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6123,7 +6144,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6173,39 +6194,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6279,39 +6300,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -6385,39 +6406,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6435,19 +6456,19 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" style="7" customWidth="1"/>
     <col min="2" max="2" width="14" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="17.21875" style="7" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" style="7" customWidth="1"/>
     <col min="7" max="9" width="8.88671875" style="7"/>
     <col min="10" max="10" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
@@ -6496,42 +6517,48 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6" s="77">
+        <f>F5+150</f>
+        <v>28470</v>
       </c>
     </row>
   </sheetData>
@@ -6585,13 +6612,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="85">
-        <v>1</v>
-      </c>
-      <c r="D2" s="85">
+      <c r="C2" s="91">
+        <v>1</v>
+      </c>
+      <c r="D2" s="91">
         <v>84050</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="91">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -6603,9 +6630,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -6614,9 +6641,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -6625,9 +6652,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -6636,9 +6663,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -6647,9 +6674,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -6658,9 +6685,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -6669,9 +6696,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -6680,63 +6707,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="A11" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -6759,20 +6786,21 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="88"/>
-    <col min="2" max="2" width="18.77734375" style="88" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="88"/>
-    <col min="5" max="5" width="19.21875" style="88" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="88"/>
+    <col min="1" max="1" width="7.33203125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" style="74" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="74" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.2" customHeight="1">
@@ -6795,85 +6823,90 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="25.2" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="75" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="9">
         <v>4</v>
       </c>
       <c r="E2" s="9">
-        <v>31000</v>
+        <v>30500</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>124000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.6">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33.6" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="89" t="s">
-        <v>80</v>
+      <c r="C3" s="75" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="9">
         <v>4</v>
       </c>
       <c r="E3" s="9">
-        <v>8500</v>
+        <v>8350</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="A4" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
-        <v>158000</v>
+        <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
-        <v>28440</v>
+        <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
-        <v>186440</v>
+        <v>183372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4">
+      <c r="B12" s="76" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6881,6 +6914,225 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="78">
+        <f>SUM(F2)</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="78">
+        <f>F3*18%</f>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="78">
+        <f>SUM(F3:F4)</f>
+        <v>26491</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" customHeight="1">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.2" customHeight="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>933</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="shared" ref="E2:E3" si="0">C2*D2</f>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.4" customHeight="1">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>98</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="79">
+        <f>SUM(E2:E3)</f>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="79">
+        <f>E4*18%</f>
+        <v>273.77999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="79">
+        <f>SUM(E4:E5)</f>
+        <v>1794.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6949,39 +7201,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -7057,39 +7309,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -7171,13 +7423,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -7185,13 +7437,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -7199,13 +7451,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -7274,36 +7526,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="84">
   <si>
     <t>Sr. No</t>
   </si>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,6 +792,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1258,39 +1261,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="A6" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1360,36 +1363,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1466,39 +1469,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1581,39 +1584,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1684,39 +1687,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1801,12 +1804,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="A4" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1872,36 +1875,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1975,39 +1978,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2079,39 +2082,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2249,39 +2252,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="A6" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2353,39 +2356,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2461,39 +2464,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2566,39 +2569,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2671,39 +2674,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2772,48 +2775,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2855,48 +2858,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
+      <c r="A13" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2969,48 +2972,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3170,39 +3173,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="A7" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3270,36 +3273,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
+      <c r="A3" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3438,39 +3441,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="A6" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3536,36 +3539,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
+      <c r="A3" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3637,39 +3640,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3742,39 +3745,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3842,36 +3845,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
+      <c r="A3" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4081,39 +4084,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="A9" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4185,39 +4188,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4286,36 +4289,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
+      <c r="A3" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4383,35 +4386,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4484,39 +4487,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4589,39 +4592,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4694,39 +4697,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4863,39 +4866,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="A6" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5049,39 +5052,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
+      <c r="A4" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5189,13 +5192,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5271,13 +5274,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5350,39 +5353,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5455,39 +5458,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5560,39 +5563,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5658,48 +5661,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -5765,48 +5768,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -5878,39 +5881,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -5985,39 +5988,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6091,39 +6094,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6194,39 +6197,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6300,39 +6303,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -6406,39 +6409,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6517,39 +6520,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -6612,13 +6615,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="91">
-        <v>1</v>
-      </c>
-      <c r="D2" s="91">
+      <c r="C2" s="92">
+        <v>1</v>
+      </c>
+      <c r="D2" s="92">
         <v>84050</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="92">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -6630,9 +6633,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -6641,9 +6644,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -6652,9 +6655,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -6663,9 +6666,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -6674,9 +6677,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -6685,9 +6688,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -6696,9 +6699,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -6707,63 +6710,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
+      <c r="A11" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -6866,39 +6869,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="A4" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -6974,39 +6977,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7024,10 +7027,10 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7039,7 +7042,7 @@
     <col min="5" max="5" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.4" customHeight="1">
+    <row r="1" spans="1:10" ht="29.4" customHeight="1">
       <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.2" customHeight="1">
+    <row r="2" spans="1:10" ht="31.2" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.4" customHeight="1">
+    <row r="3" spans="1:10" ht="26.4" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -7092,47 +7095,153 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="27.6">
+      <c r="A10" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27.6">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1906.78</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" ref="E11:E12" si="1">C11*D11</f>
+        <v>1906.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27.6">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9">
+        <v>97.48</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>584.88</v>
+      </c>
+      <c r="I12">
+        <f>2250/1.18</f>
+        <v>1906.7796610169491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="80">
+        <f>SUM(E11:E12)</f>
+        <v>2491.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="80">
+        <f>E13*18%</f>
+        <v>448.49879999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="80">
+        <f>SUM(E13:E14)</f>
+        <v>2940.1587999999997</v>
+      </c>
+      <c r="G15">
+        <f>E15-E6</f>
+        <v>1145.3787999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="J16">
+        <f>2250-1100</f>
+        <v>1150</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7201,39 +7310,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -7309,39 +7418,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -7423,13 +7532,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -7437,13 +7546,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -7451,13 +7560,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -7526,36 +7635,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="47" activeTab="53"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="48" activeTab="54"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,7 @@
     <sheet name="IMCC &amp; Co 220" sheetId="53" r:id="rId52"/>
     <sheet name="Namrata 221" sheetId="55" r:id="rId53"/>
     <sheet name="Aditya 222" sheetId="56" r:id="rId54"/>
+    <sheet name="My Window 301" sheetId="57" r:id="rId55"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="104">
   <si>
     <t>Sr. No</t>
   </si>
@@ -355,12 +356,77 @@
   <si>
     <t>Dlink Patch Panel  UTP Keystone- 24 Port- Lloaded (Cat 5e,Cat 6 &amp; Cat 6 A )</t>
   </si>
+  <si>
+    <t xml:space="preserve">SR.
+NO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLASS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE </t>
+  </si>
+  <si>
+    <t>SPECIFICATION</t>
+  </si>
+  <si>
+    <t>SIZES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS PER SITE </t>
+  </si>
+  <si>
+    <t>10mm Clear
+Toughened Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature
+Sliding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Track 3Glass Shutter Sliding Window  (Outer Interlocks Are With Reinforcement) </t>
+  </si>
+  <si>
+    <t>8mm Clear
+Toughened Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slimline
+Sliding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Track 3Glass Shutter Sliding Window (Outer Interlocks Are With Reinforcement)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W3 </t>
+  </si>
+  <si>
+    <t>Price Per Unit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +498,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial   "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial   "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial   "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial   "/>
     </font>
   </fonts>
   <fills count="4">
@@ -564,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,6 +928,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7029,8 +7147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7242,6 +7360,288 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" style="101" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="101" customWidth="1"/>
+    <col min="3" max="3" width="11" style="101" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="101"/>
+    <col min="5" max="5" width="7" style="101" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="101" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="101" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" style="101" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="101" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" style="101" customWidth="1"/>
+    <col min="11" max="11" width="7" style="101" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="101"/>
+    <col min="14" max="15" width="10.5546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="101"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="27.6" customHeight="1">
+      <c r="A1" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="97"/>
+      <c r="I1" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="1:15" ht="82.2" customHeight="1">
+      <c r="A3" s="99">
+        <v>1</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="99">
+        <v>4250</v>
+      </c>
+      <c r="H3" s="99">
+        <v>2600</v>
+      </c>
+      <c r="I3" s="99">
+        <v>1</v>
+      </c>
+      <c r="J3" s="100">
+        <v>119402.8</v>
+      </c>
+      <c r="K3" s="104">
+        <f>I3*J3</f>
+        <v>119402.8</v>
+      </c>
+      <c r="N3" s="101">
+        <f>140473.84*15%</f>
+        <v>21071.075999999997</v>
+      </c>
+      <c r="O3" s="101">
+        <f>140473.84-N3</f>
+        <v>119402.764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="69.599999999999994" customHeight="1">
+      <c r="A4" s="99">
+        <v>2</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="99">
+        <v>3200</v>
+      </c>
+      <c r="H4" s="99">
+        <v>2120</v>
+      </c>
+      <c r="I4" s="99">
+        <v>1</v>
+      </c>
+      <c r="J4" s="100">
+        <v>58939.8</v>
+      </c>
+      <c r="K4" s="104">
+        <f t="shared" ref="K4:K5" si="0">I4*J4</f>
+        <v>58939.8</v>
+      </c>
+      <c r="N4" s="101">
+        <f>69341*15%</f>
+        <v>10401.15</v>
+      </c>
+      <c r="O4" s="101">
+        <f>69341-N4</f>
+        <v>58939.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="87.6" customHeight="1">
+      <c r="A5" s="99">
+        <v>3</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="99">
+        <v>2800</v>
+      </c>
+      <c r="H5" s="99">
+        <v>2120</v>
+      </c>
+      <c r="I5" s="99">
+        <v>1</v>
+      </c>
+      <c r="J5" s="100">
+        <v>65759.899999999994</v>
+      </c>
+      <c r="K5" s="104">
+        <f t="shared" si="0"/>
+        <v>65759.899999999994</v>
+      </c>
+      <c r="N5" s="101">
+        <f>77364.69*15%</f>
+        <v>11604.7035</v>
+      </c>
+      <c r="O5" s="101">
+        <f>77364.69-N5</f>
+        <v>65759.986499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A6" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103">
+        <f>SUM(K3:K5)</f>
+        <v>244102.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A7" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103">
+        <f>K6*18%</f>
+        <v>43938.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="13.2" customHeight="1">
+      <c r="A8" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103">
+        <f>SUM(K6:K7)</f>
+        <v>288040.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="48" activeTab="54"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="51" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,8 @@
     <sheet name="Namrata 221" sheetId="55" r:id="rId53"/>
     <sheet name="Aditya 222" sheetId="56" r:id="rId54"/>
     <sheet name="My Window 301" sheetId="57" r:id="rId55"/>
+    <sheet name="Multi Bath Service 302" sheetId="58" r:id="rId56"/>
+    <sheet name="Dell 303" sheetId="60" r:id="rId57"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="153">
   <si>
     <t>Sr. No</t>
   </si>
@@ -421,12 +423,159 @@
   <si>
     <t>Price Per Unit</t>
   </si>
+  <si>
+    <t xml:space="preserve">2Track 2Glass Shutter Sliding Window  (Outer Interlocks Are With Reinforcement) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Control with FM </t>
+  </si>
+  <si>
+    <t>LED Light Underwater</t>
+  </si>
+  <si>
+    <t>Water Level Controller</t>
+  </si>
+  <si>
+    <t>Designer Headrest 4 PCS</t>
+  </si>
+  <si>
+    <t>Bath Filler Set</t>
+  </si>
+  <si>
+    <t>Hydro Massage</t>
+  </si>
+  <si>
+    <t>Bubble Bath</t>
+  </si>
+  <si>
+    <t>Ozonier</t>
+  </si>
+  <si>
+    <t>Earth Leakage Circuit Breaker</t>
+  </si>
+  <si>
+    <t>Full Water Capacity - 550 L</t>
+  </si>
+  <si>
+    <t>Hydro Massage Jet 6 Pcs</t>
+  </si>
+  <si>
+    <t>Air Massage Jet - 20 PCs</t>
+  </si>
+  <si>
+    <t>Air Motor - 750 W</t>
+  </si>
+  <si>
+    <t>Online Heater</t>
+  </si>
+  <si>
+    <t>Transport Till Site</t>
+  </si>
+  <si>
+    <t>Installation, Testing and Commissioning with on site person / team</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Item Description (Features and Specifications)</t>
+  </si>
+  <si>
+    <t>Jacuzzi system with 6 hydrojets Body Jet </t>
+  </si>
+  <si>
+    <t>Whirlpool  Motor  1.5 HP</t>
+  </si>
+  <si>
+    <t>Fully Body Stand</t>
+  </si>
+  <si>
+    <t>Pop Drainage System</t>
+  </si>
+  <si>
+    <t>Front Panel</t>
+  </si>
+  <si>
+    <t>Side Panel</t>
+  </si>
+  <si>
+    <t>Bubble bath with 12 jet Supported air blower </t>
+  </si>
+  <si>
+    <t>Spinal Massager Jet 8 PCS 4 foot massager 4 back massager</t>
+  </si>
+  <si>
+    <t>Bubble blower 0.5hp</t>
+  </si>
+  <si>
+    <t>Multicolour  1 Led light chromatography 7 colour change</t>
+  </si>
+  <si>
+    <t>Designer Headrest pillow 4 psc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Water Capacity  </t>
+  </si>
+  <si>
+    <t>Jacuzzi ON/OFF push button speed controller regulator </t>
+  </si>
+  <si>
+    <t>Bubble ON/OFF push button </t>
+  </si>
+  <si>
+    <t>Fully computerized control panel </t>
+  </si>
+  <si>
+    <t>Filler set hot cold and mixture diverter spout hand shower 3 flow system </t>
+  </si>
+  <si>
+    <t>Touch screen with control panel </t>
+  </si>
+  <si>
+    <t>Water level controller</t>
+  </si>
+  <si>
+    <t>Stereo phonic radio FM</t>
+  </si>
+  <si>
+    <t>Bluetooth &amp; aux music system </t>
+  </si>
+  <si>
+    <t>Automatic Shut Down safety  protection against high current leakage</t>
+  </si>
+  <si>
+    <t>Earth leakage circuit breaker</t>
+  </si>
+  <si>
+    <t>Suction unit </t>
+  </si>
+  <si>
+    <t>Self draining pipes</t>
+  </si>
+  <si>
+    <t>Water shortage protection</t>
+  </si>
+  <si>
+    <t>Online heater 2kw</t>
+  </si>
+  <si>
+    <t>Ozonizeration System</t>
+  </si>
+  <si>
+    <t>2 Year full tub accessories guarantee</t>
+  </si>
+  <si>
+    <t>5 Year motor replacement guarantee</t>
+  </si>
+  <si>
+    <t>10 Year colour shade guarantee...!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +669,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial   "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="4">
@@ -652,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -888,55 +1043,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -954,10 +1061,82 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1379,39 +1558,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="A6" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1481,36 +1660,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90"/>
+      <c r="A3" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1587,39 +1766,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1702,39 +1881,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1805,39 +1984,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1922,12 +2101,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="A4" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1993,36 +2172,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2096,39 +2275,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2200,39 +2379,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2370,39 +2549,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="A6" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2474,39 +2653,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2582,39 +2761,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2687,39 +2866,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2792,39 +2971,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2893,48 +3072,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2976,48 +3155,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="A13" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3090,48 +3269,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3291,39 +3470,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="A7" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3391,36 +3570,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
+      <c r="A3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3559,39 +3738,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="A6" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3657,36 +3836,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
+      <c r="A3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3758,39 +3937,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="A3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3863,39 +4042,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3963,36 +4142,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
+      <c r="A3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4202,39 +4381,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+      <c r="A9" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4306,39 +4485,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4407,36 +4586,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
+      <c r="A3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4457,7 +4636,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4504,35 +4683,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4605,39 +4784,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4710,39 +4889,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4815,39 +4994,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4984,39 +5163,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="A6" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5170,39 +5349,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
+      <c r="A4" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5310,13 +5489,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5392,13 +5571,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5471,39 +5650,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5576,39 +5755,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5681,39 +5860,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5779,48 +5958,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -5886,48 +6065,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -5999,39 +6178,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6106,39 +6285,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6212,39 +6391,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6315,39 +6494,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6421,39 +6600,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -6527,39 +6706,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6638,39 +6817,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="A3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -6733,13 +6912,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="92">
-        <v>1</v>
-      </c>
-      <c r="D2" s="92">
+      <c r="C2" s="102">
+        <v>1</v>
+      </c>
+      <c r="D2" s="102">
         <v>84050</v>
       </c>
-      <c r="E2" s="92">
+      <c r="E2" s="102">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -6751,9 +6930,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -6762,9 +6941,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -6773,9 +6952,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -6784,9 +6963,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -6795,9 +6974,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -6806,9 +6985,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -6817,9 +6996,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -6828,63 +7007,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="A11" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -6987,39 +7166,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="A4" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7095,39 +7274,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7148,7 +7327,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7214,36 +7393,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7307,36 +7486,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
+      <c r="A13" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -7369,269 +7548,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="101" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="101" customWidth="1"/>
-    <col min="3" max="3" width="11" style="101" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="101"/>
-    <col min="5" max="5" width="7" style="101" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="101" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="101" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" style="101" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="101" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="101" customWidth="1"/>
-    <col min="11" max="11" width="7" style="101" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="101"/>
-    <col min="14" max="15" width="10.5546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="101"/>
+    <col min="1" max="1" width="5.33203125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="85" customWidth="1"/>
+    <col min="3" max="3" width="11" style="85" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="85"/>
+    <col min="5" max="5" width="7" style="85" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="85" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="85" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" style="85" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="85" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" style="85" customWidth="1"/>
+    <col min="11" max="11" width="7" style="85" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="85"/>
+    <col min="14" max="15" width="10.5546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="95" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="98" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="102"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="105"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
-      <c r="A3" s="99">
-        <v>1</v>
-      </c>
-      <c r="B3" s="99" t="s">
+      <c r="A3" s="83">
+        <v>1</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="83">
         <v>4250</v>
       </c>
-      <c r="H3" s="99">
+      <c r="H3" s="83">
         <v>2600</v>
       </c>
-      <c r="I3" s="99">
-        <v>1</v>
-      </c>
-      <c r="J3" s="100">
+      <c r="I3" s="83">
+        <v>1</v>
+      </c>
+      <c r="J3" s="84">
         <v>119402.8</v>
       </c>
-      <c r="K3" s="104">
+      <c r="K3" s="87">
         <f>I3*J3</f>
         <v>119402.8</v>
       </c>
-      <c r="N3" s="101">
+      <c r="N3" s="85">
         <f>140473.84*15%</f>
         <v>21071.075999999997</v>
       </c>
-      <c r="O3" s="101">
+      <c r="O3" s="85">
         <f>140473.84-N3</f>
         <v>119402.764</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="69.599999999999994" customHeight="1">
-      <c r="A4" s="99">
+      <c r="A4" s="83">
         <v>2</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="83">
         <v>3200</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="83">
         <v>2120</v>
       </c>
-      <c r="I4" s="99">
-        <v>1</v>
-      </c>
-      <c r="J4" s="100">
+      <c r="I4" s="83">
+        <v>1</v>
+      </c>
+      <c r="J4" s="84">
         <v>58939.8</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="87">
         <f t="shared" ref="K4:K5" si="0">I4*J4</f>
         <v>58939.8</v>
       </c>
-      <c r="N4" s="101">
+      <c r="N4" s="85">
         <f>69341*15%</f>
         <v>10401.15</v>
       </c>
-      <c r="O4" s="101">
+      <c r="O4" s="85">
         <f>69341-N4</f>
         <v>58939.85</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="87.6" customHeight="1">
-      <c r="A5" s="99">
+      <c r="A5" s="83">
         <v>3</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="99">
+      <c r="F5" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="83">
         <v>2800</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="83">
         <v>2120</v>
       </c>
-      <c r="I5" s="99">
-        <v>1</v>
-      </c>
-      <c r="J5" s="100">
+      <c r="I5" s="83">
+        <v>1</v>
+      </c>
+      <c r="J5" s="84">
         <v>65759.899999999994</v>
       </c>
-      <c r="K5" s="104">
+      <c r="K5" s="87">
         <f t="shared" si="0"/>
         <v>65759.899999999994</v>
       </c>
-      <c r="N5" s="101">
+      <c r="N5" s="85">
         <f>77364.69*15%</f>
         <v>11604.7035</v>
       </c>
-      <c r="O5" s="101">
+      <c r="O5" s="85">
         <f>77364.69-N5</f>
         <v>65759.986499999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103">
+      <c r="A6" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="86">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="86">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103">
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="86">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7642,6 +7818,614 @@
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" style="74" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A2" s="109">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="109">
+        <v>1</v>
+      </c>
+      <c r="D2" s="109">
+        <v>150000</v>
+      </c>
+      <c r="E2" s="109">
+        <f>C2*D2</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.2" customHeight="1">
+      <c r="A3" s="110"/>
+      <c r="B3" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="110"/>
+      <c r="B4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="110"/>
+      <c r="B5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="110"/>
+      <c r="B6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="110"/>
+      <c r="B7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="110"/>
+      <c r="B8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="110"/>
+      <c r="B9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="110"/>
+      <c r="B10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="110"/>
+      <c r="B11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="110"/>
+      <c r="B12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="110"/>
+      <c r="B13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="110"/>
+      <c r="B14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="110"/>
+      <c r="B15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="110"/>
+      <c r="B16" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="110"/>
+      <c r="B17" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="110"/>
+      <c r="B18" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="110"/>
+      <c r="B19" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="110"/>
+      <c r="B20" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="110"/>
+      <c r="B21" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="110"/>
+      <c r="B22" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="110"/>
+      <c r="B23" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="110"/>
+      <c r="B24" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="110"/>
+      <c r="B25" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="110"/>
+      <c r="B26" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="110"/>
+      <c r="B27" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="110"/>
+      <c r="B28" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="110"/>
+      <c r="B29" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+    </row>
+    <row r="30" spans="1:5" ht="27.6">
+      <c r="A30" s="110"/>
+      <c r="B30" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="110"/>
+      <c r="B31" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="110"/>
+      <c r="B32" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="110"/>
+      <c r="B33" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="110"/>
+      <c r="B34" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+    </row>
+    <row r="35" spans="1:5" ht="27.6">
+      <c r="A35" s="110"/>
+      <c r="B35" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="110"/>
+      <c r="B36" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="110"/>
+      <c r="B37" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="110"/>
+      <c r="B38" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="110"/>
+      <c r="B39" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="110"/>
+      <c r="B40" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="111"/>
+      <c r="B41" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="112">
+        <v>2</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="112">
+        <v>1</v>
+      </c>
+      <c r="D42" s="112">
+        <v>130000</v>
+      </c>
+      <c r="E42" s="112">
+        <f>C42*D42</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="112"/>
+      <c r="B43" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+    </row>
+    <row r="44" spans="1:5" ht="21" customHeight="1">
+      <c r="A44" s="112"/>
+      <c r="B44" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="81">
+        <f>SUM(E2:E42)</f>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="81">
+        <f>E45*18%</f>
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="81">
+        <f>SUM(E45:E46)</f>
+        <v>330400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="C2:C41"/>
+    <mergeCell ref="D2:D41"/>
+    <mergeCell ref="E2:E41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A42:A44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="302.39999999999998">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>36889.24</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>73778.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="88">
+        <f>SUM(E2)</f>
+        <v>73778.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="88">
+        <v>13280.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="88">
+        <f>SUM(E3:E4)</f>
+        <v>87058.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7710,39 +8494,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -7818,39 +8602,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="A3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -7932,13 +8716,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -7946,13 +8730,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -7960,13 +8744,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -8035,36 +8819,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="51" activeTab="56"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="54" activeTab="54"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,9 @@
     <sheet name="My Window 301" sheetId="57" r:id="rId55"/>
     <sheet name="Multi Bath Service 302" sheetId="58" r:id="rId56"/>
     <sheet name="Dell 303" sheetId="60" r:id="rId57"/>
+    <sheet name="Collevtive 304" sheetId="61" r:id="rId58"/>
+    <sheet name="ingram 305" sheetId="62" r:id="rId59"/>
+    <sheet name="V M Traders 306" sheetId="63" r:id="rId60"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -75,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="156">
   <si>
     <t>Sr. No</t>
   </si>
@@ -363,9 +366,6 @@
 NO. </t>
   </si>
   <si>
-    <t xml:space="preserve">LOCATION </t>
-  </si>
-  <si>
     <t xml:space="preserve">GLASS </t>
   </si>
   <si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS PER SITE </t>
   </si>
   <si>
     <t>10mm Clear
@@ -398,9 +395,6 @@
 Sliding </t>
   </si>
   <si>
-    <t xml:space="preserve">W1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">3Track 3Glass Shutter Sliding Window  (Outer Interlocks Are With Reinforcement) </t>
   </si>
   <si>
@@ -412,15 +406,9 @@
 Sliding </t>
   </si>
   <si>
-    <t xml:space="preserve">W2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">3Track 3Glass Shutter Sliding Window (Outer Interlocks Are With Reinforcement)  </t>
   </si>
   <si>
-    <t xml:space="preserve">W3 </t>
-  </si>
-  <si>
     <t>Price Per Unit</t>
   </si>
   <si>
@@ -569,13 +557,37 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Delta 600 VA UPS</t>
+  </si>
+  <si>
+    <t>Ref no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MW/PL/23-24/QO-0197R2 (Option 2)</t>
+  </si>
+  <si>
+    <t>MW/PL/23-24/QO-0197R1 (Option 1)</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>15% Discount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,30 +662,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial   "/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial   "/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial   "/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri  "/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial   "/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF000000"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -807,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1046,97 +1042,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1558,39 +1551,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="A6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1660,36 +1653,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1766,39 +1759,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1881,39 +1874,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1984,39 +1977,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2101,12 +2094,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
+      <c r="A4" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2172,36 +2165,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2275,39 +2268,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2379,39 +2372,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2549,39 +2542,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="A6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2653,39 +2646,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2761,39 +2754,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2866,39 +2859,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2971,39 +2964,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3072,48 +3065,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3155,48 +3148,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
+      <c r="A13" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3269,48 +3262,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3470,39 +3463,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="A7" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3570,36 +3563,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3738,39 +3731,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="A6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3836,36 +3829,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3937,39 +3930,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4042,39 +4035,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4142,36 +4135,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4381,39 +4374,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="A9" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4485,39 +4478,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4586,36 +4579,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4683,35 +4676,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4784,39 +4777,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4889,39 +4882,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4994,39 +4987,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5163,39 +5156,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="A6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5277,7 +5270,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5349,39 +5342,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="A4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5489,13 +5482,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5571,13 +5564,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5650,39 +5643,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5755,39 +5748,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5860,39 +5853,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5958,48 +5951,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6065,48 +6058,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6178,39 +6171,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6285,39 +6278,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6391,39 +6384,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6494,39 +6487,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6600,39 +6593,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -6706,39 +6699,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6817,39 +6810,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -6912,13 +6905,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="102">
-        <v>1</v>
-      </c>
-      <c r="D2" s="102">
+      <c r="C2" s="100">
+        <v>1</v>
+      </c>
+      <c r="D2" s="100">
         <v>84050</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="100">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -6930,9 +6923,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -6941,9 +6934,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -6952,9 +6945,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -6963,9 +6956,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -6974,9 +6967,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -6985,9 +6978,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -6996,9 +6989,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7007,63 +7000,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
+      <c r="A11" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7166,39 +7159,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="A4" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7274,39 +7267,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7393,36 +7386,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="A4" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7486,36 +7479,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="A13" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -7546,268 +7539,514 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="85" customWidth="1"/>
-    <col min="3" max="3" width="11" style="85" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="85"/>
-    <col min="5" max="5" width="7" style="85" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="85" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="85" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" style="85" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="85" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="85" customWidth="1"/>
-    <col min="11" max="11" width="7" style="85" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="85"/>
-    <col min="14" max="15" width="10.5546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="85"/>
+    <col min="1" max="1" width="4.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="8" style="23" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="23"/>
+    <col min="14" max="15" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.6" customHeight="1">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:15" ht="16.2" customHeight="1">
+      <c r="A1" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="D1" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="E1" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="F1" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="G1" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="H1" s="109"/>
+      <c r="I1" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12" customHeight="1">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="82" t="s">
+      <c r="H2" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:15" ht="82.2" customHeight="1">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="105"/>
-    </row>
-    <row r="3" spans="1:15" ht="82.2" customHeight="1">
-      <c r="A3" s="83">
-        <v>1</v>
-      </c>
-      <c r="B3" s="83" t="s">
+      <c r="D3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="E3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="83">
+      <c r="G3" s="14">
         <v>4250</v>
       </c>
-      <c r="H3" s="83">
+      <c r="H3" s="14">
         <v>2600</v>
       </c>
-      <c r="I3" s="83">
-        <v>1</v>
-      </c>
-      <c r="J3" s="84">
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="111">
         <v>119402.8</v>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="13">
         <f>I3*J3</f>
         <v>119402.8</v>
       </c>
-      <c r="N3" s="85">
+      <c r="N3" s="23">
         <f>140473.84*15%</f>
         <v>21071.075999999997</v>
       </c>
-      <c r="O3" s="85">
+      <c r="O3" s="23">
         <f>140473.84-N3</f>
         <v>119402.764</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="69.599999999999994" customHeight="1">
-      <c r="A4" s="83">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="83">
+      <c r="B4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="14">
         <v>3200</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="14">
         <v>2120</v>
       </c>
-      <c r="I4" s="83">
-        <v>1</v>
-      </c>
-      <c r="J4" s="84">
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="111">
         <v>58939.8</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K5" si="0">I4*J4</f>
         <v>58939.8</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="23">
         <f>69341*15%</f>
         <v>10401.15</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="23">
         <f>69341-N4</f>
         <v>58939.85</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="87.6" customHeight="1">
-      <c r="A5" s="83">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="83">
+      <c r="E5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="14">
         <v>2800</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="14">
         <v>2120</v>
       </c>
-      <c r="I5" s="83">
-        <v>1</v>
-      </c>
-      <c r="J5" s="84">
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="111">
         <v>65759.899999999994</v>
       </c>
-      <c r="K5" s="87">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>65759.899999999994</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="23">
         <f>77364.69*15%</f>
         <v>11604.7035</v>
       </c>
-      <c r="O5" s="85">
+      <c r="O5" s="23">
         <f>77364.69-N5</f>
         <v>65759.986499999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="86">
+      <c r="A6" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="86">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="86">
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="I16" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" customHeight="1">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+    </row>
+    <row r="18" spans="1:12" ht="66">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="14">
+        <v>4250</v>
+      </c>
+      <c r="H18" s="14">
+        <v>2600</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>140473.84</v>
+      </c>
+      <c r="K18" s="13">
+        <f>J18*15%</f>
+        <v>21071.075999999997</v>
+      </c>
+      <c r="L18" s="13">
+        <f>J18-K18</f>
+        <v>119402.764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="66">
+      <c r="A19" s="14">
+        <v>2</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3200</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2120</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13">
+        <v>69341</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" ref="K19:K20" si="1">J19*15%</f>
+        <v>10401.15</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" ref="L19:L20" si="2">J19-K19</f>
+        <v>58939.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="66">
+      <c r="A20" s="14">
+        <v>3</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="14">
+        <v>2800</v>
+      </c>
+      <c r="H20" s="14">
+        <v>2120</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>77364.69</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="1"/>
+        <v>11604.7035</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="2"/>
+        <v>65759.986499999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="88">
+        <f>SUM(L18:L20)</f>
+        <v>244102.6005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.2" customHeight="1">
+      <c r="A22" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="88">
+        <f>L21*18%</f>
+        <v>43938.468089999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.2" customHeight="1">
+      <c r="A23" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="88">
+        <f>SUM(L21:L22)</f>
+        <v>288041.06858999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="27">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7823,6 +8062,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7846,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C1" s="81" t="s">
         <v>3</v>
@@ -7859,464 +8099,464 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="109">
+      <c r="A2" s="103">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="109">
-        <v>1</v>
-      </c>
-      <c r="D2" s="109">
+        <v>117</v>
+      </c>
+      <c r="C2" s="103">
+        <v>1</v>
+      </c>
+      <c r="D2" s="103">
         <v>150000</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="103">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="110"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="104"/>
+      <c r="B4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="104"/>
+      <c r="B5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="104"/>
+      <c r="B6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="104"/>
+      <c r="B7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="104"/>
+      <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="110"/>
-      <c r="B4" s="9" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="104"/>
+      <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="110"/>
-      <c r="B5" s="9" t="s">
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="104"/>
+      <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="110"/>
-      <c r="B6" s="9" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="104"/>
+      <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="110"/>
-      <c r="B7" s="9" t="s">
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="104"/>
+      <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="110"/>
-      <c r="B8" s="9" t="s">
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="104"/>
+      <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="110"/>
-      <c r="B9" s="9" t="s">
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="104"/>
+      <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="110"/>
-      <c r="B10" s="9" t="s">
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="104"/>
+      <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="110"/>
-      <c r="B11" s="9" t="s">
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="104"/>
+      <c r="B16" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="104"/>
+      <c r="B17" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="104"/>
+      <c r="B18" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="104"/>
+      <c r="B19" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="104"/>
+      <c r="B20" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="104"/>
+      <c r="B21" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="104"/>
+      <c r="B22" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="104"/>
+      <c r="B23" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="104"/>
+      <c r="B24" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="104"/>
+      <c r="B25" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="104"/>
+      <c r="B26" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="104"/>
+      <c r="B27" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="104"/>
+      <c r="B28" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="104"/>
+      <c r="B29" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+    </row>
+    <row r="30" spans="1:5" ht="27.6">
+      <c r="A30" s="104"/>
+      <c r="B30" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="104"/>
+      <c r="B31" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="104"/>
+      <c r="B32" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="104"/>
+      <c r="B33" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="104"/>
+      <c r="B34" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+    </row>
+    <row r="35" spans="1:5" ht="27.6">
+      <c r="A35" s="104"/>
+      <c r="B35" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="104"/>
+      <c r="B36" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="104"/>
+      <c r="B37" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="104"/>
+      <c r="B38" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="104"/>
+      <c r="B39" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="104"/>
+      <c r="B40" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="105"/>
+      <c r="B41" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="106">
+        <v>2</v>
+      </c>
+      <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="110"/>
-      <c r="B12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="110"/>
-      <c r="B13" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="110"/>
-      <c r="B14" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="110"/>
-      <c r="B15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="110"/>
-      <c r="B16" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="110"/>
-      <c r="B17" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="110"/>
-      <c r="B18" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="110"/>
-      <c r="B19" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="110"/>
-      <c r="B20" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="110"/>
-      <c r="B21" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="110"/>
-      <c r="B22" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="110"/>
-      <c r="B23" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="110"/>
-      <c r="B24" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="110"/>
-      <c r="B25" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="110"/>
-      <c r="B26" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="110"/>
-      <c r="B27" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="110"/>
-      <c r="B28" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="110"/>
-      <c r="B29" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-    </row>
-    <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="110"/>
-      <c r="B30" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="110"/>
-      <c r="B31" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="110"/>
-      <c r="B32" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="110"/>
-      <c r="B33" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="110"/>
-      <c r="B34" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-    </row>
-    <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="110"/>
-      <c r="B35" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="110"/>
-      <c r="B36" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="110"/>
-      <c r="B37" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="110"/>
-      <c r="B38" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="110"/>
-      <c r="B39" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="110"/>
-      <c r="B40" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="111"/>
-      <c r="B41" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="112">
-        <v>2</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="112">
-        <v>1</v>
-      </c>
-      <c r="D42" s="112">
+      <c r="C42" s="106">
+        <v>1</v>
+      </c>
+      <c r="D42" s="106">
         <v>130000</v>
       </c>
-      <c r="E42" s="112">
+      <c r="E42" s="106">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="112"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
+        <v>114</v>
+      </c>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="112"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
+        <v>115</v>
+      </c>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
+      <c r="A45" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="90" t="s">
-        <v>149</v>
+      <c r="A49" s="84" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="90" t="s">
-        <v>150</v>
+      <c r="A50" s="84" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="90" t="s">
-        <v>151</v>
+      <c r="A51" s="84" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="B55" s="74" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -8341,8 +8581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8352,19 +8592,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.8" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="82" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8387,38 +8627,236 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="82">
+        <f>SUM(E2)</f>
+        <v>73778.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="82">
+        <v>13280.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="82">
+        <f>SUM(E3:E4)</f>
+        <v>87058.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>445</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
-      <c r="E3" s="88">
-        <f>SUM(E2)</f>
-        <v>73778.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="85">
+        <f>SUM(F2:F2)</f>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="91"/>
       <c r="C4" s="91"/>
       <c r="D4" s="91"/>
-      <c r="E4" s="88">
-        <v>13280.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="85">
+        <f>F3*18%</f>
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="90" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="91"/>
       <c r="C5" s="91"/>
       <c r="D5" s="91"/>
-      <c r="E5" s="88">
+      <c r="E5" s="92"/>
+      <c r="F5" s="85">
+        <f>SUM(F3:F4)</f>
+        <v>52510</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.8" customHeight="1">
+      <c r="A1" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1750</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="86">
+        <f>SUM(E2)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="86">
+        <f>E3*18%</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
-        <v>87058.59</v>
+        <v>4130</v>
       </c>
     </row>
   </sheetData>
@@ -8494,39 +8932,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -8537,6 +8975,100 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8">
+      <c r="A1" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2*C2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="87">
+        <f>SUM(E2)</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="87">
+        <f>E3*18%</f>
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="87">
+        <f>SUM(E3:E4)</f>
+        <v>38940</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8602,39 +9134,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -8716,13 +9248,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -8730,13 +9262,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -8744,13 +9276,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -8819,36 +9351,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="A3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="54" activeTab="54"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="55" activeTab="61"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,8 @@
     <sheet name="Collevtive 304" sheetId="61" r:id="rId58"/>
     <sheet name="ingram 305" sheetId="62" r:id="rId59"/>
     <sheet name="V M Traders 306" sheetId="63" r:id="rId60"/>
+    <sheet name="Collective 307" sheetId="64" r:id="rId61"/>
+    <sheet name="Namrata 308" sheetId="65" r:id="rId62"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="156">
   <si>
     <t>Sr. No</t>
   </si>
@@ -803,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,6 +1068,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,6 +1119,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,21 +1138,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1551,39 +1559,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
+      <c r="A6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1653,36 +1661,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1759,39 +1767,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1874,39 +1882,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1977,39 +1985,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2094,12 +2102,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="A4" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2165,36 +2173,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2268,39 +2276,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2372,39 +2380,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2542,39 +2550,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
+      <c r="A6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2646,39 +2654,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2754,39 +2762,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2859,39 +2867,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2964,39 +2972,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3065,48 +3073,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3148,48 +3156,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
+      <c r="A13" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3262,48 +3270,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3463,39 +3471,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="A7" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3563,36 +3571,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3731,39 +3739,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
+      <c r="A6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3829,36 +3837,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3930,39 +3938,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4035,39 +4043,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4135,36 +4143,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4193,7 +4201,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4374,39 +4382,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
+      <c r="A9" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4478,39 +4486,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4579,36 +4587,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4676,35 +4684,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4777,39 +4785,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4882,39 +4890,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4987,39 +4995,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5156,39 +5164,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
+      <c r="A6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5342,39 +5350,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="A4" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5482,13 +5490,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5564,13 +5572,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5643,39 +5651,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5748,39 +5756,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5853,39 +5861,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5951,48 +5959,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6058,48 +6066,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6171,39 +6179,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6278,39 +6286,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6384,39 +6392,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6487,39 +6495,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6593,39 +6601,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -6699,39 +6707,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6810,39 +6818,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -6905,13 +6913,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="100">
-        <v>1</v>
-      </c>
-      <c r="D2" s="100">
+      <c r="C2" s="104">
+        <v>1</v>
+      </c>
+      <c r="D2" s="104">
         <v>84050</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="104">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -6923,9 +6931,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -6934,9 +6942,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -6945,9 +6953,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -6956,9 +6964,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -6967,9 +6975,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -6978,9 +6986,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -6989,9 +6997,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7000,63 +7008,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
+      <c r="A11" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7159,39 +7167,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="A4" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7267,39 +7275,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7386,36 +7394,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="A4" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7479,36 +7487,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="A13" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -7541,7 +7549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -7593,7 +7601,7 @@
       <c r="J1" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="98" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7604,15 +7612,15 @@
       <c r="D2" s="107"/>
       <c r="E2" s="107"/>
       <c r="F2" s="107"/>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="107"/>
       <c r="J2" s="107"/>
-      <c r="K2" s="94"/>
+      <c r="K2" s="98"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -7642,7 +7650,7 @@
       <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="111">
+      <c r="J3" s="91">
         <v>119402.8</v>
       </c>
       <c r="K3" s="13">
@@ -7686,7 +7694,7 @@
       <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="91">
         <v>58939.8</v>
       </c>
       <c r="K4" s="13">
@@ -7730,7 +7738,7 @@
       <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="111">
+      <c r="J5" s="91">
         <v>65759.899999999994</v>
       </c>
       <c r="K5" s="13">
@@ -7747,54 +7755,54 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
+      <c r="A6" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
@@ -7829,10 +7837,10 @@
       <c r="J16" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="94" t="s">
+      <c r="K16" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="94" t="s">
+      <c r="L16" s="98" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7843,18 +7851,18 @@
       <c r="D17" s="107"/>
       <c r="E17" s="107"/>
       <c r="F17" s="107"/>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
       <c r="I17" s="107"/>
       <c r="J17" s="107"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-    </row>
-    <row r="18" spans="1:12" ht="66">
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+    </row>
+    <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
         <v>1</v>
       </c>
@@ -7894,7 +7902,7 @@
         <v>119402.764</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="66">
+    <row r="19" spans="1:12" ht="79.2">
       <c r="A19" s="14">
         <v>2</v>
       </c>
@@ -7934,7 +7942,7 @@
         <v>58939.85</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="66">
+    <row r="20" spans="1:12" ht="79.2">
       <c r="A20" s="14">
         <v>3</v>
       </c>
@@ -7975,57 +7983,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="98"/>
+      <c r="A21" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="98"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8033,6 +8041,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="A22:K22"/>
@@ -8041,25 +8068,6 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8070,7 +8078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -8099,441 +8107,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="103">
+      <c r="A2" s="110">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="103">
-        <v>1</v>
-      </c>
-      <c r="D2" s="103">
+      <c r="C2" s="110">
+        <v>1</v>
+      </c>
+      <c r="D2" s="110">
         <v>150000</v>
       </c>
-      <c r="E2" s="103">
+      <c r="E2" s="110">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="104"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="104"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="104"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="104"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="104"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="104"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="104"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="104"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="104"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="104"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="104"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="104"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="104"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="104"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="104"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="104"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="104"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="104"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="104"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="104"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="104"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="104"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="104"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="104"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="104"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="104"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="104"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="104"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="104"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="104"/>
+      <c r="A32" s="111"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="104"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="104"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="104"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="104"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="104"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="104"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="104"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="104"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="105"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="106">
+      <c r="A42" s="113">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="106">
-        <v>1</v>
-      </c>
-      <c r="D42" s="106">
+      <c r="C42" s="113">
+        <v>1</v>
+      </c>
+      <c r="D42" s="113">
         <v>130000</v>
       </c>
-      <c r="E42" s="106">
+      <c r="E42" s="113">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="106"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="106"/>
+      <c r="A44" s="113"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
+      <c r="A45" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -8561,17 +8569,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E2:E41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="C2:C41"/>
     <mergeCell ref="D2:D41"/>
-    <mergeCell ref="E2:E41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8627,35 +8635,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -8726,39 +8734,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -8824,36 +8832,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -8932,39 +8940,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -8985,15 +8993,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8">
+    <row r="1" spans="1:5" ht="16.2" customHeight="1">
       <c r="A1" s="87" t="s">
         <v>14</v>
       </c>
@@ -9029,36 +9038,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9069,6 +9078,276 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29.4" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="89">
+        <f>SUM(F2:F2)</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="89">
+        <f>F3*18%</f>
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="89">
+        <f>SUM(F3:F4)</f>
+        <v>25960</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="39" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>615698</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1880</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>630059</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1725</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>616039</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>632215</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2270</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>11350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="92">
+        <f>SUM(F2:F5)</f>
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="92">
+        <f>F6*18%</f>
+        <v>31482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="92">
+        <f>SUM(F6:F7)</f>
+        <v>206382</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9134,39 +9413,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -9248,13 +9527,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -9262,13 +9541,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -9276,13 +9555,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -9351,36 +9630,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="55" activeTab="61"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="58" activeTab="64"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -69,6 +69,9 @@
     <sheet name="V M Traders 306" sheetId="63" r:id="rId60"/>
     <sheet name="Collective 307" sheetId="64" r:id="rId61"/>
     <sheet name="Namrata 308" sheetId="65" r:id="rId62"/>
+    <sheet name="Namrata 309" sheetId="66" r:id="rId63"/>
+    <sheet name="Palntex 310" sheetId="67" r:id="rId64"/>
+    <sheet name="Palntex 311" sheetId="68" r:id="rId65"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="179">
   <si>
     <t>Sr. No</t>
   </si>
@@ -584,12 +587,81 @@
   <si>
     <t>15% Discount</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Item Description </t>
+  </si>
+  <si>
+    <t>APS-1073-small-whit-smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APS-1072-grey-D2-smart-toilet </t>
+  </si>
+  <si>
+    <t>𝐏𝐥𝐚𝐧𝐭𝐞𝐱 𝐒𝐦𝐚𝐫𝐭 𝐁𝐢𝐝𝐞𝐭 𝐓𝐨𝐢𝐥𝐞𝐭/Smart Commode with Built-in Bidet Seat: a revolutionary bathroom fixture that combines cutting-edge technology with modern design. This all-in-one system brings convenience, hygiene, and comfort to your daily bathroom routine.</t>
+  </si>
+  <si>
+    <t>𝐅𝐨𝐨𝐭 𝐓𝐨𝐮𝐜𝐡𝐢𝐧𝐠 𝐋𝐢𝐝 𝐎𝐩𝐞𝐧𝐢𝐧𝐠/𝐀𝐮𝐭𝐨 𝐋𝐢𝐝 𝐂𝐥𝐨𝐬𝐢𝐧𝐠: No need to touch the toilet lid with your hands! The smart lid can be easily opened and closed by simply using your foot, providing a hygienic experience.</t>
+  </si>
+  <si>
+    <t>𝐅𝐥𝐮𝐬𝐡𝐢𝐧𝐠 𝐂𝐨𝐧𝐯𝐞𝐧𝐢𝐞𝐧𝐜𝐞: The smart toilet automatically flushes after each use, eliminating the need for manual flushing and ensuring a clean and hassle-free experience.</t>
+  </si>
+  <si>
+    <t>𝐇𝐞𝐚𝐭𝐞𝐝 𝐒𝐞𝐚𝐭: Say goodbye to chilly toilet seats! This Smart Bidet Toilet features a heated seat function that keeps you comfortable and cozy, especially during colder months.</t>
+  </si>
+  <si>
+    <t>𝐒𝐢𝐳𝐞: The Size Of Smart Toilet is – Open :- (l) 42 cm x (w) 68.5 x (h) 102 cm, Closed :- (l) 59.5 x (w) 38 x (h) 47 cm, Ideal distance between the wall and commode outlet is 300mm/12inch.Include Package :- 1 Piece of Smart Toilet, Liquid Bottel, Remote, Big Flange, 1 Angle Valve with Wall Flange</t>
+  </si>
+  <si>
+    <t>𝐃𝐢𝐠𝐢𝐭𝐚𝐥 𝐃𝐢𝐬𝐩𝐥𝐚𝐲 𝐚𝐧𝐝 𝐑𝐞𝐦𝐨𝐭𝐞 𝐂𝐨𝐧𝐭𝐫𝐨𝐥: The toilet comes with a user-friendly digital display panel that allows you to adjust various settings such as water temperature, water pressure, and seat temperature. Additionally, a remote control is provided for convenient operation from a distance.</t>
+  </si>
+  <si>
+    <t>𝐄𝐧𝐡𝐚𝐧𝐜𝐞𝐝 𝐇𝐲𝐠𝐢𝐞𝐧𝐞 𝐚𝐧𝐝 𝐂𝐨𝐦𝐟𝐨𝐫𝐭: The Plantex Smart Bidet Toilet offers a luxurious and hygienic bathroom experience. The built-in bidet seat with adjustable water pressure and nozzle position provides thorough cleaning, while the automatic lid closing and flushing feature adds convenience and promotes cleanliness.</t>
+  </si>
+  <si>
+    <t>𝐏𝐥𝐚𝐧𝐭𝐞𝐱 is a brand that provides widest range of home improvement products. Our products are designed to ensure that you have the best experience possible when it comes to upgrading your home. Plantex strives to provide you with high-quality products that are easy on the wallet, and we are committed to helping customers find the perfect fit for their needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plamtex Smart Bidet Toilet / Smart Commode with Built-in Bidet Seat: a revolutionary bathroom fixture that combines cutting-edge technology with modern design. This all-in-one system brings convenience, </t>
+  </si>
+  <si>
+    <t>𝐒𝐢𝐳𝐞: The Size Of Smart Toilet is – Open :- (l) 42 cm x (w) 68.5 x (h) 102 cm, Closed :- (l) 70.5 x (w) 40.5 x (h) 46 cm, Ideal distance between the wall and commode outlet is 250mm/9 inch.Include Package :- 1 Piece of Smart Toilet, Liquid Bottel, Remote, Big Flange, 1 Angle Valve with Wall Flange</t>
+  </si>
+  <si>
+    <t>Plantex Smart Bidet Toilet /Smart Commode with Built-in Bidet Seat: a revolutionary bathroom fixture that combines cutting-edge technology with modern design. This all-in-one system brings convenience, hygiene, and comfort to your daily bathroom routine.</t>
+  </si>
+  <si>
+    <t>Foot Touching Lid Openingh / Auto Lid Closing : No need to touch the toilet lid with your hands! The smart lid can be easily opened and closed by simply using your foot, providing a hygienic experience.</t>
+  </si>
+  <si>
+    <t>Flushing Conveinence : The smart toilet automatically flushes after each use, eliminating the need for manual flushing and ensuring a clean and hassle-free experience.</t>
+  </si>
+  <si>
+    <t>Heated Seat : Say goodbye to chilly toilet seats! This Smart Bidet Toilet features a heated seat function that keeps you comfortable and cozy, especially during colder months.</t>
+  </si>
+  <si>
+    <t>Size : The Size Of Smart Toilet is – Open :- (l) 42 cm x (w) 68.5 x (h) 102 cm, Closed :- (l) 70.5 x (w) 40.5 x (h) 46 cm, Ideal distance between the wall and commode outlet is 250mm/9 inch.Include Package :- 1 Piece of Smart Toilet, Liquid Bottel, Remote, Big Flange, 1 Angle Valve with Wall Flange</t>
+  </si>
+  <si>
+    <t>Digital Display and Remote Control : The toilet comes with a user-friendly digital display panel that allows you to adjust various settings such as water temperature, water pressure, and seat temperature. Additionally, a remote control is provided for convenient operation from a distance.</t>
+  </si>
+  <si>
+    <t>Enhanced Hygeiene and Comfort : The Plantex Smart Bidet Toilet offers a luxurious and hygienic bathroom experience. The built-in bidet seat with adjustable water pressure and nozzle position provides thorough cleaning, while the automatic lid closing and flushing feature adds convenience and promotes cleanliness.</t>
+  </si>
+  <si>
+    <t>Foot Touching Lid Opening / Auto Lid Closing : No need to touch the toilet lid with your hands! The smart lid can be easily opened and closed by simply using your foot, providing a hygienic experience.</t>
+  </si>
+  <si>
+    <t>Size : The Size Of Smart Toilet is – Open :- (l) 42 cm x (w) 68.5 x (h) 102 cm, Closed :- (l) 59.5 x (w) 38 x (h) 47 cm, Ideal distance between the wall and commode outlet is 300mm/12inch.Include Package :- 1 Piece of Smart Toilet, Liquid Bottel, Remote, Big Flange, 1 Angle Valve with Wall Flange</t>
+  </si>
+  <si>
+    <t>Enhance Hygeiene and Comfort : The Plantex Smart Bidet Toilet offers a luxurious and hygienic bathroom experience. The built-in bidet seat with adjustable water pressure and nozzle position provides thorough cleaning, while the automatic lid closing and flushing feature adds convenience and promotes cleanliness.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +744,11 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -805,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1080,6 +1157,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,6 +1221,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1559,39 +1664,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1661,36 +1766,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
+      <c r="A3" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1767,39 +1872,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1882,39 +1987,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1985,39 +2090,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2102,12 +2207,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
+      <c r="A4" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2173,36 +2278,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2276,39 +2381,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2380,39 +2485,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2550,39 +2655,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2654,39 +2759,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2762,39 +2867,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2867,39 +2972,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2972,39 +3077,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3073,48 +3178,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3156,48 +3261,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="A13" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3270,48 +3375,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3471,39 +3576,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="A7" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3571,36 +3676,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3739,39 +3844,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3837,36 +3942,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3938,39 +4043,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4043,39 +4148,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4143,36 +4248,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4382,39 +4487,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="A9" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4486,39 +4591,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4587,36 +4692,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4684,35 +4789,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4785,39 +4890,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4890,39 +4995,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4995,39 +5100,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5164,39 +5269,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5350,39 +5455,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="A4" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5490,13 +5595,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5572,13 +5677,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5651,39 +5756,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5756,39 +5861,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5861,39 +5966,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5959,48 +6064,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6066,48 +6171,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6179,39 +6284,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6286,39 +6391,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6392,39 +6497,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6495,39 +6600,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6601,39 +6706,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -6707,39 +6812,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6818,39 +6923,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -6913,13 +7018,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="104">
-        <v>1</v>
-      </c>
-      <c r="D2" s="104">
+      <c r="C2" s="106">
+        <v>1</v>
+      </c>
+      <c r="D2" s="106">
         <v>84050</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E2" s="106">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -6931,9 +7036,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -6942,9 +7047,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -6953,9 +7058,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -6964,9 +7069,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -6975,9 +7080,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -6986,9 +7091,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -6997,9 +7102,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7008,63 +7113,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
+      <c r="A11" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7167,39 +7272,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="A4" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7275,39 +7380,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7394,36 +7499,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="A4" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7487,36 +7592,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
+      <c r="A13" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -7573,54 +7678,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="107" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="98"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -7755,112 +7860,112 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="107" t="s">
+      <c r="F16" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="107" t="s">
+      <c r="H16" s="111"/>
+      <c r="I16" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="107" t="s">
+      <c r="J16" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="98" t="s">
+      <c r="K16" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="98" t="s">
+      <c r="L16" s="100" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
     </row>
     <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
@@ -7983,57 +8088,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
+      <c r="A21" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="104"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="104"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8078,8 +8183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8107,441 +8212,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="110">
+      <c r="A2" s="112">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="110">
-        <v>1</v>
-      </c>
-      <c r="D2" s="110">
+      <c r="C2" s="112">
+        <v>1</v>
+      </c>
+      <c r="D2" s="112">
         <v>150000</v>
       </c>
-      <c r="E2" s="110">
+      <c r="E2" s="112">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="111"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="111"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="111"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="111"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="111"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="111"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="111"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="111"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="111"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="111"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="111"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="111"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="111"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="111"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="111"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="111"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="111"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="111"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="111"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="111"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="111"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="111"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="111"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="111"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="111"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="111"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="111"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="111"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="111"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="111"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="111"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="111"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="111"/>
+      <c r="A35" s="113"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="111"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="111"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="111"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="111"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="111"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="112"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="113">
+      <c r="A42" s="115">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="113">
-        <v>1</v>
-      </c>
-      <c r="D42" s="113">
+      <c r="C42" s="115">
+        <v>1</v>
+      </c>
+      <c r="D42" s="115">
         <v>130000</v>
       </c>
-      <c r="E42" s="113">
+      <c r="E42" s="115">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="113"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="113"/>
+      <c r="A44" s="115"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
+      <c r="A45" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -8635,35 +8740,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -8734,39 +8839,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -8832,36 +8937,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -8940,39 +9045,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -8993,7 +9098,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9038,36 +9143,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9138,39 +9243,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="89">
         <f>SUM(F2:F2)</f>
         <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="89">
         <f>F3*18%</f>
         <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="89">
         <f>SUM(F3:F4)</f>
         <v>25960</v>
@@ -9190,8 +9295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9200,7 +9305,7 @@
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2" customHeight="1">
+    <row r="1" spans="1:6" ht="26.4" customHeight="1">
       <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
@@ -9220,7 +9325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39" customHeight="1">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9241,7 +9346,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9262,7 +9367,7 @@
         <v>51750</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9283,7 +9388,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9305,39 +9410,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="92">
         <f>SUM(F2:F5)</f>
         <v>174900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="92">
         <f>F6*18%</f>
         <v>31482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="92">
         <f>SUM(F6:F7)</f>
         <v>206382</v>
@@ -9350,6 +9455,489 @@
     <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="93">
+        <f>SUM(F2)</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="93">
+        <f>F3*18%</f>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="93">
+        <f>SUM(F3:F4)</f>
+        <v>26491</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="23"/>
+    <col min="2" max="2" width="101" style="23" customWidth="1"/>
+    <col min="3" max="8" width="8.88671875" style="23"/>
+    <col min="9" max="9" width="9.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.4">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="123">
+        <v>1</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="123">
+        <v>1</v>
+      </c>
+      <c r="D2" s="123">
+        <v>54360</v>
+      </c>
+      <c r="E2" s="123">
+        <f>D2</f>
+        <v>54360</v>
+      </c>
+      <c r="H2" s="23">
+        <f>59088*8%</f>
+        <v>4727.04</v>
+      </c>
+      <c r="I2" s="23">
+        <f>59088-4727.04</f>
+        <v>54360.959999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="52.2" customHeight="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.799999999999997" customHeight="1">
+      <c r="A4" s="123"/>
+      <c r="B4" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+    </row>
+    <row r="5" spans="1:9" ht="26.4">
+      <c r="A5" s="123"/>
+      <c r="B5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.4">
+      <c r="A6" s="123"/>
+      <c r="B6" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+    </row>
+    <row r="7" spans="1:9" ht="52.2" customHeight="1">
+      <c r="A7" s="123"/>
+      <c r="B7" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+    </row>
+    <row r="8" spans="1:9" ht="39.6">
+      <c r="A8" s="123"/>
+      <c r="B8" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+    </row>
+    <row r="9" spans="1:9" ht="39.6">
+      <c r="A9" s="123"/>
+      <c r="B9" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="94">
+        <f>SUM(E2:E2)</f>
+        <v>54360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="23"/>
+    <col min="8" max="8" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="116">
+        <v>1</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="116">
+        <v>1</v>
+      </c>
+      <c r="D2" s="116">
+        <v>60929</v>
+      </c>
+      <c r="E2" s="116">
+        <f>D2</f>
+        <v>60929</v>
+      </c>
+      <c r="H2" s="23">
+        <f>66228*8%</f>
+        <v>5298.24</v>
+      </c>
+      <c r="I2" s="23">
+        <f>66228-5298.24</f>
+        <v>60929.760000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33" customHeight="1">
+      <c r="A3" s="118"/>
+      <c r="B3" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+    </row>
+    <row r="4" spans="1:9" ht="35.4" customHeight="1">
+      <c r="A4" s="118"/>
+      <c r="B4" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+    </row>
+    <row r="5" spans="1:9" ht="29.4" customHeight="1">
+      <c r="A5" s="118"/>
+      <c r="B5" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+    </row>
+    <row r="6" spans="1:9" ht="29.4" customHeight="1">
+      <c r="A6" s="118"/>
+      <c r="B6" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+    </row>
+    <row r="7" spans="1:9" ht="46.2" customHeight="1">
+      <c r="A7" s="118"/>
+      <c r="B7" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" customHeight="1">
+      <c r="A8" s="118"/>
+      <c r="B8" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+    </row>
+    <row r="9" spans="1:9" ht="44.4" customHeight="1">
+      <c r="A9" s="118"/>
+      <c r="B9" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="94">
+        <f>SUM(E2:E2)</f>
+        <v>60929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="122" customFormat="1">
+      <c r="A13" s="121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="122" customFormat="1">
+      <c r="A14" s="121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="122" customFormat="1">
+      <c r="A15" s="121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="122" customFormat="1">
+      <c r="A16" s="121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="122" customFormat="1">
+      <c r="A17" s="121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="122" customFormat="1">
+      <c r="A18" s="121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="122" customFormat="1">
+      <c r="A19" s="121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="122" customFormat="1">
+      <c r="A20" s="121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9413,39 +10001,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -9527,13 +10115,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -9541,13 +10129,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -9555,13 +10143,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -9630,36 +10218,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="58" activeTab="64"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="59" activeTab="65"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -72,6 +72,7 @@
     <sheet name="Namrata 309" sheetId="66" r:id="rId63"/>
     <sheet name="Palntex 310" sheetId="67" r:id="rId64"/>
     <sheet name="Palntex 311" sheetId="68" r:id="rId65"/>
+    <sheet name="Multi Bath 312" sheetId="69" r:id="rId66"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="220">
   <si>
     <t>Sr. No</t>
   </si>
@@ -591,42 +592,9 @@
     <t xml:space="preserve"> Item Description </t>
   </si>
   <si>
-    <t>APS-1073-small-whit-smart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APS-1072-grey-D2-smart-toilet </t>
-  </si>
-  <si>
-    <t>𝐏𝐥𝐚𝐧𝐭𝐞𝐱 𝐒𝐦𝐚𝐫𝐭 𝐁𝐢𝐝𝐞𝐭 𝐓𝐨𝐢𝐥𝐞𝐭/Smart Commode with Built-in Bidet Seat: a revolutionary bathroom fixture that combines cutting-edge technology with modern design. This all-in-one system brings convenience, hygiene, and comfort to your daily bathroom routine.</t>
-  </si>
-  <si>
-    <t>𝐅𝐨𝐨𝐭 𝐓𝐨𝐮𝐜𝐡𝐢𝐧𝐠 𝐋𝐢𝐝 𝐎𝐩𝐞𝐧𝐢𝐧𝐠/𝐀𝐮𝐭𝐨 𝐋𝐢𝐝 𝐂𝐥𝐨𝐬𝐢𝐧𝐠: No need to touch the toilet lid with your hands! The smart lid can be easily opened and closed by simply using your foot, providing a hygienic experience.</t>
-  </si>
-  <si>
-    <t>𝐅𝐥𝐮𝐬𝐡𝐢𝐧𝐠 𝐂𝐨𝐧𝐯𝐞𝐧𝐢𝐞𝐧𝐜𝐞: The smart toilet automatically flushes after each use, eliminating the need for manual flushing and ensuring a clean and hassle-free experience.</t>
-  </si>
-  <si>
-    <t>𝐇𝐞𝐚𝐭𝐞𝐝 𝐒𝐞𝐚𝐭: Say goodbye to chilly toilet seats! This Smart Bidet Toilet features a heated seat function that keeps you comfortable and cozy, especially during colder months.</t>
-  </si>
-  <si>
-    <t>𝐒𝐢𝐳𝐞: The Size Of Smart Toilet is – Open :- (l) 42 cm x (w) 68.5 x (h) 102 cm, Closed :- (l) 59.5 x (w) 38 x (h) 47 cm, Ideal distance between the wall and commode outlet is 300mm/12inch.Include Package :- 1 Piece of Smart Toilet, Liquid Bottel, Remote, Big Flange, 1 Angle Valve with Wall Flange</t>
-  </si>
-  <si>
-    <t>𝐃𝐢𝐠𝐢𝐭𝐚𝐥 𝐃𝐢𝐬𝐩𝐥𝐚𝐲 𝐚𝐧𝐝 𝐑𝐞𝐦𝐨𝐭𝐞 𝐂𝐨𝐧𝐭𝐫𝐨𝐥: The toilet comes with a user-friendly digital display panel that allows you to adjust various settings such as water temperature, water pressure, and seat temperature. Additionally, a remote control is provided for convenient operation from a distance.</t>
-  </si>
-  <si>
-    <t>𝐄𝐧𝐡𝐚𝐧𝐜𝐞𝐝 𝐇𝐲𝐠𝐢𝐞𝐧𝐞 𝐚𝐧𝐝 𝐂𝐨𝐦𝐟𝐨𝐫𝐭: The Plantex Smart Bidet Toilet offers a luxurious and hygienic bathroom experience. The built-in bidet seat with adjustable water pressure and nozzle position provides thorough cleaning, while the automatic lid closing and flushing feature adds convenience and promotes cleanliness.</t>
-  </si>
-  <si>
-    <t>𝐏𝐥𝐚𝐧𝐭𝐞𝐱 is a brand that provides widest range of home improvement products. Our products are designed to ensure that you have the best experience possible when it comes to upgrading your home. Plantex strives to provide you with high-quality products that are easy on the wallet, and we are committed to helping customers find the perfect fit for their needs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plamtex Smart Bidet Toilet / Smart Commode with Built-in Bidet Seat: a revolutionary bathroom fixture that combines cutting-edge technology with modern design. This all-in-one system brings convenience, </t>
   </si>
   <si>
-    <t>𝐒𝐢𝐳𝐞: The Size Of Smart Toilet is – Open :- (l) 42 cm x (w) 68.5 x (h) 102 cm, Closed :- (l) 70.5 x (w) 40.5 x (h) 46 cm, Ideal distance between the wall and commode outlet is 250mm/9 inch.Include Package :- 1 Piece of Smart Toilet, Liquid Bottel, Remote, Big Flange, 1 Angle Valve with Wall Flange</t>
-  </si>
-  <si>
     <t>Plantex Smart Bidet Toilet /Smart Commode with Built-in Bidet Seat: a revolutionary bathroom fixture that combines cutting-edge technology with modern design. This all-in-one system brings convenience, hygiene, and comfort to your daily bathroom routine.</t>
   </si>
   <si>
@@ -655,13 +623,169 @@
   </si>
   <si>
     <t>Enhance Hygeiene and Comfort : The Plantex Smart Bidet Toilet offers a luxurious and hygienic bathroom experience. The built-in bidet seat with adjustable water pressure and nozzle position provides thorough cleaning, while the automatic lid closing and flushing feature adds convenience and promotes cleanliness.</t>
+  </si>
+  <si>
+    <t>Discounted Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APS-1072 D2-smart-toilet </t>
+  </si>
+  <si>
+    <t>APS-1073 whit-smart</t>
+  </si>
+  <si>
+    <t>Jacuzzi Massage Bath Tub</t>
+  </si>
+  <si>
+    <t>S S Steam Generator</t>
+  </si>
+  <si>
+    <t>Jacuzzi system with 6 hydrojets Body Jet big</t>
+  </si>
+  <si>
+    <t>Whirlpool Motor 1.5 HP</t>
+  </si>
+  <si>
+    <t>Fully Body Stand SS 316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble bath with 24 jet Supported air blower </t>
+  </si>
+  <si>
+    <t>12 Micro jets</t>
+  </si>
+  <si>
+    <t>Spinal Massager Jet 12 PCS 4 foot massager 8 back massager</t>
+  </si>
+  <si>
+    <t>Multicolour 2 Led light chromatography 7 colour change</t>
+  </si>
+  <si>
+    <t>Designer Headrest pillow 2 psc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Water Capacity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacuzzi ON/OFF push button speed controller regulator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble ON/OFF push button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully computerized control panel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filler set hot cold and mixture diverter spout hand shower 3 flow system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch screen with control panel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluetooth &amp; aux music system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Shut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suction unit </t>
+  </si>
+  <si>
+    <t>Ozonizer</t>
+  </si>
+  <si>
+    <t>wooden frem</t>
+  </si>
+  <si>
+    <t>online heater</t>
+  </si>
+  <si>
+    <t>Size 6*5*2fit</t>
+  </si>
+  <si>
+    <t>SS outer body</t>
+  </si>
+  <si>
+    <t>SS 316 Water tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital control panel operated </t>
+  </si>
+  <si>
+    <t>Auto time cut off​ system</t>
+  </si>
+  <si>
+    <t>Safety value brush</t>
+  </si>
+  <si>
+    <t>Drain value brush</t>
+  </si>
+  <si>
+    <t>Soil noise value</t>
+  </si>
+  <si>
+    <t>Steam head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time and​ temperature control </t>
+  </si>
+  <si>
+    <t>Digital control</t>
+  </si>
+  <si>
+    <t>Aoto tampreture cut off system</t>
+  </si>
+  <si>
+    <t>Auto draining​ system</t>
+  </si>
+  <si>
+    <t>Stainless steel 304 grade 16 grade steam tank</t>
+  </si>
+  <si>
+    <t>Stainless steel make heating element​ for long life</t>
+  </si>
+  <si>
+    <t>26mm thickness PUF insolution</t>
+  </si>
+  <si>
+    <t>DRP for heating element</t>
+  </si>
+  <si>
+    <t>Water level sensor​ cut off to ensure heater safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety pressure relise value </t>
+  </si>
+  <si>
+    <t>Flexible house connector for​ water fidding</t>
+  </si>
+  <si>
+    <t>Steam diff user outlet</t>
+  </si>
+  <si>
+    <t>Soft touch swithess</t>
+  </si>
+  <si>
+    <t>LED display panel</t>
+  </si>
+  <si>
+    <t>Stainless​ steel socket for long life</t>
+  </si>
+  <si>
+    <t>Short circuit protection</t>
+  </si>
+  <si>
+    <t>High current protection</t>
+  </si>
+  <si>
+    <t>Earth leakage Steam generator 6kw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +875,17 @@
       <color rgb="FF222222"/>
       <name val="Calibri  "/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri  "/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -771,7 +906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -877,12 +1012,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1160,6 +1357,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,26 +1450,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1664,39 +1938,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1766,36 +2040,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1872,39 +2146,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1987,39 +2261,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -2090,39 +2364,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2207,12 +2481,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
+      <c r="A4" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2278,36 +2552,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2381,39 +2655,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2485,39 +2759,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2655,39 +2929,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2759,39 +3033,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2867,39 +3141,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2972,39 +3246,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -3077,39 +3351,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3178,48 +3452,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3261,48 +3535,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="A13" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3375,48 +3649,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3576,39 +3850,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="A7" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3676,36 +3950,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3844,39 +4118,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3942,36 +4216,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -4043,39 +4317,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4148,39 +4422,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4248,36 +4522,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4487,39 +4761,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
+      <c r="A9" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4591,39 +4865,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4692,36 +4966,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4789,35 +5063,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4890,39 +5164,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4995,39 +5269,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -5100,39 +5374,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5269,39 +5543,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5455,39 +5729,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="A4" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5595,13 +5869,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5677,13 +5951,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5756,39 +6030,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5861,39 +6135,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5966,39 +6240,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -6064,48 +6338,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6171,48 +6445,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6284,39 +6558,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6391,39 +6665,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6497,39 +6771,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6600,39 +6874,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6706,39 +6980,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -6812,39 +7086,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6923,39 +7197,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -7018,13 +7292,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="106">
-        <v>1</v>
-      </c>
-      <c r="D2" s="106">
+      <c r="C2" s="116">
+        <v>1</v>
+      </c>
+      <c r="D2" s="116">
         <v>84050</v>
       </c>
-      <c r="E2" s="106">
+      <c r="E2" s="116">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -7036,9 +7310,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -7047,9 +7321,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -7058,9 +7332,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -7069,9 +7343,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -7080,9 +7354,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -7091,9 +7365,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -7102,9 +7376,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7113,63 +7387,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="A11" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7272,39 +7546,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
+      <c r="A4" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7380,39 +7654,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7499,36 +7773,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
+      <c r="A4" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7592,36 +7866,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
+      <c r="A13" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -7678,54 +7952,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="109" t="s">
+      <c r="H1" s="121"/>
+      <c r="I1" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="110" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="100"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -7860,112 +8134,112 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
+      <c r="A6" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="110" t="s">
+      <c r="G16" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="109" t="s">
+      <c r="H16" s="121"/>
+      <c r="I16" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="109" t="s">
+      <c r="J16" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="100" t="s">
+      <c r="K16" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="100" t="s">
+      <c r="L16" s="110" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A17" s="109"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
       <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
@@ -8088,57 +8362,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
+      <c r="A21" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="104"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="104"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8183,7 +8457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:E47"/>
     </sheetView>
   </sheetViews>
@@ -8212,441 +8486,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="112">
+      <c r="A2" s="122">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="112">
-        <v>1</v>
-      </c>
-      <c r="D2" s="112">
+      <c r="C2" s="122">
+        <v>1</v>
+      </c>
+      <c r="D2" s="122">
         <v>150000</v>
       </c>
-      <c r="E2" s="112">
+      <c r="E2" s="122">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="113"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="113"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="113"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="113"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="113"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="113"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="113"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="113"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="113"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="113"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="113"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="113"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="113"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="113"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="113"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="113"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="113"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="113"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="113"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="113"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="113"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="113"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="113"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="113"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="113"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="113"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="113"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="113"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="113"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="113"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="113"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="113"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="113"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="113"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="113"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="113"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="113"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="114"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="115">
+      <c r="A42" s="125">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="115">
-        <v>1</v>
-      </c>
-      <c r="D42" s="115">
+      <c r="C42" s="125">
+        <v>1</v>
+      </c>
+      <c r="D42" s="125">
         <v>130000</v>
       </c>
-      <c r="E42" s="115">
+      <c r="E42" s="125">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="115"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="115"/>
+      <c r="A44" s="125"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
+      <c r="A45" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="99" t="s">
+      <c r="A47" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -8740,35 +9014,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -8839,39 +9113,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -8937,36 +9211,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -9045,39 +9319,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -9143,36 +9417,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9243,39 +9517,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="89">
         <f>SUM(F2:F2)</f>
         <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="89">
         <f>F3*18%</f>
         <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="89">
         <f>SUM(F3:F4)</f>
         <v>25960</v>
@@ -9410,39 +9684,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="92">
         <f>SUM(F2:F5)</f>
         <v>174900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="92">
         <f>F6*18%</f>
         <v>31482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="92">
         <f>SUM(F6:F7)</f>
         <v>206382</v>
@@ -9513,39 +9787,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="93">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="93">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="93">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -9563,26 +9837,26 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="23"/>
-    <col min="2" max="2" width="101" style="23" customWidth="1"/>
-    <col min="3" max="8" width="8.88671875" style="23"/>
-    <col min="9" max="9" width="9.21875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="7.21875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" style="23" customWidth="1"/>
+    <col min="3" max="9" width="8.88671875" style="23"/>
+    <col min="10" max="10" width="9.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="27" t="s">
         <v>156</v>
       </c>
       <c r="C1" s="94" t="s">
@@ -9591,157 +9865,134 @@
       <c r="D1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="123">
-        <v>1</v>
-      </c>
-      <c r="B2" s="117" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="127">
+        <v>1</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="128">
+        <v>1</v>
+      </c>
+      <c r="D2" s="129">
+        <v>59088</v>
+      </c>
+      <c r="E2" s="130">
+        <f>D2*0.42</f>
+        <v>24816.959999999999</v>
+      </c>
+      <c r="F2" s="129">
+        <f>C2*E2</f>
+        <v>24816.959999999999</v>
+      </c>
+      <c r="I2" s="23">
+        <f>59088*58%</f>
+        <v>34271.040000000001</v>
+      </c>
+      <c r="J2" s="23">
+        <f>59088-34271.04</f>
+        <v>24816.959999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1">
+      <c r="A3" s="127"/>
+      <c r="B3" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="123">
-        <v>1</v>
-      </c>
-      <c r="D2" s="123">
-        <v>54360</v>
-      </c>
-      <c r="E2" s="123">
-        <f>D2</f>
-        <v>54360</v>
-      </c>
-      <c r="H2" s="23">
-        <f>59088*8%</f>
-        <v>4727.04</v>
-      </c>
-      <c r="I2" s="23">
-        <f>59088-4727.04</f>
-        <v>54360.959999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="52.2" customHeight="1">
-      <c r="A3" s="123"/>
-      <c r="B3" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-    </row>
-    <row r="4" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A4" s="123"/>
-      <c r="B4" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-    </row>
-    <row r="5" spans="1:9" ht="26.4">
-      <c r="A5" s="123"/>
-      <c r="B5" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.4">
-      <c r="A6" s="123"/>
-      <c r="B6" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-    </row>
-    <row r="7" spans="1:9" ht="52.2" customHeight="1">
-      <c r="A7" s="123"/>
-      <c r="B7" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-    </row>
-    <row r="8" spans="1:9" ht="39.6">
-      <c r="A8" s="123"/>
-      <c r="B8" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-    </row>
-    <row r="9" spans="1:9" ht="39.6">
-      <c r="A9" s="123"/>
-      <c r="B9" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="94">
-        <f>SUM(E2:E2)</f>
-        <v>54360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="120" t="s">
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="129"/>
+    </row>
+    <row r="4" spans="1:10" ht="40.799999999999997" customHeight="1">
+      <c r="A4" s="127"/>
+      <c r="B4" s="96" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="120" t="s">
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="129"/>
+      <c r="I4" s="101"/>
+    </row>
+    <row r="5" spans="1:10" ht="39.6">
+      <c r="A5" s="127"/>
+      <c r="B5" s="96" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="120" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="129"/>
+    </row>
+    <row r="6" spans="1:10" ht="39.6">
+      <c r="A6" s="127"/>
+      <c r="B6" s="96" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="120" t="s">
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="129"/>
+    </row>
+    <row r="7" spans="1:10" ht="52.2" customHeight="1">
+      <c r="A7" s="127"/>
+      <c r="B7" s="96" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="120" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="129"/>
+    </row>
+    <row r="8" spans="1:10" ht="66">
+      <c r="A8" s="127"/>
+      <c r="B8" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="128"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="129"/>
+    </row>
+    <row r="9" spans="1:10" ht="66">
+      <c r="A9" s="127"/>
+      <c r="B9" s="97" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="120" t="s">
-        <v>166</v>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="129"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="126"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="94">
+        <f>SUM(F2)</f>
+        <v>24816.959999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D9"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="E2:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9751,30 +10002,30 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="72.21875" style="23" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="23"/>
-    <col min="8" max="8" width="9" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="23"/>
+    <col min="4" max="5" width="12.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="23"/>
+    <col min="9" max="9" width="12.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="27" t="s">
         <v>156</v>
       </c>
       <c r="C1" s="94" t="s">
@@ -9783,158 +10034,739 @@
       <c r="D1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="116">
-        <v>1</v>
-      </c>
-      <c r="B2" s="117" t="s">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="133">
+        <v>1</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="135">
+        <v>1</v>
+      </c>
+      <c r="D2" s="130">
+        <v>66228</v>
+      </c>
+      <c r="E2" s="130">
+        <f>D2*0.42</f>
+        <v>27815.759999999998</v>
+      </c>
+      <c r="F2" s="130">
+        <f>C2*E2</f>
+        <v>27815.759999999998</v>
+      </c>
+      <c r="I2" s="23">
+        <f>66228*58%</f>
+        <v>38412.239999999998</v>
+      </c>
+      <c r="J2" s="23">
+        <f>66228-38412.24</f>
+        <v>27815.760000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" customHeight="1">
+      <c r="A3" s="134"/>
+      <c r="B3" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="116">
-        <v>1</v>
-      </c>
-      <c r="D2" s="116">
-        <v>60929</v>
-      </c>
-      <c r="E2" s="116">
-        <f>D2</f>
-        <v>60929</v>
-      </c>
-      <c r="H2" s="23">
-        <f>66228*8%</f>
-        <v>5298.24</v>
-      </c>
-      <c r="I2" s="23">
-        <f>66228-5298.24</f>
-        <v>60929.760000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="33" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="117" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="I3" s="100"/>
+    </row>
+    <row r="4" spans="1:10" ht="35.4" customHeight="1">
+      <c r="A4" s="134"/>
+      <c r="B4" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+    </row>
+    <row r="5" spans="1:10" ht="29.4" customHeight="1">
+      <c r="A5" s="134"/>
+      <c r="B5" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="I5" s="101"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.4" customHeight="1">
+      <c r="A6" s="134"/>
+      <c r="B6" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="136"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+    </row>
+    <row r="7" spans="1:10" ht="46.2" customHeight="1">
+      <c r="A7" s="134"/>
+      <c r="B7" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" customHeight="1">
+      <c r="A8" s="134"/>
+      <c r="B8" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="136"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+    </row>
+    <row r="9" spans="1:10" ht="44.4" customHeight="1">
+      <c r="A9" s="134"/>
+      <c r="B9" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-    </row>
-    <row r="4" spans="1:9" ht="35.4" customHeight="1">
-      <c r="A4" s="118"/>
-      <c r="B4" s="117" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-    </row>
-    <row r="5" spans="1:9" ht="29.4" customHeight="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="117" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-    </row>
-    <row r="6" spans="1:9" ht="29.4" customHeight="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="117" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-    </row>
-    <row r="7" spans="1:9" ht="46.2" customHeight="1">
-      <c r="A7" s="118"/>
-      <c r="B7" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" customHeight="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="117" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-    </row>
-    <row r="9" spans="1:9" ht="44.4" customHeight="1">
-      <c r="A9" s="118"/>
-      <c r="B9" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="94">
-        <f>SUM(E2:E2)</f>
-        <v>60929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="122" customFormat="1">
-      <c r="A13" s="121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="122" customFormat="1">
-      <c r="A14" s="121" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="122" customFormat="1">
-      <c r="A15" s="121" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="122" customFormat="1">
-      <c r="A16" s="121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="122" customFormat="1">
-      <c r="A17" s="121" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="122" customFormat="1">
-      <c r="A18" s="121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="122" customFormat="1">
-      <c r="A19" s="121" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="122" customFormat="1">
-      <c r="A20" s="121" t="s">
-        <v>166</v>
+      <c r="C9" s="137"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="126"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="94">
+        <f>SUM(F2:F2)</f>
+        <v>27815.759999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D9"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="E2:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="9" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="74" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1">
+      <c r="A2" s="122">
+        <v>1</v>
+      </c>
+      <c r="B2" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="138">
+        <v>1</v>
+      </c>
+      <c r="D2" s="125">
+        <v>139830.51</v>
+      </c>
+      <c r="E2" s="125">
+        <f>C2*D2</f>
+        <v>139830.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="123"/>
+      <c r="B3" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="123"/>
+      <c r="B4" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="123"/>
+      <c r="B5" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="138"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="123"/>
+      <c r="B6" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="123"/>
+      <c r="B7" s="140" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="138"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="123"/>
+      <c r="B8" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="138"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+    </row>
+    <row r="9" spans="1:5" ht="27.6">
+      <c r="A9" s="123"/>
+      <c r="B9" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="138"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="123"/>
+      <c r="B10" s="140" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+    </row>
+    <row r="11" spans="1:5" ht="27.6">
+      <c r="A11" s="123"/>
+      <c r="B11" s="140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="138"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="123"/>
+      <c r="B12" s="140" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="138"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="123"/>
+      <c r="B13" s="140" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="138"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+    </row>
+    <row r="14" spans="1:5" ht="27.6">
+      <c r="A14" s="123"/>
+      <c r="B14" s="140" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="138"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="123"/>
+      <c r="B15" s="140" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="138"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="123"/>
+      <c r="B16" s="140" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="138"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+    </row>
+    <row r="17" spans="1:5" ht="27.6">
+      <c r="A17" s="123"/>
+      <c r="B17" s="140" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="138"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="123"/>
+      <c r="B18" s="140" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="138"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="123"/>
+      <c r="B19" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="138"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="123"/>
+      <c r="B20" s="140" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="138"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="123"/>
+      <c r="B21" s="140" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="138"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="123"/>
+      <c r="B22" s="140" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="123"/>
+      <c r="B23" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="138"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="123"/>
+      <c r="B24" s="140" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="138"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="123"/>
+      <c r="B25" s="140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="138"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="123"/>
+      <c r="B26" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="138"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="123"/>
+      <c r="B27" s="140" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="138"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="123"/>
+      <c r="B28" s="140" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="138"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="124"/>
+      <c r="B29" s="140" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="138"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+    </row>
+    <row r="30" spans="1:5" ht="36" customHeight="1">
+      <c r="A30" s="142">
+        <v>2</v>
+      </c>
+      <c r="B30" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="145">
+        <v>1</v>
+      </c>
+      <c r="D30" s="122">
+        <v>16949.099999999999</v>
+      </c>
+      <c r="E30" s="122">
+        <f t="shared" ref="E30" si="0">C30*D30</f>
+        <v>16949.099999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="143"/>
+      <c r="B31" s="140" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="146"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="143"/>
+      <c r="B32" s="140" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="146"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="143"/>
+      <c r="B33" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="146"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="143"/>
+      <c r="B34" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="146"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="143"/>
+      <c r="B35" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="143"/>
+      <c r="B36" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="146"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="143"/>
+      <c r="B37" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="146"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="143"/>
+      <c r="B38" s="140" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="146"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="143"/>
+      <c r="B39" s="140" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="146"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="143"/>
+      <c r="B40" s="140" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="143"/>
+      <c r="B41" s="140" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="146"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="143"/>
+      <c r="B42" s="140" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="146"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="143"/>
+      <c r="B43" s="140" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="146"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="143"/>
+      <c r="B44" s="140" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="146"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="143"/>
+      <c r="B45" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="146"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="143"/>
+      <c r="B46" s="140" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="146"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="143"/>
+      <c r="B47" s="140" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="146"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="143"/>
+      <c r="B48" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="146"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="143"/>
+      <c r="B49" s="140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="146"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="143"/>
+      <c r="B50" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="146"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="143"/>
+      <c r="B51" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="146"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="143"/>
+      <c r="B52" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="146"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="143"/>
+      <c r="B53" s="140" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" s="146"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="143"/>
+      <c r="B54" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="146"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="143"/>
+      <c r="B55" s="140" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="146"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="144"/>
+      <c r="B56" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="147"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="148"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="98">
+        <f>SUM(E30+E2)</f>
+        <v>156779.61000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="98">
+        <f>E57*18%</f>
+        <v>28220.329800000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="98">
+        <f>E58+E57</f>
+        <v>184999.93980000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E30:E56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C2:C29"/>
+    <mergeCell ref="D2:D29"/>
+    <mergeCell ref="E2:E29"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="C30:C56"/>
+    <mergeCell ref="D30:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10001,39 +10833,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -10115,13 +10947,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -10129,13 +10961,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -10143,13 +10975,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -10218,36 +11050,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -1387,6 +1387,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1486,18 +1495,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1514,9 +1517,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1938,39 +1938,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -2040,36 +2040,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -2146,39 +2146,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -2261,39 +2261,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -2364,39 +2364,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2481,12 +2481,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
+      <c r="A4" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2552,36 +2552,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2655,39 +2655,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2759,39 +2759,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2929,39 +2929,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -3033,39 +3033,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -3141,39 +3141,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -3246,39 +3246,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -3351,39 +3351,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3452,48 +3452,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3535,48 +3535,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="A13" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3649,48 +3649,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3850,39 +3850,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="A7" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3950,36 +3950,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -4118,39 +4118,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -4216,36 +4216,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -4317,39 +4317,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4422,39 +4422,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4522,36 +4522,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4761,39 +4761,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="A9" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4865,39 +4865,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4966,36 +4966,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -5063,35 +5063,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -5164,39 +5164,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -5269,39 +5269,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -5374,39 +5374,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5543,39 +5543,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5729,39 +5729,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="A4" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5869,13 +5869,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5951,13 +5951,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -6030,39 +6030,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6135,39 +6135,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6240,39 +6240,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -6338,48 +6338,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6445,48 +6445,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6558,39 +6558,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6665,39 +6665,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6771,39 +6771,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6874,39 +6874,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6980,39 +6980,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -7086,39 +7086,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7197,39 +7197,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -7292,13 +7292,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="116">
-        <v>1</v>
-      </c>
-      <c r="D2" s="116">
+      <c r="C2" s="119">
+        <v>1</v>
+      </c>
+      <c r="D2" s="119">
         <v>84050</v>
       </c>
-      <c r="E2" s="116">
+      <c r="E2" s="119">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -7310,9 +7310,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -7321,9 +7321,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -7332,9 +7332,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -7343,9 +7343,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -7354,9 +7354,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -7365,9 +7365,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -7376,9 +7376,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7387,63 +7387,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="A11" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7546,39 +7546,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="A4" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7654,39 +7654,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7773,36 +7773,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="A4" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7866,36 +7866,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -7952,54 +7952,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="119" t="s">
+      <c r="H1" s="124"/>
+      <c r="I1" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="113" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="110"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -8134,112 +8134,112 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
+      <c r="A6" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="119" t="s">
+      <c r="F16" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="120" t="s">
+      <c r="G16" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="121"/>
-      <c r="I16" s="119" t="s">
+      <c r="H16" s="124"/>
+      <c r="I16" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="119" t="s">
+      <c r="J16" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="110" t="s">
+      <c r="L16" s="113" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
     </row>
     <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
@@ -8362,57 +8362,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
+      <c r="A21" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="117"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="117"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8420,12 +8420,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K16:K17"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -8433,20 +8441,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8486,441 +8486,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="122">
+      <c r="A2" s="125">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="122">
-        <v>1</v>
-      </c>
-      <c r="D2" s="122">
+      <c r="C2" s="125">
+        <v>1</v>
+      </c>
+      <c r="D2" s="125">
         <v>150000</v>
       </c>
-      <c r="E2" s="122">
+      <c r="E2" s="125">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="123"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="123"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="123"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="123"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="123"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="123"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="123"/>
+      <c r="A9" s="126"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="123"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="123"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="123"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="123"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="123"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="123"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="123"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="123"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="123"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="123"/>
+      <c r="A19" s="126"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="123"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="123"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="123"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="123"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="123"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="123"/>
+      <c r="A25" s="126"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="123"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="123"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="123"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="123"/>
+      <c r="A29" s="126"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="123"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="123"/>
+      <c r="A31" s="126"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="123"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="123"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="123"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="123"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="123"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="123"/>
+      <c r="A37" s="126"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="123"/>
+      <c r="A38" s="126"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="123"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="123"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="124"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="125">
+      <c r="A42" s="128">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="125">
-        <v>1</v>
-      </c>
-      <c r="D42" s="125">
+      <c r="C42" s="128">
+        <v>1</v>
+      </c>
+      <c r="D42" s="128">
         <v>130000</v>
       </c>
-      <c r="E42" s="125">
+      <c r="E42" s="128">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="125"/>
+      <c r="A43" s="128"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="125"/>
+      <c r="A44" s="128"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
+      <c r="A45" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -8948,17 +8948,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E2:E41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="C2:C41"/>
     <mergeCell ref="D2:D41"/>
+    <mergeCell ref="E2:E41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9014,35 +9014,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -9113,39 +9113,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -9211,36 +9211,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -9319,39 +9319,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -9417,36 +9417,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9517,39 +9517,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="89">
         <f>SUM(F2:F2)</f>
         <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="89">
         <f>F3*18%</f>
         <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="89">
         <f>SUM(F3:F4)</f>
         <v>25960</v>
@@ -9684,39 +9684,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="92">
         <f>SUM(F2:F5)</f>
         <v>174900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="92">
         <f>F6*18%</f>
         <v>31482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="92">
         <f>SUM(F6:F7)</f>
         <v>206382</v>
@@ -9787,39 +9787,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="93">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="93">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="93">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -9873,23 +9873,23 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="127">
+      <c r="A2" s="130">
         <v>1</v>
       </c>
       <c r="B2" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="128">
-        <v>1</v>
-      </c>
-      <c r="D2" s="129">
+      <c r="C2" s="131">
+        <v>1</v>
+      </c>
+      <c r="D2" s="132">
         <v>59088</v>
       </c>
-      <c r="E2" s="130">
+      <c r="E2" s="133">
         <f>D2*0.42</f>
         <v>24816.959999999999</v>
       </c>
-      <c r="F2" s="129">
+      <c r="F2" s="132">
         <f>C2*E2</f>
         <v>24816.959999999999</v>
       </c>
@@ -9903,83 +9903,83 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="127"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="129"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="132"/>
     </row>
     <row r="4" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A4" s="127"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="129"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="132"/>
       <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="127"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="129"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="1:10" ht="39.6">
-      <c r="A6" s="127"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="129"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="129"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:10" ht="66">
-      <c r="A8" s="127"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="129"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:10" ht="66">
-      <c r="A9" s="127"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="129"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
+      <c r="A10" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="129"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2)</f>
@@ -10042,23 +10042,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="133">
+      <c r="A2" s="136">
         <v>1</v>
       </c>
       <c r="B2" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="135">
-        <v>1</v>
-      </c>
-      <c r="D2" s="130">
+      <c r="C2" s="138">
+        <v>1</v>
+      </c>
+      <c r="D2" s="133">
         <v>66228</v>
       </c>
-      <c r="E2" s="130">
+      <c r="E2" s="133">
         <f>D2*0.42</f>
         <v>27815.759999999998</v>
       </c>
-      <c r="F2" s="130">
+      <c r="F2" s="133">
         <f>C2*E2</f>
         <v>27815.759999999998</v>
       </c>
@@ -10072,84 +10072,84 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="134"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
       <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:10" ht="35.4" customHeight="1">
-      <c r="A4" s="134"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
     </row>
     <row r="5" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A5" s="134"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A6" s="134"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A7" s="134"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A8" s="134"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A9" s="134"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
+      <c r="A10" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="129"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2:F2)</f>
@@ -10175,7 +10175,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10183,16 +10183,16 @@
     <col min="1" max="1" width="9" style="74" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.88671875" style="74" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="74" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="74" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="74" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="35.4" customHeight="1">
       <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="105" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="98" t="s">
@@ -10206,549 +10206,549 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1">
-      <c r="A2" s="122">
-        <v>1</v>
-      </c>
-      <c r="B2" s="139" t="s">
+      <c r="A2" s="125">
+        <v>1</v>
+      </c>
+      <c r="B2" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="138">
-        <v>1</v>
-      </c>
-      <c r="D2" s="125">
+      <c r="C2" s="142">
+        <v>1</v>
+      </c>
+      <c r="D2" s="128">
         <v>139830.51</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2" s="128">
         <f>C2*D2</f>
         <v>139830.51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="123"/>
-      <c r="B3" s="140" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="123"/>
-      <c r="B4" s="140" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="123"/>
-      <c r="B5" s="140" t="s">
+      <c r="A5" s="126"/>
+      <c r="B5" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="123"/>
-      <c r="B6" s="140" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="123"/>
-      <c r="B7" s="140" t="s">
+      <c r="A7" s="126"/>
+      <c r="B7" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="123"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:5" ht="27.6">
-      <c r="A9" s="123"/>
-      <c r="B9" s="140" t="s">
+      <c r="A9" s="126"/>
+      <c r="B9" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="123"/>
-      <c r="B10" s="140" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
     </row>
     <row r="11" spans="1:5" ht="27.6">
-      <c r="A11" s="123"/>
-      <c r="B11" s="140" t="s">
+      <c r="A11" s="126"/>
+      <c r="B11" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="123"/>
-      <c r="B12" s="140" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="123"/>
-      <c r="B13" s="140" t="s">
+      <c r="A13" s="126"/>
+      <c r="B13" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" spans="1:5" ht="27.6">
-      <c r="A14" s="123"/>
-      <c r="B14" s="140" t="s">
+      <c r="A14" s="126"/>
+      <c r="B14" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="123"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="123"/>
-      <c r="B16" s="140" t="s">
+      <c r="A16" s="126"/>
+      <c r="B16" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="138"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="1:5" ht="27.6">
-      <c r="A17" s="123"/>
-      <c r="B17" s="140" t="s">
+      <c r="A17" s="126"/>
+      <c r="B17" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="123"/>
-      <c r="B18" s="140" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="123"/>
-      <c r="B19" s="140" t="s">
+      <c r="A19" s="126"/>
+      <c r="B19" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="123"/>
-      <c r="B20" s="140" t="s">
+      <c r="A20" s="126"/>
+      <c r="B20" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="123"/>
-      <c r="B21" s="140" t="s">
+      <c r="A21" s="126"/>
+      <c r="B21" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="123"/>
-      <c r="B22" s="140" t="s">
+      <c r="A22" s="126"/>
+      <c r="B22" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="123"/>
-      <c r="B23" s="140" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="123"/>
-      <c r="B24" s="140" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="123"/>
-      <c r="B25" s="140" t="s">
+      <c r="A25" s="126"/>
+      <c r="B25" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="123"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="123"/>
-      <c r="B27" s="140" t="s">
+      <c r="A27" s="126"/>
+      <c r="B27" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="123"/>
-      <c r="B28" s="140" t="s">
+      <c r="A28" s="126"/>
+      <c r="B28" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="124"/>
-      <c r="B29" s="140" t="s">
+      <c r="A29" s="127"/>
+      <c r="B29" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
     </row>
     <row r="30" spans="1:5" ht="36" customHeight="1">
-      <c r="A30" s="142">
+      <c r="A30" s="143">
         <v>2</v>
       </c>
-      <c r="B30" s="139" t="s">
+      <c r="B30" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="145">
-        <v>1</v>
-      </c>
-      <c r="D30" s="122">
+      <c r="C30" s="146">
+        <v>1</v>
+      </c>
+      <c r="D30" s="125">
         <v>16949.099999999999</v>
       </c>
-      <c r="E30" s="122">
+      <c r="E30" s="125">
         <f t="shared" ref="E30" si="0">C30*D30</f>
         <v>16949.099999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="143"/>
-      <c r="B31" s="140" t="s">
+      <c r="A31" s="144"/>
+      <c r="B31" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="143"/>
-      <c r="B32" s="140" t="s">
+      <c r="A32" s="144"/>
+      <c r="B32" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="143"/>
-      <c r="B33" s="140" t="s">
+      <c r="A33" s="144"/>
+      <c r="B33" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="143"/>
-      <c r="B34" s="140" t="s">
+      <c r="A34" s="144"/>
+      <c r="B34" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="143"/>
-      <c r="B35" s="140" t="s">
+      <c r="A35" s="144"/>
+      <c r="B35" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="143"/>
-      <c r="B36" s="140" t="s">
+      <c r="A36" s="144"/>
+      <c r="B36" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="143"/>
-      <c r="B37" s="140" t="s">
+      <c r="A37" s="144"/>
+      <c r="B37" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="146"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="143"/>
-      <c r="B38" s="140" t="s">
+      <c r="A38" s="144"/>
+      <c r="B38" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="143"/>
-      <c r="B39" s="140" t="s">
+      <c r="A39" s="144"/>
+      <c r="B39" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="143"/>
-      <c r="B40" s="140" t="s">
+      <c r="A40" s="144"/>
+      <c r="B40" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="143"/>
-      <c r="B41" s="140" t="s">
+      <c r="A41" s="144"/>
+      <c r="B41" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="143"/>
-      <c r="B42" s="140" t="s">
+      <c r="A42" s="144"/>
+      <c r="B42" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="143"/>
-      <c r="B43" s="140" t="s">
+      <c r="A43" s="144"/>
+      <c r="B43" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="146"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="143"/>
-      <c r="B44" s="140" t="s">
+      <c r="A44" s="144"/>
+      <c r="B44" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="146"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="143"/>
-      <c r="B45" s="140" t="s">
+      <c r="A45" s="144"/>
+      <c r="B45" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="143"/>
-      <c r="B46" s="140" t="s">
+      <c r="A46" s="144"/>
+      <c r="B46" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="143"/>
-      <c r="B47" s="140" t="s">
+      <c r="A47" s="144"/>
+      <c r="B47" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="143"/>
-      <c r="B48" s="140" t="s">
+      <c r="A48" s="144"/>
+      <c r="B48" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="146"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="143"/>
-      <c r="B49" s="140" t="s">
+      <c r="A49" s="144"/>
+      <c r="B49" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="146"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="143"/>
-      <c r="B50" s="140" t="s">
+      <c r="A50" s="144"/>
+      <c r="B50" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="146"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="143"/>
-      <c r="B51" s="140" t="s">
+      <c r="A51" s="144"/>
+      <c r="B51" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="146"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="143"/>
-      <c r="B52" s="140" t="s">
+      <c r="A52" s="144"/>
+      <c r="B52" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C52" s="146"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="143"/>
-      <c r="B53" s="140" t="s">
+      <c r="A53" s="144"/>
+      <c r="B53" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="C53" s="146"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="143"/>
-      <c r="B54" s="140" t="s">
+      <c r="A54" s="144"/>
+      <c r="B54" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="146"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="143"/>
-      <c r="B55" s="140" t="s">
+      <c r="A55" s="144"/>
+      <c r="B55" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="146"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="144"/>
-      <c r="B56" s="141" t="s">
+      <c r="A56" s="145"/>
+      <c r="B56" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="147"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="148"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="109"/>
+      <c r="A57" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="141"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
       <c r="E57" s="98">
         <f>SUM(E30+E2)</f>
         <v>156779.61000000002</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
       <c r="E58" s="98">
         <f>E57*18%</f>
         <v>28220.329800000003</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="109"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
       <c r="E59" s="98">
         <f>E58+E57</f>
         <v>184999.93980000002</v>
@@ -10833,39 +10833,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -10947,13 +10947,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -10961,13 +10961,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -10975,13 +10975,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -11050,36 +11050,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="59" activeTab="65"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="60" activeTab="65"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,7 @@
     <sheet name="Palntex 310" sheetId="67" r:id="rId64"/>
     <sheet name="Palntex 311" sheetId="68" r:id="rId65"/>
     <sheet name="Multi Bath 312" sheetId="69" r:id="rId66"/>
+    <sheet name="Namrata 313" sheetId="70" r:id="rId67"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="221">
   <si>
     <t>Sr. No</t>
   </si>
@@ -694,9 +695,6 @@
     <t>Ozonizer</t>
   </si>
   <si>
-    <t>wooden frem</t>
-  </si>
-  <si>
     <t>online heater</t>
   </si>
   <si>
@@ -733,9 +731,6 @@
     <t>Digital control</t>
   </si>
   <si>
-    <t>Aoto tampreture cut off system</t>
-  </si>
-  <si>
     <t>Auto draining​ system</t>
   </si>
   <si>
@@ -754,9 +749,6 @@
     <t>Water level sensor​ cut off to ensure heater safety</t>
   </si>
   <si>
-    <t xml:space="preserve">Safety pressure relise value </t>
-  </si>
-  <si>
     <t>Flexible house connector for​ water fidding</t>
   </si>
   <si>
@@ -779,6 +771,18 @@
   </si>
   <si>
     <t>Earth leakage Steam generator 6kw</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>wooden frame</t>
+  </si>
+  <si>
+    <t>Auto tampreture cut off system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety pressure release value </t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1366,36 +1370,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1517,6 +1521,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1535,6 +1557,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78909</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2072640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="475149" y="594361"/>
+          <a:ext cx="1993731" cy="1729739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9737,7 +9802,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9876,7 +9941,7 @@
       <c r="A2" s="130">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="102" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="131">
@@ -9904,7 +9969,7 @@
     </row>
     <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1">
       <c r="A3" s="130"/>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="100" t="s">
         <v>158</v>
       </c>
       <c r="C3" s="131"/>
@@ -9921,7 +9986,7 @@
       <c r="D4" s="132"/>
       <c r="E4" s="134"/>
       <c r="F4" s="132"/>
-      <c r="I4" s="101"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:10" ht="39.6">
       <c r="A5" s="130"/>
@@ -10045,7 +10110,7 @@
       <c r="A2" s="136">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="102" t="s">
         <v>170</v>
       </c>
       <c r="C2" s="138">
@@ -10073,18 +10138,18 @@
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
       <c r="A3" s="137"/>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="100" t="s">
         <v>157</v>
       </c>
       <c r="C3" s="139"/>
       <c r="D3" s="134"/>
       <c r="E3" s="134"/>
       <c r="F3" s="134"/>
-      <c r="I3" s="100"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="35.4" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>165</v>
       </c>
       <c r="C4" s="139"/>
@@ -10094,18 +10159,18 @@
     </row>
     <row r="5" spans="1:10" ht="29.4" customHeight="1">
       <c r="A5" s="137"/>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="100" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="139"/>
       <c r="D5" s="134"/>
       <c r="E5" s="134"/>
       <c r="F5" s="134"/>
-      <c r="I5" s="101"/>
+      <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:10" ht="29.4" customHeight="1">
       <c r="A6" s="137"/>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="100" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="139"/>
@@ -10115,7 +10180,7 @@
     </row>
     <row r="7" spans="1:10" ht="46.2" customHeight="1">
       <c r="A7" s="137"/>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="100" t="s">
         <v>166</v>
       </c>
       <c r="C7" s="139"/>
@@ -10125,7 +10190,7 @@
     </row>
     <row r="8" spans="1:10" ht="43.2" customHeight="1">
       <c r="A8" s="137"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="100" t="s">
         <v>163</v>
       </c>
       <c r="C8" s="139"/>
@@ -10135,7 +10200,7 @@
     </row>
     <row r="9" spans="1:10" ht="44.4" customHeight="1">
       <c r="A9" s="137"/>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="101" t="s">
         <v>167</v>
       </c>
       <c r="C9" s="140"/>
@@ -10172,604 +10237,799 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" style="74" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="74" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="74" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="74"/>
+    <col min="1" max="1" width="5.77734375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="74" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:6" ht="35.4" customHeight="1">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="106" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="D1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="106" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1">
+    <row r="2" spans="1:6" ht="33" customHeight="1">
       <c r="A2" s="125">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="142">
-        <v>1</v>
-      </c>
-      <c r="D2" s="128">
+      <c r="D2" s="142">
+        <v>1</v>
+      </c>
+      <c r="E2" s="128">
         <v>139830.51</v>
       </c>
-      <c r="E2" s="128">
-        <f>C2*D2</f>
+      <c r="F2" s="128">
+        <f>D2*E2</f>
         <v>139830.51</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="126"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="128"/>
+      <c r="D3" s="142"/>
       <c r="E3" s="128"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="128"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="126"/>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="128"/>
+      <c r="C4" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="128"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="128"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="128"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="126"/>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="128"/>
+      <c r="C5" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="128"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="128"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="128"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="126"/>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="128"/>
+      <c r="D6" s="142"/>
       <c r="E6" s="128"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="128"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="126"/>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="128"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="128"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="128"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="126"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="128"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="128"/>
-    </row>
-    <row r="9" spans="1:5" ht="27.6">
+      <c r="F8" s="128"/>
+    </row>
+    <row r="9" spans="1:6" ht="27.6">
       <c r="A9" s="126"/>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="128"/>
+      <c r="C9" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="128"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="128"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="128"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="126"/>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="128"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="128"/>
-    </row>
-    <row r="11" spans="1:5" ht="27.6">
+      <c r="F10" s="128"/>
+    </row>
+    <row r="11" spans="1:6" ht="27.6">
       <c r="A11" s="126"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="128"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="128"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="128"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="126"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="128"/>
+      <c r="C12" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="128"/>
+      <c r="D12" s="142"/>
       <c r="E12" s="128"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="128"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="126"/>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="128"/>
+      <c r="D13" s="142"/>
       <c r="E13" s="128"/>
-    </row>
-    <row r="14" spans="1:5" ht="27.6">
+      <c r="F13" s="128"/>
+    </row>
+    <row r="14" spans="1:6" ht="27.6">
       <c r="A14" s="126"/>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="128"/>
+      <c r="D14" s="142"/>
       <c r="E14" s="128"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="128"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="126"/>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="128"/>
+      <c r="C15" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="128"/>
+      <c r="D15" s="142"/>
       <c r="E15" s="128"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="128"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="126"/>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="128"/>
+      <c r="C16" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="128"/>
+      <c r="D16" s="142"/>
       <c r="E16" s="128"/>
-    </row>
-    <row r="17" spans="1:5" ht="27.6">
+      <c r="F16" s="128"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.6">
       <c r="A17" s="126"/>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="128"/>
+      <c r="C17" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="128"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="128"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="128"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="126"/>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="128"/>
+      <c r="C18" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="128"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="128"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="128"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="126"/>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="128"/>
+      <c r="C19" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="128"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="128"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="128"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="126"/>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="128"/>
+      <c r="C20" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="128"/>
+      <c r="D20" s="142"/>
       <c r="E20" s="128"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="128"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="126"/>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="128"/>
+      <c r="C21" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="128"/>
+      <c r="D21" s="142"/>
       <c r="E21" s="128"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="128"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="126"/>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="128"/>
+      <c r="C22" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="128"/>
+      <c r="D22" s="142"/>
       <c r="E22" s="128"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="128"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="126"/>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="128"/>
+      <c r="C23" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="128"/>
+      <c r="D23" s="142"/>
       <c r="E23" s="128"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="128"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="126"/>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="128"/>
+      <c r="C24" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="128"/>
+      <c r="D24" s="142"/>
       <c r="E24" s="128"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="128"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="126"/>
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="128"/>
+      <c r="C25" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="128"/>
+      <c r="D25" s="142"/>
       <c r="E25" s="128"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="128"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="126"/>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="128"/>
+      <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="128"/>
+      <c r="D26" s="142"/>
       <c r="E26" s="128"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="128"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="126"/>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="142"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="126"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="126"/>
-      <c r="B28" s="106" t="s">
+      <c r="D28" s="142"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="127"/>
-      <c r="B29" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="128"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="128"/>
-    </row>
-    <row r="30" spans="1:5" ht="36" customHeight="1">
+      <c r="F29" s="128"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1">
       <c r="A30" s="143">
         <v>2</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="146">
-        <v>1</v>
-      </c>
-      <c r="D30" s="125">
+      <c r="C30" s="150"/>
+      <c r="D30" s="146">
+        <v>1</v>
+      </c>
+      <c r="E30" s="125">
         <v>16949.099999999999</v>
       </c>
-      <c r="E30" s="125">
-        <f t="shared" ref="E30" si="0">C30*D30</f>
+      <c r="F30" s="125">
+        <f t="shared" ref="F30" si="0">D30*E30</f>
         <v>16949.099999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" ht="14.4" customHeight="1">
       <c r="A31" s="144"/>
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="151" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="152"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A32" s="144"/>
+      <c r="B32" s="151" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="144"/>
-      <c r="B32" s="106" t="s">
+      <c r="C32" s="152"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A33" s="144"/>
+      <c r="B33" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="144"/>
-      <c r="B33" s="106" t="s">
+      <c r="C33" s="152"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A34" s="144"/>
+      <c r="B34" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="147"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="144"/>
-      <c r="B34" s="106" t="s">
+      <c r="C34" s="152"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A35" s="144"/>
+      <c r="B35" s="151" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="144"/>
-      <c r="B35" s="106" t="s">
+      <c r="C35" s="152"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A36" s="144"/>
+      <c r="B36" s="151" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="144"/>
-      <c r="B36" s="106" t="s">
+      <c r="C36" s="152"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A37" s="144"/>
+      <c r="B37" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="147"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="144"/>
-      <c r="B37" s="106" t="s">
+      <c r="C37" s="152"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A38" s="144"/>
+      <c r="B38" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="147"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="144"/>
-      <c r="B38" s="106" t="s">
+      <c r="C38" s="152"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A39" s="144"/>
+      <c r="B39" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="147"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="144"/>
-      <c r="B39" s="106" t="s">
+      <c r="C39" s="152"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A40" s="144"/>
+      <c r="B40" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="144"/>
-      <c r="B40" s="106" t="s">
+      <c r="C40" s="152"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A41" s="144"/>
+      <c r="B41" s="151" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A42" s="144"/>
+      <c r="B42" s="151" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="147"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="144"/>
-      <c r="B41" s="106" t="s">
+      <c r="C42" s="152"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A43" s="144"/>
+      <c r="B43" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="144"/>
-      <c r="B42" s="106" t="s">
+      <c r="C43" s="152"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A44" s="144"/>
+      <c r="B44" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="144"/>
-      <c r="B43" s="106" t="s">
+      <c r="C44" s="152"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A45" s="144"/>
+      <c r="B45" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="147"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="144"/>
-      <c r="B44" s="106" t="s">
+      <c r="C45" s="152"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A46" s="144"/>
+      <c r="B46" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="147"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="144"/>
-      <c r="B45" s="106" t="s">
+      <c r="C46" s="152"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A47" s="144"/>
+      <c r="B47" s="151" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="147"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="144"/>
-      <c r="B46" s="106" t="s">
+      <c r="C47" s="152"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A48" s="144"/>
+      <c r="B48" s="151" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="152"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A49" s="144"/>
+      <c r="B49" s="151" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="147"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="144"/>
-      <c r="B47" s="106" t="s">
+      <c r="C49" s="152"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A50" s="144"/>
+      <c r="B50" s="151" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="147"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="144"/>
-      <c r="B48" s="106" t="s">
+      <c r="C50" s="152"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A51" s="144"/>
+      <c r="B51" s="151" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="147"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="144"/>
-      <c r="B49" s="106" t="s">
+      <c r="C51" s="152"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A52" s="144"/>
+      <c r="B52" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="147"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="144"/>
-      <c r="B50" s="106" t="s">
+      <c r="C52" s="152"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A53" s="144"/>
+      <c r="B53" s="151" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="147"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="144"/>
-      <c r="B51" s="106" t="s">
+      <c r="C53" s="152"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A54" s="144"/>
+      <c r="B54" s="151" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="147"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="144"/>
-      <c r="B52" s="106" t="s">
+      <c r="C54" s="152"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A55" s="144"/>
+      <c r="B55" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="C52" s="147"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="144"/>
-      <c r="B53" s="106" t="s">
+      <c r="C55" s="152"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A56" s="145"/>
+      <c r="B56" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="C53" s="147"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="144"/>
-      <c r="B54" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="147"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="144"/>
-      <c r="B55" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="147"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="145"/>
-      <c r="B56" s="107" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56" s="148"/>
-      <c r="D56" s="127"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="148"/>
       <c r="E56" s="127"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="127"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="112" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="141"/>
-      <c r="C57" s="112"/>
+      <c r="C57" s="141"/>
       <c r="D57" s="112"/>
-      <c r="E57" s="98">
-        <f>SUM(E30+E2)</f>
+      <c r="E57" s="112"/>
+      <c r="F57" s="106">
+        <f>SUM(F30+F2)</f>
         <v>156779.61000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="112" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="112"/>
       <c r="C58" s="112"/>
       <c r="D58" s="112"/>
-      <c r="E58" s="98">
-        <f>E57*18%</f>
+      <c r="E58" s="112"/>
+      <c r="F58" s="106">
+        <f>F57*18%</f>
         <v>28220.329800000003</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="112"/>
       <c r="C59" s="112"/>
       <c r="D59" s="112"/>
-      <c r="E59" s="98">
-        <f>E58+E57</f>
+      <c r="E59" s="112"/>
+      <c r="F59" s="106">
+        <f>F58+F57</f>
         <v>184999.93980000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="E30:E56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C2:C29"/>
+  <mergeCells count="39">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F30:F56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
     <mergeCell ref="D2:D29"/>
     <mergeCell ref="E2:E29"/>
+    <mergeCell ref="F2:F29"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="A30:A56"/>
-    <mergeCell ref="C30:C56"/>
     <mergeCell ref="D30:D56"/>
+    <mergeCell ref="E30:E56"/>
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>24695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="105">
+        <f>SUM(F2)</f>
+        <v>24695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="105">
+        <f>F3*18%</f>
+        <v>4445.0999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="105">
+        <f>SUM(F3:F4)</f>
+        <v>29140.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="60" activeTab="65"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="60" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -1499,6 +1499,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1527,18 +1539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8485,6 +8485,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K16:K17"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A23:K23"/>
@@ -8492,26 +8512,6 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9013,17 +9013,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E2:E41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="C2:C41"/>
     <mergeCell ref="D2:D41"/>
-    <mergeCell ref="E2:E41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10239,7 +10239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -10282,7 +10282,7 @@
       <c r="C2" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="142">
+      <c r="D2" s="146">
         <v>1</v>
       </c>
       <c r="E2" s="128">
@@ -10293,13 +10293,13 @@
         <v>139830.51</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="27.6">
       <c r="A3" s="126"/>
       <c r="B3" s="128"/>
       <c r="C3" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="142"/>
+      <c r="D3" s="146"/>
       <c r="E3" s="128"/>
       <c r="F3" s="128"/>
     </row>
@@ -10309,7 +10309,7 @@
       <c r="C4" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="142"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="128"/>
       <c r="F4" s="128"/>
     </row>
@@ -10319,7 +10319,7 @@
       <c r="C5" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="142"/>
+      <c r="D5" s="146"/>
       <c r="E5" s="128"/>
       <c r="F5" s="128"/>
     </row>
@@ -10329,17 +10329,17 @@
       <c r="C6" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="142"/>
+      <c r="D6" s="146"/>
       <c r="E6" s="128"/>
       <c r="F6" s="128"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="27.6">
       <c r="A7" s="126"/>
       <c r="B7" s="128"/>
       <c r="C7" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="142"/>
+      <c r="D7" s="146"/>
       <c r="E7" s="128"/>
       <c r="F7" s="128"/>
     </row>
@@ -10349,7 +10349,7 @@
       <c r="C8" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="142"/>
+      <c r="D8" s="146"/>
       <c r="E8" s="128"/>
       <c r="F8" s="128"/>
     </row>
@@ -10359,7 +10359,7 @@
       <c r="C9" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="142"/>
+      <c r="D9" s="146"/>
       <c r="E9" s="128"/>
       <c r="F9" s="128"/>
     </row>
@@ -10369,7 +10369,7 @@
       <c r="C10" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="142"/>
+      <c r="D10" s="146"/>
       <c r="E10" s="128"/>
       <c r="F10" s="128"/>
     </row>
@@ -10379,7 +10379,7 @@
       <c r="C11" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="146"/>
       <c r="E11" s="128"/>
       <c r="F11" s="128"/>
     </row>
@@ -10389,7 +10389,7 @@
       <c r="C12" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="142"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="128"/>
       <c r="F12" s="128"/>
     </row>
@@ -10399,7 +10399,7 @@
       <c r="C13" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="142"/>
+      <c r="D13" s="146"/>
       <c r="E13" s="128"/>
       <c r="F13" s="128"/>
     </row>
@@ -10409,7 +10409,7 @@
       <c r="C14" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="142"/>
+      <c r="D14" s="146"/>
       <c r="E14" s="128"/>
       <c r="F14" s="128"/>
     </row>
@@ -10419,7 +10419,7 @@
       <c r="C15" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="142"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="128"/>
       <c r="F15" s="128"/>
     </row>
@@ -10429,7 +10429,7 @@
       <c r="C16" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="142"/>
+      <c r="D16" s="146"/>
       <c r="E16" s="128"/>
       <c r="F16" s="128"/>
     </row>
@@ -10439,7 +10439,7 @@
       <c r="C17" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="142"/>
+      <c r="D17" s="146"/>
       <c r="E17" s="128"/>
       <c r="F17" s="128"/>
     </row>
@@ -10449,7 +10449,7 @@
       <c r="C18" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="142"/>
+      <c r="D18" s="146"/>
       <c r="E18" s="128"/>
       <c r="F18" s="128"/>
     </row>
@@ -10459,7 +10459,7 @@
       <c r="C19" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="142"/>
+      <c r="D19" s="146"/>
       <c r="E19" s="128"/>
       <c r="F19" s="128"/>
     </row>
@@ -10469,7 +10469,7 @@
       <c r="C20" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="142"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="128"/>
       <c r="F20" s="128"/>
     </row>
@@ -10479,7 +10479,7 @@
       <c r="C21" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="142"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="128"/>
       <c r="F21" s="128"/>
     </row>
@@ -10489,7 +10489,7 @@
       <c r="C22" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="142"/>
+      <c r="D22" s="146"/>
       <c r="E22" s="128"/>
       <c r="F22" s="128"/>
     </row>
@@ -10499,7 +10499,7 @@
       <c r="C23" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="142"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="128"/>
       <c r="F23" s="128"/>
     </row>
@@ -10509,7 +10509,7 @@
       <c r="C24" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="142"/>
+      <c r="D24" s="146"/>
       <c r="E24" s="128"/>
       <c r="F24" s="128"/>
     </row>
@@ -10519,7 +10519,7 @@
       <c r="C25" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="142"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="128"/>
       <c r="F25" s="128"/>
     </row>
@@ -10529,7 +10529,7 @@
       <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="142"/>
+      <c r="D26" s="146"/>
       <c r="E26" s="128"/>
       <c r="F26" s="128"/>
     </row>
@@ -10539,7 +10539,7 @@
       <c r="C27" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="142"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="128"/>
       <c r="F27" s="128"/>
     </row>
@@ -10549,7 +10549,7 @@
       <c r="C28" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="142"/>
+      <c r="D28" s="146"/>
       <c r="E28" s="128"/>
       <c r="F28" s="128"/>
     </row>
@@ -10559,19 +10559,19 @@
       <c r="C29" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="142"/>
+      <c r="D29" s="146"/>
       <c r="E29" s="128"/>
       <c r="F29" s="128"/>
     </row>
     <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A30" s="143">
+      <c r="A30" s="147">
         <v>2</v>
       </c>
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="150"/>
-      <c r="D30" s="146">
+      <c r="C30" s="154"/>
+      <c r="D30" s="150">
         <v>1</v>
       </c>
       <c r="E30" s="125">
@@ -10583,262 +10583,262 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A31" s="144"/>
-      <c r="B31" s="151" t="s">
+      <c r="A31" s="148"/>
+      <c r="B31" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="152"/>
-      <c r="D31" s="147"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="126"/>
       <c r="F31" s="126"/>
     </row>
     <row r="32" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A32" s="144"/>
-      <c r="B32" s="151" t="s">
+      <c r="A32" s="148"/>
+      <c r="B32" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="152"/>
-      <c r="D32" s="147"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="126"/>
       <c r="F32" s="126"/>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A33" s="144"/>
-      <c r="B33" s="151" t="s">
+      <c r="A33" s="148"/>
+      <c r="B33" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="152"/>
-      <c r="D33" s="147"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="126"/>
       <c r="F33" s="126"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A34" s="144"/>
-      <c r="B34" s="151" t="s">
+      <c r="A34" s="148"/>
+      <c r="B34" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="152"/>
-      <c r="D34" s="147"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="151"/>
       <c r="E34" s="126"/>
       <c r="F34" s="126"/>
     </row>
     <row r="35" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A35" s="144"/>
-      <c r="B35" s="151" t="s">
+      <c r="A35" s="148"/>
+      <c r="B35" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="152"/>
-      <c r="D35" s="147"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="126"/>
       <c r="F35" s="126"/>
     </row>
     <row r="36" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A36" s="144"/>
-      <c r="B36" s="151" t="s">
+      <c r="A36" s="148"/>
+      <c r="B36" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="152"/>
-      <c r="D36" s="147"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="126"/>
       <c r="F36" s="126"/>
     </row>
     <row r="37" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A37" s="144"/>
-      <c r="B37" s="151" t="s">
+      <c r="A37" s="148"/>
+      <c r="B37" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="152"/>
-      <c r="D37" s="147"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="126"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A38" s="144"/>
-      <c r="B38" s="151" t="s">
+      <c r="A38" s="148"/>
+      <c r="B38" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="152"/>
-      <c r="D38" s="147"/>
+      <c r="C38" s="142"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="126"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A39" s="144"/>
-      <c r="B39" s="151" t="s">
+      <c r="A39" s="148"/>
+      <c r="B39" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="147"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="126"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A40" s="144"/>
-      <c r="B40" s="151" t="s">
+      <c r="A40" s="148"/>
+      <c r="B40" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="152"/>
-      <c r="D40" s="147"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="126"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A41" s="144"/>
-      <c r="B41" s="151" t="s">
+      <c r="A41" s="148"/>
+      <c r="B41" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="152"/>
-      <c r="D41" s="147"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="126"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A42" s="144"/>
-      <c r="B42" s="151" t="s">
+      <c r="A42" s="148"/>
+      <c r="B42" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="152"/>
-      <c r="D42" s="147"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="126"/>
       <c r="F42" s="126"/>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A43" s="144"/>
-      <c r="B43" s="151" t="s">
+      <c r="A43" s="148"/>
+      <c r="B43" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="152"/>
-      <c r="D43" s="147"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="126"/>
       <c r="F43" s="126"/>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A44" s="144"/>
-      <c r="B44" s="151" t="s">
+      <c r="A44" s="148"/>
+      <c r="B44" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="152"/>
-      <c r="D44" s="147"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="151"/>
       <c r="E44" s="126"/>
       <c r="F44" s="126"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A45" s="144"/>
-      <c r="B45" s="151" t="s">
+      <c r="A45" s="148"/>
+      <c r="B45" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="152"/>
-      <c r="D45" s="147"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="151"/>
       <c r="E45" s="126"/>
       <c r="F45" s="126"/>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A46" s="144"/>
-      <c r="B46" s="151" t="s">
+      <c r="A46" s="148"/>
+      <c r="B46" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="152"/>
-      <c r="D46" s="147"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="151"/>
       <c r="E46" s="126"/>
       <c r="F46" s="126"/>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A47" s="144"/>
-      <c r="B47" s="151" t="s">
+      <c r="A47" s="148"/>
+      <c r="B47" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="152"/>
-      <c r="D47" s="147"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="151"/>
       <c r="E47" s="126"/>
       <c r="F47" s="126"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A48" s="144"/>
-      <c r="B48" s="151" t="s">
+      <c r="A48" s="148"/>
+      <c r="B48" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="152"/>
-      <c r="D48" s="147"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="126"/>
       <c r="F48" s="126"/>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A49" s="144"/>
-      <c r="B49" s="151" t="s">
+      <c r="A49" s="148"/>
+      <c r="B49" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="152"/>
-      <c r="D49" s="147"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="151"/>
       <c r="E49" s="126"/>
       <c r="F49" s="126"/>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A50" s="144"/>
-      <c r="B50" s="151" t="s">
+      <c r="A50" s="148"/>
+      <c r="B50" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="152"/>
-      <c r="D50" s="147"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="151"/>
       <c r="E50" s="126"/>
       <c r="F50" s="126"/>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A51" s="144"/>
-      <c r="B51" s="151" t="s">
+      <c r="A51" s="148"/>
+      <c r="B51" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="152"/>
-      <c r="D51" s="147"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="151"/>
       <c r="E51" s="126"/>
       <c r="F51" s="126"/>
     </row>
     <row r="52" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A52" s="144"/>
-      <c r="B52" s="151" t="s">
+      <c r="A52" s="148"/>
+      <c r="B52" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="152"/>
-      <c r="D52" s="147"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="151"/>
       <c r="E52" s="126"/>
       <c r="F52" s="126"/>
     </row>
     <row r="53" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A53" s="144"/>
-      <c r="B53" s="151" t="s">
+      <c r="A53" s="148"/>
+      <c r="B53" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="152"/>
-      <c r="D53" s="147"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="151"/>
       <c r="E53" s="126"/>
       <c r="F53" s="126"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A54" s="144"/>
-      <c r="B54" s="151" t="s">
+      <c r="A54" s="148"/>
+      <c r="B54" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="152"/>
-      <c r="D54" s="147"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="151"/>
       <c r="E54" s="126"/>
       <c r="F54" s="126"/>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A55" s="144"/>
-      <c r="B55" s="151" t="s">
+      <c r="A55" s="148"/>
+      <c r="B55" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="152"/>
-      <c r="D55" s="147"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="151"/>
       <c r="E55" s="126"/>
       <c r="F55" s="126"/>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A56" s="145"/>
-      <c r="B56" s="153" t="s">
+      <c r="A56" s="149"/>
+      <c r="B56" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="154"/>
-      <c r="D56" s="148"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="152"/>
       <c r="E56" s="127"/>
       <c r="F56" s="127"/>
     </row>
@@ -10846,8 +10846,8 @@
       <c r="A57" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
       <c r="D57" s="112"/>
       <c r="E57" s="112"/>
       <c r="F57" s="106">
@@ -10883,30 +10883,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="F30:F56"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A58:E58"/>
@@ -10922,6 +10898,30 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10933,13 +10933,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="60" activeTab="66"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="61" activeTab="67"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,7 @@
     <sheet name="Palntex 311" sheetId="68" r:id="rId65"/>
     <sheet name="Multi Bath 312" sheetId="69" r:id="rId66"/>
     <sheet name="Namrata 313" sheetId="70" r:id="rId67"/>
+    <sheet name="Namrata 314" sheetId="71" r:id="rId68"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="221">
   <si>
     <t>Sr. No</t>
   </si>
@@ -1083,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1403,6 +1404,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1499,6 +1503,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1509,36 +1543,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2003,39 +2007,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -2105,36 +2109,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -2211,39 +2215,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -2326,39 +2330,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -2429,39 +2433,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2546,12 +2550,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="A4" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2617,36 +2621,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2720,39 +2724,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2824,39 +2828,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2994,39 +2998,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -3098,39 +3102,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -3206,39 +3210,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -3311,39 +3315,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -3416,39 +3420,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3517,48 +3521,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3600,48 +3604,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
+      <c r="A13" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3714,48 +3718,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3915,39 +3919,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="A7" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -4015,36 +4019,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -4183,39 +4187,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -4281,36 +4285,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -4382,39 +4386,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4487,39 +4491,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4587,36 +4591,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4826,39 +4830,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="A9" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4930,39 +4934,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -5031,36 +5035,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -5128,35 +5132,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -5229,39 +5233,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -5334,39 +5338,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -5439,39 +5443,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5608,39 +5612,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5794,39 +5798,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="A4" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5934,13 +5938,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -6016,13 +6020,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -6095,39 +6099,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6200,39 +6204,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6305,39 +6309,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -6403,48 +6407,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6510,48 +6514,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6623,39 +6627,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6730,39 +6734,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6836,39 +6840,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6939,39 +6943,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7045,39 +7049,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -7151,39 +7155,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7262,39 +7266,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -7357,13 +7361,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="119">
-        <v>1</v>
-      </c>
-      <c r="D2" s="119">
+      <c r="C2" s="120">
+        <v>1</v>
+      </c>
+      <c r="D2" s="120">
         <v>84050</v>
       </c>
-      <c r="E2" s="119">
+      <c r="E2" s="120">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -7375,9 +7379,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -7386,9 +7390,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -7397,9 +7401,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -7408,9 +7412,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -7419,9 +7423,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -7430,9 +7434,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -7441,9 +7445,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7452,63 +7456,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
+      <c r="A11" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7611,39 +7615,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="A4" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7719,39 +7723,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7838,36 +7842,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
+      <c r="A4" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7931,36 +7935,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
+      <c r="A13" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -8017,54 +8021,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="122" t="s">
+      <c r="H1" s="125"/>
+      <c r="I1" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="114" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="113"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -8199,112 +8203,112 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
+      <c r="A6" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="122" t="s">
+      <c r="F16" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="123" t="s">
+      <c r="G16" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="124"/>
-      <c r="I16" s="122" t="s">
+      <c r="H16" s="125"/>
+      <c r="I16" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="122" t="s">
+      <c r="J16" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="113" t="s">
+      <c r="K16" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="113" t="s">
+      <c r="L16" s="114" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
       <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
     </row>
     <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
@@ -8427,57 +8431,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="117"/>
+      <c r="A21" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="117"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8485,12 +8489,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K16:K17"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -8498,20 +8510,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8551,441 +8555,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="125">
+      <c r="A2" s="126">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="125">
-        <v>1</v>
-      </c>
-      <c r="D2" s="125">
+      <c r="C2" s="126">
+        <v>1</v>
+      </c>
+      <c r="D2" s="126">
         <v>150000</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2" s="126">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="126"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="126"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="126"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="126"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="126"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="126"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="126"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="126"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="126"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="126"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="126"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="126"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="126"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="126"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="126"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="126"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="126"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="126"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="126"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="126"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="126"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="126"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="126"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="126"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="126"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="126"/>
+      <c r="A28" s="127"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="126"/>
+      <c r="A29" s="127"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="126"/>
+      <c r="A30" s="127"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="126"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="126"/>
+      <c r="A32" s="127"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="126"/>
+      <c r="A33" s="127"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="126"/>
+      <c r="A34" s="127"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="126"/>
+      <c r="A35" s="127"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="126"/>
+      <c r="A36" s="127"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="126"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="126"/>
+      <c r="A38" s="127"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="126"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="126"/>
+      <c r="A40" s="127"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="127"/>
+      <c r="A41" s="128"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="128">
+      <c r="A42" s="129">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="128">
-        <v>1</v>
-      </c>
-      <c r="D42" s="128">
+      <c r="C42" s="129">
+        <v>1</v>
+      </c>
+      <c r="D42" s="129">
         <v>130000</v>
       </c>
-      <c r="E42" s="128">
+      <c r="E42" s="129">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="128"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="128"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
+      <c r="A45" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="112" t="s">
+      <c r="A47" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="112"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -9013,17 +9017,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E2:E41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="C2:C41"/>
     <mergeCell ref="D2:D41"/>
+    <mergeCell ref="E2:E41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9079,35 +9083,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -9178,39 +9182,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -9276,36 +9280,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -9384,39 +9388,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -9482,36 +9486,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9582,39 +9586,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="89">
         <f>SUM(F2:F2)</f>
         <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="89">
         <f>F3*18%</f>
         <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="89">
         <f>SUM(F3:F4)</f>
         <v>25960</v>
@@ -9749,39 +9753,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="92">
         <f>SUM(F2:F5)</f>
         <v>174900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="92">
         <f>F6*18%</f>
         <v>31482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="92">
         <f>SUM(F6:F7)</f>
         <v>206382</v>
@@ -9852,39 +9856,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="93">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="93">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="93">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -9938,23 +9942,23 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="130">
+      <c r="A2" s="131">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="131">
-        <v>1</v>
-      </c>
-      <c r="D2" s="132">
+      <c r="C2" s="132">
+        <v>1</v>
+      </c>
+      <c r="D2" s="133">
         <v>59088</v>
       </c>
-      <c r="E2" s="133">
+      <c r="E2" s="134">
         <f>D2*0.42</f>
         <v>24816.959999999999</v>
       </c>
-      <c r="F2" s="132">
+      <c r="F2" s="133">
         <f>C2*E2</f>
         <v>24816.959999999999</v>
       </c>
@@ -9968,83 +9972,83 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="130"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="133"/>
     </row>
     <row r="4" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A4" s="130"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="133"/>
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="130"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="133"/>
     </row>
     <row r="6" spans="1:10" ht="39.6">
-      <c r="A6" s="130"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="133"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A7" s="130"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="133"/>
     </row>
     <row r="8" spans="1:10" ht="66">
-      <c r="A8" s="130"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="133"/>
     </row>
     <row r="9" spans="1:10" ht="66">
-      <c r="A9" s="130"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="133"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
+      <c r="A10" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="130"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2)</f>
@@ -10107,23 +10111,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="136">
+      <c r="A2" s="137">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="138">
-        <v>1</v>
-      </c>
-      <c r="D2" s="133">
+      <c r="C2" s="139">
+        <v>1</v>
+      </c>
+      <c r="D2" s="134">
         <v>66228</v>
       </c>
-      <c r="E2" s="133">
+      <c r="E2" s="134">
         <f>D2*0.42</f>
         <v>27815.759999999998</v>
       </c>
-      <c r="F2" s="133">
+      <c r="F2" s="134">
         <f>C2*E2</f>
         <v>27815.759999999998</v>
       </c>
@@ -10137,84 +10141,84 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="137"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
       <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="35.4" customHeight="1">
-      <c r="A4" s="137"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A5" s="137"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
       <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A6" s="137"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="7" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A7" s="137"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A8" s="137"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
     </row>
     <row r="9" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A9" s="137"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
+      <c r="A10" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="130"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2:F2)</f>
@@ -10275,607 +10279,607 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="125">
-        <v>1</v>
-      </c>
-      <c r="B2" s="128"/>
+      <c r="A2" s="126">
+        <v>1</v>
+      </c>
+      <c r="B2" s="129"/>
       <c r="C2" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="146">
-        <v>1</v>
-      </c>
-      <c r="E2" s="128">
+      <c r="D2" s="143">
+        <v>1</v>
+      </c>
+      <c r="E2" s="129">
         <v>139830.51</v>
       </c>
-      <c r="F2" s="128">
+      <c r="F2" s="129">
         <f>D2*E2</f>
         <v>139830.51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6">
-      <c r="A3" s="126"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="126"/>
-      <c r="B4" s="128"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="126"/>
-      <c r="B5" s="128"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="126"/>
-      <c r="B6" s="128"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
     </row>
     <row r="7" spans="1:6" ht="27.6">
-      <c r="A7" s="126"/>
-      <c r="B7" s="128"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="126"/>
-      <c r="B8" s="128"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
     </row>
     <row r="9" spans="1:6" ht="27.6">
-      <c r="A9" s="126"/>
-      <c r="B9" s="128"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="126"/>
-      <c r="B10" s="128"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
     </row>
     <row r="11" spans="1:6" ht="27.6">
-      <c r="A11" s="126"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="126"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="126"/>
-      <c r="B13" s="128"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
     </row>
     <row r="14" spans="1:6" ht="27.6">
-      <c r="A14" s="126"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="126"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="126"/>
-      <c r="B16" s="128"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
     </row>
     <row r="17" spans="1:6" ht="27.6">
-      <c r="A17" s="126"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="126"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="126"/>
-      <c r="B19" s="128"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="126"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="126"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="126"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="126"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="126"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="126"/>
-      <c r="B25" s="128"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="126"/>
-      <c r="B26" s="128"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="126"/>
-      <c r="B27" s="128"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="126"/>
-      <c r="B28" s="128"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="146"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="127"/>
-      <c r="B29" s="128"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="146"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
     </row>
     <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A30" s="147">
+      <c r="A30" s="144">
         <v>2</v>
       </c>
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="150" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="154"/>
-      <c r="D30" s="150">
-        <v>1</v>
-      </c>
-      <c r="E30" s="125">
+      <c r="C30" s="151"/>
+      <c r="D30" s="147">
+        <v>1</v>
+      </c>
+      <c r="E30" s="126">
         <v>16949.099999999999</v>
       </c>
-      <c r="F30" s="125">
+      <c r="F30" s="126">
         <f t="shared" ref="F30" si="0">D30*E30</f>
         <v>16949.099999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A31" s="148"/>
-      <c r="B31" s="141" t="s">
+      <c r="A31" s="145"/>
+      <c r="B31" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="142"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
     </row>
     <row r="32" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A32" s="148"/>
-      <c r="B32" s="141" t="s">
+      <c r="A32" s="145"/>
+      <c r="B32" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A33" s="148"/>
-      <c r="B33" s="141" t="s">
+      <c r="A33" s="145"/>
+      <c r="B33" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A34" s="148"/>
-      <c r="B34" s="141" t="s">
+      <c r="A34" s="145"/>
+      <c r="B34" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
     </row>
     <row r="35" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A35" s="148"/>
-      <c r="B35" s="141" t="s">
+      <c r="A35" s="145"/>
+      <c r="B35" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
     </row>
     <row r="36" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A36" s="148"/>
-      <c r="B36" s="141" t="s">
+      <c r="A36" s="145"/>
+      <c r="B36" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="142"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
     </row>
     <row r="37" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A37" s="148"/>
-      <c r="B37" s="141" t="s">
+      <c r="A37" s="145"/>
+      <c r="B37" s="152" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="142"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
     </row>
     <row r="38" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="141" t="s">
+      <c r="A38" s="145"/>
+      <c r="B38" s="152" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="142"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="141" t="s">
+      <c r="A39" s="145"/>
+      <c r="B39" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="142"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
     </row>
     <row r="40" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A40" s="148"/>
-      <c r="B40" s="141" t="s">
+      <c r="A40" s="145"/>
+      <c r="B40" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="142"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
     </row>
     <row r="41" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A41" s="148"/>
-      <c r="B41" s="141" t="s">
+      <c r="A41" s="145"/>
+      <c r="B41" s="152" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="142"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A42" s="148"/>
-      <c r="B42" s="141" t="s">
+      <c r="A42" s="145"/>
+      <c r="B42" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="142"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A43" s="148"/>
-      <c r="B43" s="141" t="s">
+      <c r="A43" s="145"/>
+      <c r="B43" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="142"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A44" s="148"/>
-      <c r="B44" s="141" t="s">
+      <c r="A44" s="145"/>
+      <c r="B44" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="142"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A45" s="148"/>
-      <c r="B45" s="141" t="s">
+      <c r="A45" s="145"/>
+      <c r="B45" s="152" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="142"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A46" s="148"/>
-      <c r="B46" s="141" t="s">
+      <c r="A46" s="145"/>
+      <c r="B46" s="152" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="142"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A47" s="148"/>
-      <c r="B47" s="141" t="s">
+      <c r="A47" s="145"/>
+      <c r="B47" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A48" s="148"/>
-      <c r="B48" s="141" t="s">
+      <c r="A48" s="145"/>
+      <c r="B48" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="142"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A49" s="148"/>
-      <c r="B49" s="141" t="s">
+      <c r="A49" s="145"/>
+      <c r="B49" s="152" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="142"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A50" s="148"/>
-      <c r="B50" s="141" t="s">
+      <c r="A50" s="145"/>
+      <c r="B50" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="142"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A51" s="148"/>
-      <c r="B51" s="141" t="s">
+      <c r="A51" s="145"/>
+      <c r="B51" s="152" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="142"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
     </row>
     <row r="52" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A52" s="148"/>
-      <c r="B52" s="141" t="s">
+      <c r="A52" s="145"/>
+      <c r="B52" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="142"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
     </row>
     <row r="53" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A53" s="148"/>
-      <c r="B53" s="141" t="s">
+      <c r="A53" s="145"/>
+      <c r="B53" s="152" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="142"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A54" s="148"/>
-      <c r="B54" s="141" t="s">
+      <c r="A54" s="145"/>
+      <c r="B54" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="142"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A55" s="148"/>
-      <c r="B55" s="141" t="s">
+      <c r="A55" s="145"/>
+      <c r="B55" s="152" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="142"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A56" s="149"/>
-      <c r="B56" s="143" t="s">
+      <c r="A56" s="146"/>
+      <c r="B56" s="154" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
+      <c r="A57" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="142"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
       <c r="F57" s="106">
         <f>SUM(F30+F2)</f>
         <v>156779.61000000002</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="112" t="s">
+      <c r="A58" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="112"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
       <c r="F58" s="106">
         <f>F57*18%</f>
         <v>28220.329800000003</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
       <c r="F59" s="106">
         <f>F58+F57</f>
         <v>184999.93980000002</v>
@@ -10883,6 +10887,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="F30:F56"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A58:E58"/>
@@ -10899,29 +10926,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10933,8 +10937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10945,7 +10949,7 @@
     <col min="6" max="6" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8">
+    <row r="1" spans="1:6">
       <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
@@ -10987,42 +10991,142 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="105">
         <f>SUM(F2)</f>
         <v>24695</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="105">
         <f>F3*18%</f>
         <v>4445.0999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="105">
         <f>SUM(F3:F4)</f>
         <v>29140.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.2">
+      <c r="A1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="108">
+        <f>SUM(F2)</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="108">
+        <f>F3*18%</f>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="108">
+        <f>SUM(F3:F4)</f>
+        <v>26491</v>
       </c>
     </row>
   </sheetData>
@@ -11095,39 +11199,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -11209,13 +11313,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -11223,13 +11327,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -11237,13 +11341,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -11312,36 +11416,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="A3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="61" activeTab="67"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="62" activeTab="68"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,7 @@
     <sheet name="Multi Bath 312" sheetId="69" r:id="rId66"/>
     <sheet name="Namrata 313" sheetId="70" r:id="rId67"/>
     <sheet name="Namrata 314" sheetId="71" r:id="rId68"/>
+    <sheet name="Flexible 315" sheetId="72" r:id="rId69"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="223">
   <si>
     <t>Sr. No</t>
   </si>
@@ -784,6 +785,12 @@
   </si>
   <si>
     <t xml:space="preserve">Safety pressure release value </t>
+  </si>
+  <si>
+    <t>15 M</t>
+  </si>
+  <si>
+    <t>Water Bellow_BP60_Dia 125 mm_flexible</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1407,6 +1414,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1503,6 +1513,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1531,18 +1553,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2007,39 +2017,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="A6" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -2109,36 +2119,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
+      <c r="A3" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -2215,39 +2225,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -2330,39 +2340,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -2433,39 +2443,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2550,12 +2560,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
+      <c r="A4" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2621,36 +2631,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2724,39 +2734,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2828,39 +2838,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2998,39 +3008,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="A6" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -3102,39 +3112,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -3210,39 +3220,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -3315,39 +3325,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -3420,39 +3430,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3521,48 +3531,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3604,48 +3614,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3718,48 +3728,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3919,39 +3929,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="A7" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -4019,36 +4029,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -4187,39 +4197,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="A6" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -4285,36 +4295,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -4386,39 +4396,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4491,39 +4501,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4591,36 +4601,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4830,39 +4840,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
+      <c r="A9" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4934,39 +4944,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -5035,36 +5045,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -5132,35 +5142,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -5233,39 +5243,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -5338,39 +5348,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -5443,39 +5453,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5612,39 +5622,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="A6" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5665,7 +5675,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5798,39 +5808,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="A4" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5938,13 +5948,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -6020,13 +6030,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -6099,39 +6109,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6204,39 +6214,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6309,39 +6319,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -6407,48 +6417,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6514,48 +6524,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6627,39 +6637,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6734,39 +6744,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6840,39 +6850,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6943,39 +6953,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7049,39 +7059,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -7155,39 +7165,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7266,39 +7276,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -7361,13 +7371,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="120">
-        <v>1</v>
-      </c>
-      <c r="D2" s="120">
+      <c r="C2" s="121">
+        <v>1</v>
+      </c>
+      <c r="D2" s="121">
         <v>84050</v>
       </c>
-      <c r="E2" s="120">
+      <c r="E2" s="121">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -7379,9 +7389,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -7390,9 +7400,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -7401,9 +7411,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -7412,9 +7422,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -7423,9 +7433,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -7434,9 +7444,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -7445,9 +7455,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7456,63 +7466,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
+      <c r="A11" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7615,39 +7625,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
+      <c r="A4" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7723,39 +7733,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7842,36 +7852,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="A4" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7935,36 +7945,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -8021,54 +8031,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="123" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="115" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="114"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -8203,112 +8213,112 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
+      <c r="A6" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="124" t="s">
+      <c r="G16" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="123" t="s">
+      <c r="H16" s="126"/>
+      <c r="I16" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="123" t="s">
+      <c r="J16" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="114" t="s">
+      <c r="K16" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="114" t="s">
+      <c r="L16" s="115" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
     </row>
     <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
@@ -8431,57 +8441,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="118"/>
+      <c r="A21" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="119"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="119"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="119"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8489,6 +8499,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K16:K17"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A23:K23"/>
@@ -8496,26 +8526,6 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8555,441 +8565,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="126">
+      <c r="A2" s="127">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="126">
-        <v>1</v>
-      </c>
-      <c r="D2" s="126">
+      <c r="C2" s="127">
+        <v>1</v>
+      </c>
+      <c r="D2" s="127">
         <v>150000</v>
       </c>
-      <c r="E2" s="126">
+      <c r="E2" s="127">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="127"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="127"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="127"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="127"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="127"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="127"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="127"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="127"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="127"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="127"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="127"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="127"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="127"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="127"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="127"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="127"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="127"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="127"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="127"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="127"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="127"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="127"/>
+      <c r="A24" s="128"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="127"/>
+      <c r="A25" s="128"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="127"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="127"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="127"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="127"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="127"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="127"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="127"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="127"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="127"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="127"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="127"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="127"/>
+      <c r="A37" s="128"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="127"/>
+      <c r="A38" s="128"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="127"/>
+      <c r="A39" s="128"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="127"/>
+      <c r="A40" s="128"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="128"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="129">
+      <c r="A42" s="130">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="129">
-        <v>1</v>
-      </c>
-      <c r="D42" s="129">
+      <c r="C42" s="130">
+        <v>1</v>
+      </c>
+      <c r="D42" s="130">
         <v>130000</v>
       </c>
-      <c r="E42" s="129">
+      <c r="E42" s="130">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="129"/>
+      <c r="A43" s="130"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="129"/>
+      <c r="A44" s="130"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
+      <c r="A45" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="113" t="s">
+      <c r="A46" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="113" t="s">
+      <c r="A47" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -9017,17 +9027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E2:E41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="C2:C41"/>
     <mergeCell ref="D2:D41"/>
-    <mergeCell ref="E2:E41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9083,35 +9093,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -9182,39 +9192,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -9280,36 +9290,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -9388,39 +9398,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -9486,36 +9496,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9586,39 +9596,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="89">
         <f>SUM(F2:F2)</f>
         <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="89">
         <f>F3*18%</f>
         <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="89">
         <f>SUM(F3:F4)</f>
         <v>25960</v>
@@ -9753,39 +9763,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="A6" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="92">
         <f>SUM(F2:F5)</f>
         <v>174900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="92">
         <f>F6*18%</f>
         <v>31482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="92">
         <f>SUM(F6:F7)</f>
         <v>206382</v>
@@ -9856,39 +9866,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="93">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="93">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="93">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -9942,23 +9952,23 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="131">
+      <c r="A2" s="132">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="132">
-        <v>1</v>
-      </c>
-      <c r="D2" s="133">
+      <c r="C2" s="133">
+        <v>1</v>
+      </c>
+      <c r="D2" s="134">
         <v>59088</v>
       </c>
-      <c r="E2" s="134">
+      <c r="E2" s="135">
         <f>D2*0.42</f>
         <v>24816.959999999999</v>
       </c>
-      <c r="F2" s="133">
+      <c r="F2" s="134">
         <f>C2*E2</f>
         <v>24816.959999999999</v>
       </c>
@@ -9972,83 +9982,83 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="131"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="134"/>
     </row>
     <row r="4" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A4" s="131"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="134"/>
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="131"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="134"/>
     </row>
     <row r="6" spans="1:10" ht="39.6">
-      <c r="A6" s="131"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="134"/>
     </row>
     <row r="8" spans="1:10" ht="66">
-      <c r="A8" s="131"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="1:10" ht="66">
-      <c r="A9" s="131"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="134"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
+      <c r="A10" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="131"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2)</f>
@@ -10111,23 +10121,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="137">
+      <c r="A2" s="138">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="139">
-        <v>1</v>
-      </c>
-      <c r="D2" s="134">
+      <c r="C2" s="140">
+        <v>1</v>
+      </c>
+      <c r="D2" s="135">
         <v>66228</v>
       </c>
-      <c r="E2" s="134">
+      <c r="E2" s="135">
         <f>D2*0.42</f>
         <v>27815.759999999998</v>
       </c>
-      <c r="F2" s="134">
+      <c r="F2" s="135">
         <f>C2*E2</f>
         <v>27815.759999999998</v>
       </c>
@@ -10141,84 +10151,84 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="138"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
       <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="35.4" customHeight="1">
-      <c r="A4" s="138"/>
+      <c r="A4" s="139"/>
       <c r="B4" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A5" s="138"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
       <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A6" s="138"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A7" s="138"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A8" s="138"/>
+      <c r="A8" s="139"/>
       <c r="B8" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A9" s="138"/>
+      <c r="A9" s="139"/>
       <c r="B9" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
+      <c r="A10" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="131"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2:F2)</f>
@@ -10279,607 +10289,607 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="126">
-        <v>1</v>
-      </c>
-      <c r="B2" s="129"/>
+      <c r="A2" s="127">
+        <v>1</v>
+      </c>
+      <c r="B2" s="130"/>
       <c r="C2" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="143">
-        <v>1</v>
-      </c>
-      <c r="E2" s="129">
+      <c r="D2" s="148">
+        <v>1</v>
+      </c>
+      <c r="E2" s="130">
         <v>139830.51</v>
       </c>
-      <c r="F2" s="129">
+      <c r="F2" s="130">
         <f>D2*E2</f>
         <v>139830.51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6">
-      <c r="A3" s="127"/>
-      <c r="B3" s="129"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="127"/>
-      <c r="B4" s="129"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="127"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="127"/>
-      <c r="B6" s="129"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
     </row>
     <row r="7" spans="1:6" ht="27.6">
-      <c r="A7" s="127"/>
-      <c r="B7" s="129"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="127"/>
-      <c r="B8" s="129"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="143"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
     </row>
     <row r="9" spans="1:6" ht="27.6">
-      <c r="A9" s="127"/>
-      <c r="B9" s="129"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="127"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="143"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
     </row>
     <row r="11" spans="1:6" ht="27.6">
-      <c r="A11" s="127"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="127"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="143"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="127"/>
-      <c r="B13" s="129"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
     </row>
     <row r="14" spans="1:6" ht="27.6">
-      <c r="A14" s="127"/>
-      <c r="B14" s="129"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="143"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="127"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="127"/>
-      <c r="B16" s="129"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="1:6" ht="27.6">
-      <c r="A17" s="127"/>
-      <c r="B17" s="129"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="127"/>
-      <c r="B18" s="129"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="127"/>
-      <c r="B19" s="129"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="127"/>
-      <c r="B20" s="129"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="127"/>
-      <c r="B21" s="129"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="143"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="127"/>
-      <c r="B22" s="129"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="127"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="143"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="127"/>
-      <c r="B24" s="129"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="127"/>
-      <c r="B25" s="129"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="127"/>
-      <c r="B26" s="129"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="127"/>
-      <c r="B27" s="129"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="127"/>
-      <c r="B28" s="129"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
     </row>
     <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A30" s="144">
+      <c r="A30" s="149">
         <v>2</v>
       </c>
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="151"/>
-      <c r="D30" s="147">
-        <v>1</v>
-      </c>
-      <c r="E30" s="126">
+      <c r="C30" s="156"/>
+      <c r="D30" s="152">
+        <v>1</v>
+      </c>
+      <c r="E30" s="127">
         <v>16949.099999999999</v>
       </c>
-      <c r="F30" s="126">
+      <c r="F30" s="127">
         <f t="shared" ref="F30" si="0">D30*E30</f>
         <v>16949.099999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A31" s="145"/>
-      <c r="B31" s="152" t="s">
+      <c r="A31" s="150"/>
+      <c r="B31" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
     </row>
     <row r="32" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A32" s="145"/>
-      <c r="B32" s="152" t="s">
+      <c r="A32" s="150"/>
+      <c r="B32" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="153"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A33" s="145"/>
-      <c r="B33" s="152" t="s">
+      <c r="A33" s="150"/>
+      <c r="B33" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="153"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A34" s="145"/>
-      <c r="B34" s="152" t="s">
+      <c r="A34" s="150"/>
+      <c r="B34" s="143" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="153"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
     </row>
     <row r="35" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A35" s="145"/>
-      <c r="B35" s="152" t="s">
+      <c r="A35" s="150"/>
+      <c r="B35" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="153"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
     </row>
     <row r="36" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A36" s="145"/>
-      <c r="B36" s="152" t="s">
+      <c r="A36" s="150"/>
+      <c r="B36" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="153"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
     </row>
     <row r="37" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A37" s="145"/>
-      <c r="B37" s="152" t="s">
+      <c r="A37" s="150"/>
+      <c r="B37" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="153"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
     </row>
     <row r="38" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="152" t="s">
+      <c r="A38" s="150"/>
+      <c r="B38" s="143" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="153"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A39" s="145"/>
-      <c r="B39" s="152" t="s">
+      <c r="A39" s="150"/>
+      <c r="B39" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="153"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
     </row>
     <row r="40" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A40" s="145"/>
-      <c r="B40" s="152" t="s">
+      <c r="A40" s="150"/>
+      <c r="B40" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="153"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
     </row>
     <row r="41" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A41" s="145"/>
-      <c r="B41" s="152" t="s">
+      <c r="A41" s="150"/>
+      <c r="B41" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="153"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A42" s="145"/>
-      <c r="B42" s="152" t="s">
+      <c r="A42" s="150"/>
+      <c r="B42" s="143" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="153"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A43" s="145"/>
-      <c r="B43" s="152" t="s">
+      <c r="A43" s="150"/>
+      <c r="B43" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="153"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A44" s="145"/>
-      <c r="B44" s="152" t="s">
+      <c r="A44" s="150"/>
+      <c r="B44" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="153"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A45" s="145"/>
-      <c r="B45" s="152" t="s">
+      <c r="A45" s="150"/>
+      <c r="B45" s="143" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="153"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A46" s="145"/>
-      <c r="B46" s="152" t="s">
+      <c r="A46" s="150"/>
+      <c r="B46" s="143" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="153"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A47" s="145"/>
-      <c r="B47" s="152" t="s">
+      <c r="A47" s="150"/>
+      <c r="B47" s="143" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="153"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A48" s="145"/>
-      <c r="B48" s="152" t="s">
+      <c r="A48" s="150"/>
+      <c r="B48" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="153"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A49" s="145"/>
-      <c r="B49" s="152" t="s">
+      <c r="A49" s="150"/>
+      <c r="B49" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="153"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A50" s="145"/>
-      <c r="B50" s="152" t="s">
+      <c r="A50" s="150"/>
+      <c r="B50" s="143" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="153"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A51" s="145"/>
-      <c r="B51" s="152" t="s">
+      <c r="A51" s="150"/>
+      <c r="B51" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="153"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A52" s="145"/>
-      <c r="B52" s="152" t="s">
+      <c r="A52" s="150"/>
+      <c r="B52" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A53" s="145"/>
-      <c r="B53" s="152" t="s">
+      <c r="A53" s="150"/>
+      <c r="B53" s="143" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="153"/>
-      <c r="D53" s="148"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A54" s="145"/>
-      <c r="B54" s="152" t="s">
+      <c r="A54" s="150"/>
+      <c r="B54" s="143" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="153"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A55" s="145"/>
-      <c r="B55" s="152" t="s">
+      <c r="A55" s="150"/>
+      <c r="B55" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="153"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A56" s="146"/>
-      <c r="B56" s="154" t="s">
+      <c r="A56" s="151"/>
+      <c r="B56" s="145" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="155"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="142"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
+      <c r="A57" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
       <c r="F57" s="106">
         <f>SUM(F30+F2)</f>
         <v>156779.61000000002</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
       <c r="F58" s="106">
         <f>F57*18%</f>
         <v>28220.329800000003</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
       <c r="F59" s="106">
         <f>F58+F57</f>
         <v>184999.93980000002</v>
@@ -10887,29 +10897,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="F30:F56"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A58:E58"/>
@@ -10926,6 +10913,29 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10991,39 +11001,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="105">
         <f>SUM(F2)</f>
         <v>24695</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="105">
         <f>F3*18%</f>
         <v>4445.0999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="105">
         <f>SUM(F3:F4)</f>
         <v>29140.1</v>
@@ -11043,11 +11053,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.2">
       <c r="A1" s="108" t="s">
@@ -11091,39 +11104,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="108">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="108">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="108">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -11135,6 +11148,65 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.2">
+      <c r="A1" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="86.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="3">
+        <v>372</v>
+      </c>
+      <c r="F2" s="3">
+        <f>15*372</f>
+        <v>5580</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11199,39 +11271,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="A3" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -11313,13 +11385,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -11327,13 +11399,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -11341,13 +11413,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -11416,36 +11488,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="A3" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="62" activeTab="68"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="69" activeTab="73"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,11 @@
     <sheet name="Namrata 313" sheetId="70" r:id="rId67"/>
     <sheet name="Namrata 314" sheetId="71" r:id="rId68"/>
     <sheet name="Flexible 315" sheetId="72" r:id="rId69"/>
+    <sheet name="Asha Enterprises 316" sheetId="73" r:id="rId70"/>
+    <sheet name="M R Steel 317" sheetId="74" r:id="rId71"/>
+    <sheet name="Parul Corporation 318" sheetId="75" r:id="rId72"/>
+    <sheet name="Om Packing &amp; Polymer 319" sheetId="76" r:id="rId73"/>
+    <sheet name="Plantex 320" sheetId="77" r:id="rId74"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -87,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="227">
   <si>
     <t>Sr. No</t>
   </si>
@@ -791,6 +796,18 @@
   </si>
   <si>
     <t>Water Bellow_BP60_Dia 125 mm_flexible</t>
+  </si>
+  <si>
+    <t>Rubber o ring 5mm thick 300mm od 290mm id</t>
+  </si>
+  <si>
+    <t>S S STUD 304 750mm long m12 (12mm thick) stud with Threading on both sides 55 mm with nuts and 2 washers</t>
+  </si>
+  <si>
+    <t>PP Sheet White Colour Top Plate OD 300 x  5mm THK</t>
+  </si>
+  <si>
+    <t>Acrylic Pipe clear transparent size 300mm x 5mm x 600mm</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1417,6 +1434,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1513,6 +1542,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1523,36 +1582,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2017,39 +2046,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="A6" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -2119,36 +2148,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
+      <c r="A3" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -2225,39 +2254,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -2340,39 +2369,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -2443,39 +2472,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2560,12 +2589,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="A4" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2631,36 +2660,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2734,39 +2763,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2838,39 +2867,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -3008,39 +3037,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="A6" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -3112,39 +3141,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -3220,39 +3249,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -3325,39 +3354,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -3430,39 +3459,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3531,48 +3560,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3614,48 +3643,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3728,48 +3757,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3929,39 +3958,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -4029,36 +4058,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -4197,39 +4226,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="A6" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -4295,36 +4324,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -4396,39 +4425,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4501,39 +4530,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4601,36 +4630,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4840,39 +4869,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
+      <c r="A9" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4944,39 +4973,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -5045,36 +5074,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -5142,35 +5171,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -5243,39 +5272,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -5348,39 +5377,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -5453,39 +5482,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5622,39 +5651,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="A6" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5808,39 +5837,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="A4" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5948,13 +5977,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -6030,13 +6059,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -6109,39 +6138,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6214,39 +6243,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6319,39 +6348,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -6417,48 +6446,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6524,48 +6553,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6637,39 +6666,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6744,39 +6773,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6850,39 +6879,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6953,39 +6982,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7059,39 +7088,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -7165,39 +7194,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7276,39 +7305,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -7371,13 +7400,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="121">
-        <v>1</v>
-      </c>
-      <c r="D2" s="121">
+      <c r="C2" s="125">
+        <v>1</v>
+      </c>
+      <c r="D2" s="125">
         <v>84050</v>
       </c>
-      <c r="E2" s="121">
+      <c r="E2" s="125">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -7389,9 +7418,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -7400,9 +7429,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -7411,9 +7440,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -7422,9 +7451,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -7433,9 +7462,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -7444,9 +7473,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -7455,9 +7484,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7466,63 +7495,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
+      <c r="A11" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7625,39 +7654,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="A4" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7733,39 +7762,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7852,36 +7881,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="A4" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7945,36 +7974,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
+      <c r="A13" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -8031,54 +8060,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="124" t="s">
+      <c r="H1" s="130"/>
+      <c r="I1" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="119" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="115"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -8213,112 +8242,112 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="124" t="s">
+      <c r="F16" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="125" t="s">
+      <c r="G16" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="124" t="s">
+      <c r="H16" s="130"/>
+      <c r="I16" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="124" t="s">
+      <c r="J16" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="115" t="s">
+      <c r="K16" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="115" t="s">
+      <c r="L16" s="119" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
@@ -8441,57 +8470,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="119"/>
+      <c r="A21" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="123"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="119"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="123"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="123"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8499,12 +8528,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K16:K17"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -8512,20 +8549,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8565,441 +8594,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="127">
+      <c r="A2" s="131">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="127">
-        <v>1</v>
-      </c>
-      <c r="D2" s="127">
+      <c r="C2" s="131">
+        <v>1</v>
+      </c>
+      <c r="D2" s="131">
         <v>150000</v>
       </c>
-      <c r="E2" s="127">
+      <c r="E2" s="131">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="128"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="128"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="128"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="128"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="128"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="128"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="128"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="128"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="128"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="128"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="128"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="128"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="128"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="128"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="128"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="128"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="128"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="128"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="128"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="128"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="128"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="128"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="128"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="128"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="128"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="128"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="128"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="128"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="128"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="128"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="128"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="128"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="128"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="128"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="128"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="128"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="128"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="128"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="129"/>
+      <c r="A41" s="133"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="130">
+      <c r="A42" s="134">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="130">
-        <v>1</v>
-      </c>
-      <c r="D42" s="130">
+      <c r="C42" s="134">
+        <v>1</v>
+      </c>
+      <c r="D42" s="134">
         <v>130000</v>
       </c>
-      <c r="E42" s="130">
+      <c r="E42" s="134">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="130"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="130"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
+      <c r="A45" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="114" t="s">
+      <c r="A47" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -9027,17 +9056,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E2:E41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="C2:C41"/>
     <mergeCell ref="D2:D41"/>
+    <mergeCell ref="E2:E41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9093,35 +9122,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -9192,39 +9221,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -9290,36 +9319,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -9398,39 +9427,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -9496,36 +9525,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9596,39 +9625,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="89">
         <f>SUM(F2:F2)</f>
         <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="89">
         <f>F3*18%</f>
         <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="89">
         <f>SUM(F3:F4)</f>
         <v>25960</v>
@@ -9763,39 +9792,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="A6" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="92">
         <f>SUM(F2:F5)</f>
         <v>174900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="92">
         <f>F6*18%</f>
         <v>31482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="92">
         <f>SUM(F6:F7)</f>
         <v>206382</v>
@@ -9866,39 +9895,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="93">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="93">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="93">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -9918,8 +9947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9952,23 +9981,23 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="132">
+      <c r="A2" s="136">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="133">
-        <v>1</v>
-      </c>
-      <c r="D2" s="134">
+      <c r="C2" s="137">
+        <v>1</v>
+      </c>
+      <c r="D2" s="138">
         <v>59088</v>
       </c>
-      <c r="E2" s="135">
+      <c r="E2" s="139">
         <f>D2*0.42</f>
         <v>24816.959999999999</v>
       </c>
-      <c r="F2" s="134">
+      <c r="F2" s="138">
         <f>C2*E2</f>
         <v>24816.959999999999</v>
       </c>
@@ -9982,83 +10011,83 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="132"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="134"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="138"/>
     </row>
     <row r="4" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A4" s="132"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="134"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="138"/>
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="132"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="134"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="138"/>
     </row>
     <row r="6" spans="1:10" ht="39.6">
-      <c r="A6" s="132"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="138"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A7" s="132"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="134"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="138"/>
     </row>
     <row r="8" spans="1:10" ht="66">
-      <c r="A8" s="132"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="134"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="9" spans="1:10" ht="66">
-      <c r="A9" s="132"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="134"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="138"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
+      <c r="A10" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="135"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2)</f>
@@ -10121,23 +10150,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="138">
+      <c r="A2" s="142">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="140">
-        <v>1</v>
-      </c>
-      <c r="D2" s="135">
+      <c r="C2" s="144">
+        <v>1</v>
+      </c>
+      <c r="D2" s="139">
         <v>66228</v>
       </c>
-      <c r="E2" s="135">
+      <c r="E2" s="139">
         <f>D2*0.42</f>
         <v>27815.759999999998</v>
       </c>
-      <c r="F2" s="135">
+      <c r="F2" s="139">
         <f>C2*E2</f>
         <v>27815.759999999998</v>
       </c>
@@ -10151,84 +10180,84 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="139"/>
+      <c r="A3" s="143"/>
       <c r="B3" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
       <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="35.4" customHeight="1">
-      <c r="A4" s="139"/>
+      <c r="A4" s="143"/>
       <c r="B4" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
     </row>
     <row r="5" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A5" s="139"/>
+      <c r="A5" s="143"/>
       <c r="B5" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
       <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A6" s="139"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A7" s="139"/>
+      <c r="A7" s="143"/>
       <c r="B7" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A8" s="139"/>
+      <c r="A8" s="143"/>
       <c r="B8" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
     </row>
     <row r="9" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A9" s="139"/>
+      <c r="A9" s="143"/>
       <c r="B9" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
+      <c r="A10" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="135"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2:F2)</f>
@@ -10289,293 +10318,293 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="127">
-        <v>1</v>
-      </c>
-      <c r="B2" s="130"/>
+      <c r="A2" s="131">
+        <v>1</v>
+      </c>
+      <c r="B2" s="134"/>
       <c r="C2" s="103" t="s">
         <v>171</v>
       </c>
       <c r="D2" s="148">
         <v>1</v>
       </c>
-      <c r="E2" s="130">
+      <c r="E2" s="134">
         <v>139830.51</v>
       </c>
-      <c r="F2" s="130">
+      <c r="F2" s="134">
         <f>D2*E2</f>
         <v>139830.51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6">
-      <c r="A3" s="128"/>
-      <c r="B3" s="130"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="104" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="148"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="128"/>
-      <c r="B4" s="130"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="104" t="s">
         <v>174</v>
       </c>
       <c r="D4" s="148"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="128"/>
-      <c r="B5" s="130"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="104" t="s">
         <v>175</v>
       </c>
       <c r="D5" s="148"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="128"/>
-      <c r="B6" s="130"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="104" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="148"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="1:6" ht="27.6">
-      <c r="A7" s="128"/>
-      <c r="B7" s="130"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="104" t="s">
         <v>176</v>
       </c>
       <c r="D7" s="148"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="128"/>
-      <c r="B8" s="130"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="107" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="148"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="1:6" ht="27.6">
-      <c r="A9" s="128"/>
-      <c r="B9" s="130"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="104" t="s">
         <v>178</v>
       </c>
       <c r="D9" s="148"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="128"/>
-      <c r="B10" s="130"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="104" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="148"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
     </row>
     <row r="11" spans="1:6" ht="27.6">
-      <c r="A11" s="128"/>
-      <c r="B11" s="130"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="104" t="s">
         <v>179</v>
       </c>
       <c r="D11" s="148"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="128"/>
-      <c r="B12" s="130"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="104" t="s">
         <v>180</v>
       </c>
       <c r="D12" s="148"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="128"/>
-      <c r="B13" s="130"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="104" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="148"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
     </row>
     <row r="14" spans="1:6" ht="27.6">
-      <c r="A14" s="128"/>
-      <c r="B14" s="130"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="104" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="148"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="128"/>
-      <c r="B15" s="130"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="104" t="s">
         <v>183</v>
       </c>
       <c r="D15" s="148"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="128"/>
-      <c r="B16" s="130"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="104" t="s">
         <v>184</v>
       </c>
       <c r="D16" s="148"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
     </row>
     <row r="17" spans="1:6" ht="27.6">
-      <c r="A17" s="128"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="104" t="s">
         <v>185</v>
       </c>
       <c r="D17" s="148"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="128"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="104" t="s">
         <v>186</v>
       </c>
       <c r="D18" s="148"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="128"/>
-      <c r="B19" s="130"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="104" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="148"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="128"/>
-      <c r="B20" s="130"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="104" t="s">
         <v>135</v>
       </c>
       <c r="D20" s="148"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="128"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="104" t="s">
         <v>187</v>
       </c>
       <c r="D21" s="148"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="128"/>
-      <c r="B22" s="130"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="104" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="148"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="128"/>
-      <c r="B23" s="130"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="104" t="s">
         <v>138</v>
       </c>
       <c r="D23" s="148"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="128"/>
-      <c r="B24" s="130"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="104" t="s">
         <v>189</v>
       </c>
       <c r="D24" s="148"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="128"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="104" t="s">
         <v>140</v>
       </c>
       <c r="D25" s="148"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="128"/>
-      <c r="B26" s="130"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
       <c r="D26" s="148"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="128"/>
-      <c r="B27" s="130"/>
+      <c r="A27" s="132"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="104" t="s">
         <v>218</v>
       </c>
       <c r="D27" s="148"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="128"/>
-      <c r="B28" s="130"/>
+      <c r="A28" s="132"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="104" t="s">
         <v>191</v>
       </c>
       <c r="D28" s="148"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="129"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="104" t="s">
         <v>192</v>
       </c>
       <c r="D29" s="148"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
     </row>
     <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1">
       <c r="A30" s="149">
@@ -10588,308 +10617,308 @@
       <c r="D30" s="152">
         <v>1</v>
       </c>
-      <c r="E30" s="127">
+      <c r="E30" s="131">
         <v>16949.099999999999</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="131">
         <f t="shared" ref="F30" si="0">D30*E30</f>
         <v>16949.099999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" customHeight="1">
       <c r="A31" s="150"/>
-      <c r="B31" s="143" t="s">
+      <c r="B31" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="144"/>
+      <c r="C31" s="158"/>
       <c r="D31" s="153"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
     </row>
     <row r="32" spans="1:6" ht="14.4" customHeight="1">
       <c r="A32" s="150"/>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="144"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="153"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1">
       <c r="A33" s="150"/>
-      <c r="B33" s="143" t="s">
+      <c r="B33" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="144"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="153"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" customHeight="1">
       <c r="A34" s="150"/>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="144"/>
+      <c r="C34" s="158"/>
       <c r="D34" s="153"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
     </row>
     <row r="35" spans="1:6" ht="14.4" customHeight="1">
       <c r="A35" s="150"/>
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="144"/>
+      <c r="C35" s="158"/>
       <c r="D35" s="153"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
     </row>
     <row r="36" spans="1:6" ht="14.4" customHeight="1">
       <c r="A36" s="150"/>
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="144"/>
+      <c r="C36" s="158"/>
       <c r="D36" s="153"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
     </row>
     <row r="37" spans="1:6" ht="14.4" customHeight="1">
       <c r="A37" s="150"/>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="144"/>
+      <c r="C37" s="158"/>
       <c r="D37" s="153"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
     </row>
     <row r="38" spans="1:6" ht="14.4" customHeight="1">
       <c r="A38" s="150"/>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="157" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="144"/>
+      <c r="C38" s="158"/>
       <c r="D38" s="153"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1">
       <c r="A39" s="150"/>
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="144"/>
+      <c r="C39" s="158"/>
       <c r="D39" s="153"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
     </row>
     <row r="40" spans="1:6" ht="14.4" customHeight="1">
       <c r="A40" s="150"/>
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="144"/>
+      <c r="C40" s="158"/>
       <c r="D40" s="153"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
     </row>
     <row r="41" spans="1:6" ht="14.4" customHeight="1">
       <c r="A41" s="150"/>
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="157" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="144"/>
+      <c r="C41" s="158"/>
       <c r="D41" s="153"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1">
       <c r="A42" s="150"/>
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="144"/>
+      <c r="C42" s="158"/>
       <c r="D42" s="153"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1">
       <c r="A43" s="150"/>
-      <c r="B43" s="143" t="s">
+      <c r="B43" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="144"/>
+      <c r="C43" s="158"/>
       <c r="D43" s="153"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1">
       <c r="A44" s="150"/>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="158"/>
       <c r="D44" s="153"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1">
       <c r="A45" s="150"/>
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="144"/>
+      <c r="C45" s="158"/>
       <c r="D45" s="153"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1">
       <c r="A46" s="150"/>
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="157" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="144"/>
+      <c r="C46" s="158"/>
       <c r="D46" s="153"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1">
       <c r="A47" s="150"/>
-      <c r="B47" s="143" t="s">
+      <c r="B47" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="144"/>
+      <c r="C47" s="158"/>
       <c r="D47" s="153"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" customHeight="1">
       <c r="A48" s="150"/>
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="157" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="144"/>
+      <c r="C48" s="158"/>
       <c r="D48" s="153"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1">
       <c r="A49" s="150"/>
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="144"/>
+      <c r="C49" s="158"/>
       <c r="D49" s="153"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1">
       <c r="A50" s="150"/>
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="157" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="144"/>
+      <c r="C50" s="158"/>
       <c r="D50" s="153"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1">
       <c r="A51" s="150"/>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="144"/>
+      <c r="C51" s="158"/>
       <c r="D51" s="153"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
     </row>
     <row r="52" spans="1:6" ht="14.4" customHeight="1">
       <c r="A52" s="150"/>
-      <c r="B52" s="143" t="s">
+      <c r="B52" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="144"/>
+      <c r="C52" s="158"/>
       <c r="D52" s="153"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
     </row>
     <row r="53" spans="1:6" ht="14.4" customHeight="1">
       <c r="A53" s="150"/>
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="157" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="144"/>
+      <c r="C53" s="158"/>
       <c r="D53" s="153"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1">
       <c r="A54" s="150"/>
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="157" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="144"/>
+      <c r="C54" s="158"/>
       <c r="D54" s="153"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1">
       <c r="A55" s="150"/>
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="157" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="144"/>
+      <c r="C55" s="158"/>
       <c r="D55" s="153"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1">
       <c r="A56" s="151"/>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="146"/>
+      <c r="C56" s="160"/>
       <c r="D56" s="154"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="114" t="s">
+      <c r="A57" s="118" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="147"/>
       <c r="C57" s="147"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="106">
         <f>SUM(F30+F2)</f>
         <v>156779.61000000002</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="114" t="s">
+      <c r="A58" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
       <c r="F58" s="106">
         <f>F57*18%</f>
         <v>28220.329800000003</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="114" t="s">
+      <c r="A59" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
       <c r="F59" s="106">
         <f>F58+F57</f>
         <v>184999.93980000002</v>
@@ -10897,6 +10926,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="F30:F56"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A58:E58"/>
@@ -10913,29 +10965,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11001,39 +11030,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="105">
         <f>SUM(F2)</f>
         <v>24695</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="105">
         <f>F3*18%</f>
         <v>4445.0999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="105">
         <f>SUM(F3:F4)</f>
         <v>29140.1</v>
@@ -11062,7 +11091,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
@@ -11082,7 +11111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72">
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11104,39 +11133,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="108">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="108">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="108">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -11156,8 +11185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11165,7 +11194,7 @@
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="109" t="s">
         <v>14</v>
       </c>
@@ -11185,7 +11214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.4">
+    <row r="2" spans="1:6" ht="57.6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11271,39 +11300,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -11314,6 +11343,546 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="32.4" customHeight="1">
+      <c r="A1" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.6" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>210</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="110">
+        <f>SUM(E2:E2)</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="110">
+        <f>E3*18%</f>
+        <v>453.59999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="110">
+        <f>SUM(E3:E4)</f>
+        <v>2973.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8">
+      <c r="A1" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.6" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="3">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3">
+        <v>250</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="110">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="110">
+        <f>E3*18%</f>
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="110">
+        <f>SUM(E3:E4)</f>
+        <v>7316</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8">
+      <c r="A1" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2225</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="110">
+        <f>SUM(E2:E2)</f>
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="110">
+        <f>E3*18%</f>
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="110">
+        <f>SUM(E3:E4)</f>
+        <v>15753</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A1" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1695</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="110">
+        <f>SUM(E2:E2)</f>
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="110">
+        <f>E3*18%</f>
+        <v>3661.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="110">
+        <f>SUM(E3:E4)</f>
+        <v>24001.200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="59.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.4">
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A2" s="136">
+        <v>1</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="137">
+        <v>1</v>
+      </c>
+      <c r="D2" s="138">
+        <v>55250</v>
+      </c>
+      <c r="E2" s="139">
+        <v>23205</v>
+      </c>
+      <c r="F2" s="138">
+        <f>C2*E2</f>
+        <v>23205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="52.8">
+      <c r="A3" s="136"/>
+      <c r="B3" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="138"/>
+    </row>
+    <row r="4" spans="1:11" ht="39.6">
+      <c r="A4" s="136"/>
+      <c r="B4" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="138"/>
+    </row>
+    <row r="5" spans="1:11" ht="39.6">
+      <c r="A5" s="136"/>
+      <c r="B5" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="138"/>
+    </row>
+    <row r="6" spans="1:11" ht="39.6">
+      <c r="A6" s="136"/>
+      <c r="B6" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="138"/>
+    </row>
+    <row r="7" spans="1:11" ht="66">
+      <c r="A7" s="136"/>
+      <c r="B7" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="138"/>
+      <c r="K7" s="7">
+        <f>55250*58%</f>
+        <v>32044.999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="66">
+      <c r="A8" s="136"/>
+      <c r="B8" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="138"/>
+      <c r="K8" s="7">
+        <f>55250-K7</f>
+        <v>23205.000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="66">
+      <c r="A9" s="136"/>
+      <c r="B9" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="138"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="135"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111">
+        <f>SUM(F2)</f>
+        <v>23205</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11385,13 +11954,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -11399,13 +11968,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -11413,13 +11982,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -11488,36 +12057,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="69" activeTab="73"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="70" activeTab="74"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,7 @@
     <sheet name="Parul Corporation 318" sheetId="75" r:id="rId72"/>
     <sheet name="Om Packing &amp; Polymer 319" sheetId="76" r:id="rId73"/>
     <sheet name="Plantex 320" sheetId="77" r:id="rId74"/>
+    <sheet name="Multi Bath 321" sheetId="78" r:id="rId75"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="228">
   <si>
     <t>Sr. No</t>
   </si>
@@ -804,10 +805,13 @@
     <t>S S STUD 304 750mm long m12 (12mm thick) stud with Threading on both sides 55 mm with nuts and 2 washers</t>
   </si>
   <si>
-    <t>PP Sheet White Colour Top Plate OD 300 x  5mm THK</t>
-  </si>
-  <si>
     <t>Acrylic Pipe clear transparent size 300mm x 5mm x 600mm</t>
+  </si>
+  <si>
+    <t>PP Sheet White Colour Top Plate OD 350 x  25mm THK</t>
+  </si>
+  <si>
+    <t>If required Installation  engineer / personal will have to come to the site an dcomplete the process at no extra cost</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1443,6 +1447,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,6 +1593,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1634,6 +1647,49 @@
         <a:xfrm>
           <a:off x="475149" y="594361"/>
           <a:ext cx="1993731" cy="1729739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139870</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1385385</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749470" y="685800"/>
+          <a:ext cx="1245515" cy="6278880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2046,39 +2102,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -2148,36 +2204,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -2254,39 +2310,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -2369,39 +2425,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -2472,39 +2528,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2589,12 +2645,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2660,36 +2716,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2763,39 +2819,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2867,39 +2923,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -3037,39 +3093,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -3141,39 +3197,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -3249,39 +3305,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -3354,39 +3410,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -3459,39 +3515,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3560,48 +3616,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3643,48 +3699,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3757,48 +3813,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3958,39 +4014,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -4058,36 +4114,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -4226,39 +4282,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -4324,36 +4380,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -4425,39 +4481,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4530,39 +4586,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4630,36 +4686,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4869,39 +4925,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4973,39 +5029,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -5074,36 +5130,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -5171,35 +5227,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -5272,39 +5328,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -5377,39 +5433,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -5482,39 +5538,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5651,39 +5707,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5837,39 +5893,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5977,13 +6033,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -6059,13 +6115,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -6138,39 +6194,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6243,39 +6299,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6348,39 +6404,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -6446,48 +6502,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6553,48 +6609,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6666,39 +6722,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6773,39 +6829,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6879,39 +6935,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -6982,39 +7038,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7088,39 +7144,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -7194,39 +7250,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7305,39 +7361,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -7400,13 +7456,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="125">
-        <v>1</v>
-      </c>
-      <c r="D2" s="125">
+      <c r="C2" s="127">
+        <v>1</v>
+      </c>
+      <c r="D2" s="127">
         <v>84050</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2" s="127">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -7418,9 +7474,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -7429,9 +7485,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -7440,9 +7496,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -7451,9 +7507,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -7462,9 +7518,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -7473,9 +7529,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -7484,9 +7540,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7495,63 +7551,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7654,39 +7710,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7762,39 +7818,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7881,36 +7937,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -7974,36 +8030,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -8060,54 +8116,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="130"/>
-      <c r="I1" s="128" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="121" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="119"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -8242,112 +8298,112 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="128" t="s">
+      <c r="E16" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="128" t="s">
+      <c r="F16" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="G16" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="130"/>
-      <c r="I16" s="128" t="s">
+      <c r="H16" s="132"/>
+      <c r="I16" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="128" t="s">
+      <c r="J16" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="119" t="s">
+      <c r="K16" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="119" t="s">
+      <c r="L16" s="121" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
@@ -8470,57 +8526,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="123"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="125"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="123"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="123"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="125"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8594,441 +8650,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="131">
+      <c r="A2" s="133">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="131">
-        <v>1</v>
-      </c>
-      <c r="D2" s="131">
+      <c r="C2" s="133">
+        <v>1</v>
+      </c>
+      <c r="D2" s="133">
         <v>150000</v>
       </c>
-      <c r="E2" s="131">
+      <c r="E2" s="133">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="132"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="132"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="132"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="133"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="134">
+      <c r="A42" s="136">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="134">
-        <v>1</v>
-      </c>
-      <c r="D42" s="134">
+      <c r="C42" s="136">
+        <v>1</v>
+      </c>
+      <c r="D42" s="136">
         <v>130000</v>
       </c>
-      <c r="E42" s="134">
+      <c r="E42" s="136">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="134"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="134"/>
+      <c r="A44" s="136"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="118" t="s">
+      <c r="A47" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -9122,35 +9178,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -9221,39 +9277,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -9319,36 +9375,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -9427,39 +9483,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -9525,36 +9581,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9625,39 +9681,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="89">
         <f>SUM(F2:F2)</f>
         <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="89">
         <f>F3*18%</f>
         <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="89">
         <f>SUM(F3:F4)</f>
         <v>25960</v>
@@ -9792,39 +9848,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="92">
         <f>SUM(F2:F5)</f>
         <v>174900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="92">
         <f>F6*18%</f>
         <v>31482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="92">
         <f>SUM(F6:F7)</f>
         <v>206382</v>
@@ -9895,39 +9951,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="93">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="93">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="93">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -9981,23 +10037,23 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="136">
+      <c r="A2" s="138">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="137">
-        <v>1</v>
-      </c>
-      <c r="D2" s="138">
+      <c r="C2" s="139">
+        <v>1</v>
+      </c>
+      <c r="D2" s="140">
         <v>59088</v>
       </c>
-      <c r="E2" s="139">
+      <c r="E2" s="141">
         <f>D2*0.42</f>
         <v>24816.959999999999</v>
       </c>
-      <c r="F2" s="138">
+      <c r="F2" s="140">
         <f>C2*E2</f>
         <v>24816.959999999999</v>
       </c>
@@ -10011,83 +10067,83 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="136"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="140"/>
     </row>
     <row r="4" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="140"/>
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="136"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="140"/>
     </row>
     <row r="6" spans="1:10" ht="39.6">
-      <c r="A6" s="136"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A7" s="136"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:10" ht="66">
-      <c r="A8" s="136"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="138"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="140"/>
     </row>
     <row r="9" spans="1:10" ht="66">
-      <c r="A9" s="136"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="138"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="140"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2)</f>
@@ -10150,23 +10206,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="142">
+      <c r="A2" s="144">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="144">
-        <v>1</v>
-      </c>
-      <c r="D2" s="139">
+      <c r="C2" s="146">
+        <v>1</v>
+      </c>
+      <c r="D2" s="141">
         <v>66228</v>
       </c>
-      <c r="E2" s="139">
+      <c r="E2" s="141">
         <f>D2*0.42</f>
         <v>27815.759999999998</v>
       </c>
-      <c r="F2" s="139">
+      <c r="F2" s="141">
         <f>C2*E2</f>
         <v>27815.759999999998</v>
       </c>
@@ -10180,84 +10236,84 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="143"/>
+      <c r="A3" s="145"/>
       <c r="B3" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
       <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="35.4" customHeight="1">
-      <c r="A4" s="143"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
     </row>
     <row r="5" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A5" s="143"/>
+      <c r="A5" s="145"/>
       <c r="B5" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
       <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A6" s="143"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A7" s="143"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A8" s="143"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
     </row>
     <row r="9" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A9" s="143"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2:F2)</f>
@@ -10283,7 +10339,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10318,607 +10374,607 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="131">
-        <v>1</v>
-      </c>
-      <c r="B2" s="134"/>
+      <c r="A2" s="133">
+        <v>1</v>
+      </c>
+      <c r="B2" s="136"/>
       <c r="C2" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="148">
-        <v>1</v>
-      </c>
-      <c r="E2" s="134">
+      <c r="D2" s="150">
+        <v>1</v>
+      </c>
+      <c r="E2" s="136">
         <v>139830.51</v>
       </c>
-      <c r="F2" s="134">
+      <c r="F2" s="136">
         <f>D2*E2</f>
         <v>139830.51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6">
-      <c r="A3" s="132"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="132"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="132"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="132"/>
-      <c r="B6" s="134"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:6" ht="27.6">
-      <c r="A7" s="132"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="132"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:6" ht="27.6">
-      <c r="A9" s="132"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="132"/>
-      <c r="B10" s="134"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="1:6" ht="27.6">
-      <c r="A11" s="132"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="132"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="132"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="27.6">
-      <c r="A14" s="132"/>
-      <c r="B14" s="134"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="132"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="132"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:6" ht="27.6">
-      <c r="A17" s="132"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="132"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="132"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="148"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="132"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="132"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="132"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="148"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="132"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="148"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="132"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="148"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="132"/>
-      <c r="B25" s="134"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="132"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="148"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="132"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="132"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="148"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
     </row>
     <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A30" s="149">
+      <c r="A30" s="151">
         <v>2</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="156"/>
-      <c r="D30" s="152">
-        <v>1</v>
-      </c>
-      <c r="E30" s="131">
+      <c r="C30" s="158"/>
+      <c r="D30" s="154">
+        <v>1</v>
+      </c>
+      <c r="E30" s="133">
         <v>16949.099999999999</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="133">
         <f t="shared" ref="F30" si="0">D30*E30</f>
         <v>16949.099999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A31" s="150"/>
-      <c r="B31" s="157" t="s">
+      <c r="A31" s="152"/>
+      <c r="B31" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="158"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
     </row>
     <row r="32" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A32" s="150"/>
-      <c r="B32" s="157" t="s">
+      <c r="A32" s="152"/>
+      <c r="B32" s="159" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A33" s="150"/>
-      <c r="B33" s="157" t="s">
+      <c r="A33" s="152"/>
+      <c r="B33" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="158"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A34" s="150"/>
-      <c r="B34" s="157" t="s">
+      <c r="A34" s="152"/>
+      <c r="B34" s="159" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
     </row>
     <row r="35" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A35" s="150"/>
-      <c r="B35" s="157" t="s">
+      <c r="A35" s="152"/>
+      <c r="B35" s="159" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
     </row>
     <row r="36" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A36" s="150"/>
-      <c r="B36" s="157" t="s">
+      <c r="A36" s="152"/>
+      <c r="B36" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="158"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
     </row>
     <row r="37" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A37" s="150"/>
-      <c r="B37" s="157" t="s">
+      <c r="A37" s="152"/>
+      <c r="B37" s="159" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="158"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
     </row>
     <row r="38" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A38" s="150"/>
-      <c r="B38" s="157" t="s">
+      <c r="A38" s="152"/>
+      <c r="B38" s="159" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="158"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A39" s="150"/>
-      <c r="B39" s="157" t="s">
+      <c r="A39" s="152"/>
+      <c r="B39" s="159" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="158"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
     </row>
     <row r="40" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A40" s="150"/>
-      <c r="B40" s="157" t="s">
+      <c r="A40" s="152"/>
+      <c r="B40" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="158"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
     </row>
     <row r="41" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A41" s="150"/>
-      <c r="B41" s="157" t="s">
+      <c r="A41" s="152"/>
+      <c r="B41" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="158"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A42" s="150"/>
-      <c r="B42" s="157" t="s">
+      <c r="A42" s="152"/>
+      <c r="B42" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="158"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A43" s="150"/>
-      <c r="B43" s="157" t="s">
+      <c r="A43" s="152"/>
+      <c r="B43" s="159" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="158"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A44" s="150"/>
-      <c r="B44" s="157" t="s">
+      <c r="A44" s="152"/>
+      <c r="B44" s="159" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="158"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A45" s="150"/>
-      <c r="B45" s="157" t="s">
+      <c r="A45" s="152"/>
+      <c r="B45" s="159" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="158"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A46" s="150"/>
-      <c r="B46" s="157" t="s">
+      <c r="A46" s="152"/>
+      <c r="B46" s="159" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="158"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A47" s="150"/>
-      <c r="B47" s="157" t="s">
+      <c r="A47" s="152"/>
+      <c r="B47" s="159" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="158"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A48" s="150"/>
-      <c r="B48" s="157" t="s">
+      <c r="A48" s="152"/>
+      <c r="B48" s="159" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="158"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A49" s="150"/>
-      <c r="B49" s="157" t="s">
+      <c r="A49" s="152"/>
+      <c r="B49" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="158"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A50" s="150"/>
-      <c r="B50" s="157" t="s">
+      <c r="A50" s="152"/>
+      <c r="B50" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="158"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A51" s="150"/>
-      <c r="B51" s="157" t="s">
+      <c r="A51" s="152"/>
+      <c r="B51" s="159" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="158"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
     </row>
     <row r="52" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A52" s="150"/>
-      <c r="B52" s="157" t="s">
+      <c r="A52" s="152"/>
+      <c r="B52" s="159" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="158"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
     </row>
     <row r="53" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A53" s="150"/>
-      <c r="B53" s="157" t="s">
+      <c r="A53" s="152"/>
+      <c r="B53" s="159" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="158"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A54" s="150"/>
-      <c r="B54" s="157" t="s">
+      <c r="A54" s="152"/>
+      <c r="B54" s="159" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="158"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A55" s="150"/>
-      <c r="B55" s="157" t="s">
+      <c r="A55" s="152"/>
+      <c r="B55" s="159" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="158"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="132"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A56" s="151"/>
-      <c r="B56" s="159" t="s">
+      <c r="A56" s="153"/>
+      <c r="B56" s="161" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="160"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="118" t="s">
+      <c r="A57" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="147"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
       <c r="F57" s="106">
         <f>SUM(F30+F2)</f>
         <v>156779.61000000002</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="118" t="s">
+      <c r="A58" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="106">
         <f>F57*18%</f>
         <v>28220.329800000003</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
       <c r="F59" s="106">
         <f>F58+F57</f>
         <v>184999.93980000002</v>
@@ -11030,39 +11086,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="105">
         <f>SUM(F2)</f>
         <v>24695</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="105">
         <f>F3*18%</f>
         <v>4445.0999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="105">
         <f>SUM(F3:F4)</f>
         <v>29140.1</v>
@@ -11133,39 +11189,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="108">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="108">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="108">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -11300,39 +11356,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -11353,7 +11409,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11398,36 +11454,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="110">
         <f>SUM(E2:E2)</f>
         <v>2520</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="110">
         <f>E3*18%</f>
         <v>453.59999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="110">
         <f>SUM(E3:E4)</f>
         <v>2973.6</v>
@@ -11493,35 +11549,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="110">
         <v>6200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="110">
         <f>E3*18%</f>
         <v>1116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="110">
         <f>SUM(E3:E4)</f>
         <v>7316</v>
@@ -11572,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3">
         <v>6</v>
@@ -11586,36 +11642,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="110">
         <f>SUM(E2:E2)</f>
         <v>13350</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="110">
         <f>E3*18%</f>
         <v>2403</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="110">
         <f>SUM(E3:E4)</f>
         <v>15753</v>
@@ -11636,7 +11692,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11668,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="3">
         <v>12</v>
@@ -11682,36 +11738,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="110">
         <f>SUM(E2:E2)</f>
         <v>20340</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="110">
         <f>E3*18%</f>
         <v>3661.2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="110">
         <f>SUM(E3:E4)</f>
         <v>24001.200000000001</v>
@@ -11731,7 +11787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -11764,111 +11820,111 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A2" s="136">
+      <c r="A2" s="138">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="137">
-        <v>1</v>
-      </c>
-      <c r="D2" s="138">
+      <c r="C2" s="139">
+        <v>1</v>
+      </c>
+      <c r="D2" s="140">
         <v>55250</v>
       </c>
-      <c r="E2" s="139">
+      <c r="E2" s="141">
         <v>23205</v>
       </c>
-      <c r="F2" s="138">
+      <c r="F2" s="140">
         <f>C2*E2</f>
         <v>23205</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="52.8">
-      <c r="A3" s="136"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="140"/>
     </row>
     <row r="4" spans="1:11" ht="39.6">
-      <c r="A4" s="136"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="140"/>
     </row>
     <row r="5" spans="1:11" ht="39.6">
-      <c r="A5" s="136"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="140"/>
     </row>
     <row r="6" spans="1:11" ht="39.6">
-      <c r="A6" s="136"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:11" ht="66">
-      <c r="A7" s="136"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="140"/>
       <c r="K7" s="7">
         <f>55250*58%</f>
         <v>32044.999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="66">
-      <c r="A8" s="136"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="138"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="140"/>
       <c r="K8" s="7">
         <f>55250-K7</f>
         <v>23205.000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="66">
-      <c r="A9" s="136"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="138"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="140"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="111"/>
       <c r="F10" s="111">
         <f>SUM(F2)</f>
@@ -11877,14 +11933,718 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="25.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" style="7" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="9" width="10.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="7"/>
+    <col min="11" max="12" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.6">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="133">
+        <v>1</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="150">
+        <v>1</v>
+      </c>
+      <c r="E2" s="136">
+        <v>144067</v>
+      </c>
+      <c r="F2" s="136">
+        <f>D2*E2</f>
+        <v>144067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6">
+      <c r="A3" s="134"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="150"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="134"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="150"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="134"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="134"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="150"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.6">
+      <c r="A7" s="134"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="134"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+    </row>
+    <row r="9" spans="1:6" ht="27.6">
+      <c r="A9" s="134"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="150"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="134"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="150"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+    </row>
+    <row r="11" spans="1:6" ht="27.6">
+      <c r="A11" s="134"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="150"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="134"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="150"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="134"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="150"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+    </row>
+    <row r="14" spans="1:6" ht="27.6">
+      <c r="A14" s="134"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="150"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="134"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="150"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="134"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="150"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.6">
+      <c r="A17" s="134"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="134"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="134"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="134"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="150"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="134"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="150"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="134"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="150"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="134"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="150"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="134"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="150"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="134"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="150"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="134"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="150"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="134"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="150"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="134"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="150"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="135"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="150"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="151">
+        <v>2</v>
+      </c>
+      <c r="B30" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="158"/>
+      <c r="D30" s="154">
+        <v>1</v>
+      </c>
+      <c r="E30" s="133">
+        <v>16949.099999999999</v>
+      </c>
+      <c r="F30" s="133">
+        <f t="shared" ref="F30" si="0">D30*E30</f>
+        <v>16949.099999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="152"/>
+      <c r="B31" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="160"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="152"/>
+      <c r="B32" s="159" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="152"/>
+      <c r="B33" s="159" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="160"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="152"/>
+      <c r="B34" s="159" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="160"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="152"/>
+      <c r="B35" s="159" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="160"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="152"/>
+      <c r="B36" s="159" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="160"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="152"/>
+      <c r="B37" s="159" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="160"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="152"/>
+      <c r="B38" s="159" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="160"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="152"/>
+      <c r="B39" s="159" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="160"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="152"/>
+      <c r="B40" s="159" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="160"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="152"/>
+      <c r="B41" s="159" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="160"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="152"/>
+      <c r="B42" s="159" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="160"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="152"/>
+      <c r="B43" s="159" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="160"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="152"/>
+      <c r="B44" s="159" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="160"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="152"/>
+      <c r="B45" s="159" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="160"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="152"/>
+      <c r="B46" s="159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="160"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="152"/>
+      <c r="B47" s="159" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="160"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="152"/>
+      <c r="B48" s="159" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="160"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="152"/>
+      <c r="B49" s="159" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="160"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="152"/>
+      <c r="B50" s="159" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="160"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="152"/>
+      <c r="B51" s="159" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="160"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="152"/>
+      <c r="B52" s="159" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="160"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="152"/>
+      <c r="B53" s="159" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="160"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="152"/>
+      <c r="B54" s="159" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="160"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="152"/>
+      <c r="B55" s="159" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="160"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="153"/>
+      <c r="B56" s="161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="162"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="K56" s="74">
+        <v>189999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="149"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="114">
+        <f>F30+F2</f>
+        <v>161016.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="114">
+        <f>F57*18%</f>
+        <v>28982.898000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="114">
+        <f>SUM(F57:F58)</f>
+        <v>189998.99800000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="163" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="D2:D29"/>
+    <mergeCell ref="E2:E29"/>
+    <mergeCell ref="F2:F29"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:D56"/>
+    <mergeCell ref="E30:E56"/>
+    <mergeCell ref="F30:F56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11954,13 +12714,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -11968,13 +12728,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -11982,13 +12742,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -12057,36 +12817,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO.xlsx
+++ b/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="70" activeTab="74"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="73" activeTab="78"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -82,6 +82,10 @@
     <sheet name="Om Packing &amp; Polymer 319" sheetId="76" r:id="rId73"/>
     <sheet name="Plantex 320" sheetId="77" r:id="rId74"/>
     <sheet name="Multi Bath 321" sheetId="78" r:id="rId75"/>
+    <sheet name="Collective 322" sheetId="79" r:id="rId76"/>
+    <sheet name="Tuflex Roofings 323" sheetId="80" r:id="rId77"/>
+    <sheet name="Namrata 324" sheetId="81" r:id="rId78"/>
+    <sheet name="Namrata 325" sheetId="82" r:id="rId79"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -93,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="231">
   <si>
     <t>Sr. No</t>
   </si>
@@ -812,6 +816,15 @@
   </si>
   <si>
     <t>If required Installation  engineer / personal will have to come to the site an dcomplete the process at no extra cost</t>
+  </si>
+  <si>
+    <t>Aluminium Extruded Sectins (12 feet) Top - Bottom with Rubber</t>
+  </si>
+  <si>
+    <t>10 mm Thick Polycarbonate Sheet Sabic Lexan 2 side UV MT5210 IBM 1220 X 11800 (Bronze)</t>
+  </si>
+  <si>
+    <t>Packing and Forwadring Charges</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1456,146 +1469,170 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2102,39 +2139,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="A6" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -2204,36 +2241,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
+      <c r="A3" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -2310,39 +2347,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -2425,39 +2462,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -2528,39 +2565,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -2645,12 +2682,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
+      <c r="A4" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -2716,36 +2753,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -2819,39 +2856,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -2923,39 +2960,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -3093,39 +3130,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="A6" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -3197,39 +3234,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -3305,39 +3342,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -3410,39 +3447,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -3515,39 +3552,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -3616,48 +3653,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -3699,48 +3736,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -3813,48 +3850,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -4014,39 +4051,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="A7" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -4114,36 +4151,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -4282,39 +4319,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="A6" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -4380,36 +4417,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -4481,39 +4518,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -4586,39 +4623,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -4686,36 +4723,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -4925,39 +4962,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
+      <c r="A9" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -5029,39 +5066,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -5130,36 +5167,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -5227,35 +5264,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -5328,39 +5365,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -5433,39 +5470,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -5538,39 +5575,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -5707,39 +5744,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="A6" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -5893,39 +5930,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+      <c r="A4" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -6033,13 +6070,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -6115,13 +6152,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -6194,39 +6231,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6299,39 +6336,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6404,39 +6441,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -6502,48 +6539,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -6609,48 +6646,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -6722,39 +6759,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -6829,39 +6866,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
@@ -6935,39 +6972,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="68">
         <f>SUM(F2)</f>
         <v>20750</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="68">
         <f>F3*18%</f>
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="68">
         <f>SUM(F3:F4)</f>
         <v>24485</v>
@@ -7038,39 +7075,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="69">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="69">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="69">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7144,39 +7181,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="70">
         <f>SUM(F2)</f>
         <v>8136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="70">
         <f>F3*18%</f>
         <v>1464.48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="70">
         <f>SUM(F3:F4)</f>
         <v>9600.48</v>
@@ -7250,39 +7287,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7361,39 +7398,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="71">
         <f>SUM(F2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="71">
         <f>F3*18%</f>
         <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="71">
         <f>SUM(F3:F4)</f>
         <v>28320</v>
@@ -7456,13 +7493,13 @@
       <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="127">
-        <v>1</v>
-      </c>
-      <c r="D2" s="127">
+      <c r="C2" s="133">
+        <v>1</v>
+      </c>
+      <c r="D2" s="133">
         <v>84050</v>
       </c>
-      <c r="E2" s="127">
+      <c r="E2" s="133">
         <f t="shared" ref="E2" si="0">C2*D2</f>
         <v>84050</v>
       </c>
@@ -7474,9 +7511,9 @@
       <c r="B3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -7485,9 +7522,9 @@
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -7496,9 +7533,9 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -7507,9 +7544,9 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -7518,9 +7555,9 @@
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -7529,9 +7566,9 @@
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3">
@@ -7540,9 +7577,9 @@
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -7551,63 +7588,63 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
+      <c r="A11" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="72">
         <f>SUM(E2:E3)</f>
         <v>84050</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="72">
         <v>40344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="72">
         <v>43706</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="72">
         <f>E13*18%</f>
         <v>7867.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="72">
         <f>SUM(E13:E14)</f>
         <v>51573.08</v>
@@ -7710,39 +7747,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="A4" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="73">
         <f>SUM(F2:F3)</f>
         <v>155400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="73">
         <f>F4*18%</f>
         <v>27972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="73">
         <f>SUM(F4:F5)</f>
         <v>183372</v>
@@ -7818,39 +7855,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="78">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="78">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="78">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -7937,36 +7974,36 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="A4" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="79">
         <f>SUM(E2:E3)</f>
         <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="79">
         <f>E4*18%</f>
         <v>273.77999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="79">
         <f>SUM(E4:E5)</f>
         <v>1794.78</v>
@@ -8030,36 +8067,36 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="80">
         <f>SUM(E11:E12)</f>
         <v>2491.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="80">
         <f>E13*18%</f>
         <v>448.49879999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>2940.1587999999997</v>
@@ -8116,54 +8153,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="136" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="130" t="s">
+      <c r="H1" s="138"/>
+      <c r="I1" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="127" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
       <c r="G2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="121"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:15" ht="82.2" customHeight="1">
       <c r="A3" s="14">
@@ -8298,112 +8335,112 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A6" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
+      <c r="A6" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
       <c r="K6" s="88">
         <f>SUM(K3:K5)</f>
         <v>244102.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
       <c r="K7" s="88">
         <f>K6*18%</f>
         <v>43938.45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="88">
         <f>SUM(K6:K7)</f>
         <v>288040.95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="136" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="131" t="s">
+      <c r="G16" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="130" t="s">
+      <c r="H16" s="138"/>
+      <c r="I16" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="130" t="s">
+      <c r="J16" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="121" t="s">
+      <c r="K16" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="121" t="s">
+      <c r="L16" s="127" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="90" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
     </row>
     <row r="18" spans="1:12" ht="79.2">
       <c r="A18" s="14">
@@ -8526,57 +8563,57 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
+      <c r="A21" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
       <c r="L21" s="88">
         <f>SUM(L18:L20)</f>
         <v>244102.6005</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
       <c r="L22" s="88">
         <f>L21*18%</f>
         <v>43938.468089999995</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
       <c r="L23" s="88">
         <f>SUM(L21:L22)</f>
         <v>288041.06858999998</v>
@@ -8650,441 +8687,441 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="133">
+      <c r="A2" s="139">
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="133">
-        <v>1</v>
-      </c>
-      <c r="D2" s="133">
+      <c r="C2" s="139">
+        <v>1</v>
+      </c>
+      <c r="D2" s="139">
         <v>150000</v>
       </c>
-      <c r="E2" s="133">
+      <c r="E2" s="139">
         <f>C2*D2</f>
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A3" s="134"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="134"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="134"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="134"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="134"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="134"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="134"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="134"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="134"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="134"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="134"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="134"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="134"/>
+      <c r="A15" s="140"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="134"/>
+      <c r="A16" s="140"/>
       <c r="B16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="134"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="134"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="134"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="134"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="134"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="134"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="134"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="134"/>
+      <c r="A24" s="140"/>
       <c r="B24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="134"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="134"/>
+      <c r="A26" s="140"/>
       <c r="B26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="134"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="134"/>
+      <c r="A28" s="140"/>
       <c r="B28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="134"/>
+      <c r="A29" s="140"/>
       <c r="B29" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
     </row>
     <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="134"/>
+      <c r="A30" s="140"/>
       <c r="B30" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="134"/>
+      <c r="A31" s="140"/>
       <c r="B31" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="134"/>
+      <c r="A32" s="140"/>
       <c r="B32" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="134"/>
+      <c r="A33" s="140"/>
       <c r="B33" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="134"/>
+      <c r="A34" s="140"/>
       <c r="B34" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
     </row>
     <row r="35" spans="1:5" ht="27.6">
-      <c r="A35" s="134"/>
+      <c r="A35" s="140"/>
       <c r="B35" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="134"/>
+      <c r="A36" s="140"/>
       <c r="B36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="134"/>
+      <c r="A37" s="140"/>
       <c r="B37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="134"/>
+      <c r="A38" s="140"/>
       <c r="B38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="134"/>
+      <c r="A39" s="140"/>
       <c r="B39" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="134"/>
+      <c r="A40" s="140"/>
       <c r="B40" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="135"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="136">
+      <c r="A42" s="142">
         <v>2</v>
       </c>
       <c r="B42" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="136">
-        <v>1</v>
-      </c>
-      <c r="D42" s="136">
+      <c r="C42" s="142">
+        <v>1</v>
+      </c>
+      <c r="D42" s="142">
         <v>130000</v>
       </c>
-      <c r="E42" s="136">
+      <c r="E42" s="142">
         <f>C42*D42</f>
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="136"/>
+      <c r="A43" s="142"/>
       <c r="B43" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="136"/>
+      <c r="A44" s="142"/>
       <c r="B44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
+      <c r="A45" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
       <c r="E45" s="81">
         <f>SUM(E2:E42)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
       <c r="E46" s="81">
         <f>E45*18%</f>
         <v>50400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
       <c r="E47" s="81">
         <f>SUM(E45:E46)</f>
         <v>330400</v>
@@ -9178,35 +9215,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="82">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="82">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="82">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -9227,7 +9264,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9277,39 +9314,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="85">
         <f>SUM(F2:F2)</f>
         <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="85">
         <f>F3*18%</f>
         <v>8010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="85">
         <f>SUM(F3:F4)</f>
         <v>52510</v>
@@ -9375,36 +9412,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="86">
         <f>SUM(E2)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="86">
         <f>E3*18%</f>
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="86">
         <f>SUM(E3:E4)</f>
         <v>4130</v>
@@ -9483,39 +9520,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -9581,36 +9618,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="87">
         <f>SUM(E2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="87">
         <f>E3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="87">
         <f>SUM(E3:E4)</f>
         <v>38940</v>
@@ -9681,39 +9718,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="89">
         <f>SUM(F2:F2)</f>
         <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="89">
         <f>F3*18%</f>
         <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="89">
         <f>SUM(F3:F4)</f>
         <v>25960</v>
@@ -9848,39 +9885,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="A6" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="92">
         <f>SUM(F2:F5)</f>
         <v>174900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="92">
         <f>F6*18%</f>
         <v>31482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="92">
         <f>SUM(F6:F7)</f>
         <v>206382</v>
@@ -9951,39 +9988,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="93">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="93">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="93">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -10037,23 +10074,23 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="138">
+      <c r="A2" s="144">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="139">
-        <v>1</v>
-      </c>
-      <c r="D2" s="140">
+      <c r="C2" s="145">
+        <v>1</v>
+      </c>
+      <c r="D2" s="146">
         <v>59088</v>
       </c>
-      <c r="E2" s="141">
+      <c r="E2" s="147">
         <f>D2*0.42</f>
         <v>24816.959999999999</v>
       </c>
-      <c r="F2" s="140">
+      <c r="F2" s="146">
         <f>C2*E2</f>
         <v>24816.959999999999</v>
       </c>
@@ -10067,83 +10104,83 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="138"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="140"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="146"/>
     </row>
     <row r="4" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A4" s="138"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="140"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="146"/>
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="138"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="140"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="146"/>
     </row>
     <row r="6" spans="1:10" ht="39.6">
-      <c r="A6" s="138"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="140"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="146"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A7" s="138"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="140"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="146"/>
     </row>
     <row r="8" spans="1:10" ht="66">
-      <c r="A8" s="138"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="140"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="146"/>
     </row>
     <row r="9" spans="1:10" ht="66">
-      <c r="A9" s="138"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="140"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="146"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="A10" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="143"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2)</f>
@@ -10206,23 +10243,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="144">
+      <c r="A2" s="150">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="146">
-        <v>1</v>
-      </c>
-      <c r="D2" s="141">
+      <c r="C2" s="152">
+        <v>1</v>
+      </c>
+      <c r="D2" s="147">
         <v>66228</v>
       </c>
-      <c r="E2" s="141">
+      <c r="E2" s="147">
         <f>D2*0.42</f>
         <v>27815.759999999998</v>
       </c>
-      <c r="F2" s="141">
+      <c r="F2" s="147">
         <f>C2*E2</f>
         <v>27815.759999999998</v>
       </c>
@@ -10236,84 +10273,84 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="145"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
       <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="35.4" customHeight="1">
-      <c r="A4" s="145"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A5" s="145"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
       <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A6" s="145"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
     </row>
     <row r="7" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A7" s="145"/>
+      <c r="A7" s="151"/>
       <c r="B7" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A8" s="145"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
     </row>
     <row r="9" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A9" s="145"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="A10" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="143"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="95"/>
       <c r="F10" s="94">
         <f>SUM(F2:F2)</f>
@@ -10374,607 +10411,607 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="133">
-        <v>1</v>
-      </c>
-      <c r="B2" s="136"/>
+      <c r="A2" s="139">
+        <v>1</v>
+      </c>
+      <c r="B2" s="142"/>
       <c r="C2" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="150">
-        <v>1</v>
-      </c>
-      <c r="E2" s="136">
+      <c r="D2" s="156">
+        <v>1</v>
+      </c>
+      <c r="E2" s="142">
         <v>139830.51</v>
       </c>
-      <c r="F2" s="136">
+      <c r="F2" s="142">
         <f>D2*E2</f>
         <v>139830.51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6">
-      <c r="A3" s="134"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="142"/>
       <c r="C3" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="134"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="134"/>
-      <c r="B5" s="136"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="134"/>
-      <c r="B6" s="136"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="27.6">
-      <c r="A7" s="134"/>
-      <c r="B7" s="136"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="142"/>
       <c r="C7" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="134"/>
-      <c r="B8" s="136"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="27.6">
-      <c r="A9" s="134"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="134"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="27.6">
-      <c r="A11" s="134"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="134"/>
-      <c r="B12" s="136"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="134"/>
-      <c r="B13" s="136"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:6" ht="27.6">
-      <c r="A14" s="134"/>
-      <c r="B14" s="136"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="142"/>
       <c r="C14" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="134"/>
-      <c r="B15" s="136"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="134"/>
-      <c r="B16" s="136"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
     </row>
     <row r="17" spans="1:6" ht="27.6">
-      <c r="A17" s="134"/>
-      <c r="B17" s="136"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="134"/>
-      <c r="B18" s="136"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="134"/>
-      <c r="B19" s="136"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="134"/>
-      <c r="B20" s="136"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="134"/>
-      <c r="B21" s="136"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="134"/>
-      <c r="B22" s="136"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="142"/>
       <c r="C22" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="150"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="134"/>
-      <c r="B23" s="136"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="134"/>
-      <c r="B24" s="136"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="142"/>
       <c r="C24" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="134"/>
-      <c r="B25" s="136"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="142"/>
       <c r="C25" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="134"/>
-      <c r="B26" s="136"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="134"/>
-      <c r="B27" s="136"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="150"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="134"/>
-      <c r="B28" s="136"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="135"/>
-      <c r="B29" s="136"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="142"/>
       <c r="C29" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="150"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A30" s="151">
+      <c r="A30" s="157">
         <v>2</v>
       </c>
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="158"/>
-      <c r="D30" s="154">
-        <v>1</v>
-      </c>
-      <c r="E30" s="133">
+      <c r="C30" s="164"/>
+      <c r="D30" s="160">
+        <v>1</v>
+      </c>
+      <c r="E30" s="139">
         <v>16949.099999999999</v>
       </c>
-      <c r="F30" s="133">
+      <c r="F30" s="139">
         <f t="shared" ref="F30" si="0">D30*E30</f>
         <v>16949.099999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A31" s="152"/>
-      <c r="B31" s="159" t="s">
+      <c r="A31" s="158"/>
+      <c r="B31" s="165" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="160"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
     </row>
     <row r="32" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A32" s="152"/>
-      <c r="B32" s="159" t="s">
+      <c r="A32" s="158"/>
+      <c r="B32" s="165" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A33" s="152"/>
-      <c r="B33" s="159" t="s">
+      <c r="A33" s="158"/>
+      <c r="B33" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="160"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A34" s="152"/>
-      <c r="B34" s="159" t="s">
+      <c r="A34" s="158"/>
+      <c r="B34" s="165" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="160"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
     </row>
     <row r="35" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="159" t="s">
+      <c r="A35" s="158"/>
+      <c r="B35" s="165" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="160"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
     </row>
     <row r="36" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A36" s="152"/>
-      <c r="B36" s="159" t="s">
+      <c r="A36" s="158"/>
+      <c r="B36" s="165" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="160"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
     </row>
     <row r="37" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A37" s="152"/>
-      <c r="B37" s="159" t="s">
+      <c r="A37" s="158"/>
+      <c r="B37" s="165" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="160"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
     </row>
     <row r="38" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A38" s="152"/>
-      <c r="B38" s="159" t="s">
+      <c r="A38" s="158"/>
+      <c r="B38" s="165" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="160"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A39" s="152"/>
-      <c r="B39" s="159" t="s">
+      <c r="A39" s="158"/>
+      <c r="B39" s="165" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="160"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
     </row>
     <row r="40" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="159" t="s">
+      <c r="A40" s="158"/>
+      <c r="B40" s="165" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="160"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
     </row>
     <row r="41" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A41" s="152"/>
-      <c r="B41" s="159" t="s">
+      <c r="A41" s="158"/>
+      <c r="B41" s="165" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="160"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A42" s="152"/>
-      <c r="B42" s="159" t="s">
+      <c r="A42" s="158"/>
+      <c r="B42" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="160"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="159" t="s">
+      <c r="A43" s="158"/>
+      <c r="B43" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="160"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A44" s="152"/>
-      <c r="B44" s="159" t="s">
+      <c r="A44" s="158"/>
+      <c r="B44" s="165" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="160"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A45" s="152"/>
-      <c r="B45" s="159" t="s">
+      <c r="A45" s="158"/>
+      <c r="B45" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="160"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A46" s="152"/>
-      <c r="B46" s="159" t="s">
+      <c r="A46" s="158"/>
+      <c r="B46" s="165" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="160"/>
-      <c r="D46" s="155"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A47" s="152"/>
-      <c r="B47" s="159" t="s">
+      <c r="A47" s="158"/>
+      <c r="B47" s="165" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="160"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A48" s="152"/>
-      <c r="B48" s="159" t="s">
+      <c r="A48" s="158"/>
+      <c r="B48" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="160"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A49" s="152"/>
-      <c r="B49" s="159" t="s">
+      <c r="A49" s="158"/>
+      <c r="B49" s="165" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="160"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="140"/>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A50" s="152"/>
-      <c r="B50" s="159" t="s">
+      <c r="A50" s="158"/>
+      <c r="B50" s="165" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="160"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A51" s="152"/>
-      <c r="B51" s="159" t="s">
+      <c r="A51" s="158"/>
+      <c r="B51" s="165" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="160"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
     </row>
     <row r="52" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A52" s="152"/>
-      <c r="B52" s="159" t="s">
+      <c r="A52" s="158"/>
+      <c r="B52" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="160"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
     </row>
     <row r="53" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A53" s="152"/>
-      <c r="B53" s="159" t="s">
+      <c r="A53" s="158"/>
+      <c r="B53" s="165" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="160"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A54" s="152"/>
-      <c r="B54" s="159" t="s">
+      <c r="A54" s="158"/>
+      <c r="B54" s="165" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="160"/>
-      <c r="D54" s="155"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A55" s="152"/>
-      <c r="B55" s="159" t="s">
+      <c r="A55" s="158"/>
+      <c r="B55" s="165" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="160"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A56" s="153"/>
-      <c r="B56" s="161" t="s">
+      <c r="A56" s="159"/>
+      <c r="B56" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="162"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="149"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
+      <c r="A57" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="155"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="106">
         <f>SUM(F30+F2)</f>
         <v>156779.61000000002</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="120" t="s">
+      <c r="A58" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
       <c r="F58" s="106">
         <f>F57*18%</f>
         <v>28220.329800000003</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="120" t="s">
+      <c r="A59" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
       <c r="F59" s="106">
         <f>F58+F57</f>
         <v>184999.93980000002</v>
@@ -11086,39 +11123,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="105">
         <f>SUM(F2)</f>
         <v>24695</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="105">
         <f>F3*18%</f>
         <v>4445.0999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="105">
         <f>SUM(F3:F4)</f>
         <v>29140.1</v>
@@ -11189,39 +11226,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="108">
         <f>SUM(F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="108">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="108">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -11356,39 +11393,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="A3" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -11454,36 +11491,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="110">
         <f>SUM(E2:E2)</f>
         <v>2520</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="110">
         <f>E3*18%</f>
         <v>453.59999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="110">
         <f>SUM(E3:E4)</f>
         <v>2973.6</v>
@@ -11549,35 +11586,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="110">
         <v>6200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="110">
         <f>E3*18%</f>
         <v>1116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="110">
         <f>SUM(E3:E4)</f>
         <v>7316</v>
@@ -11642,36 +11679,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="110">
         <f>SUM(E2:E2)</f>
         <v>13350</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="110">
         <f>E3*18%</f>
         <v>2403</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="110">
         <f>SUM(E3:E4)</f>
         <v>15753</v>
@@ -11692,7 +11729,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11738,36 +11775,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="110">
         <f>SUM(E2:E2)</f>
         <v>20340</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="110">
         <f>E3*18%</f>
         <v>3661.2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="110">
         <f>SUM(E3:E4)</f>
         <v>24001.200000000001</v>
@@ -11787,7 +11824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -11820,111 +11857,111 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A2" s="138">
+      <c r="A2" s="144">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="139">
-        <v>1</v>
-      </c>
-      <c r="D2" s="140">
+      <c r="C2" s="145">
+        <v>1</v>
+      </c>
+      <c r="D2" s="146">
         <v>55250</v>
       </c>
-      <c r="E2" s="141">
+      <c r="E2" s="147">
         <v>23205</v>
       </c>
-      <c r="F2" s="140">
+      <c r="F2" s="146">
         <f>C2*E2</f>
         <v>23205</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="52.8">
-      <c r="A3" s="138"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="140"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="146"/>
     </row>
     <row r="4" spans="1:11" ht="39.6">
-      <c r="A4" s="138"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="140"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="146"/>
     </row>
     <row r="5" spans="1:11" ht="39.6">
-      <c r="A5" s="138"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="140"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="146"/>
     </row>
     <row r="6" spans="1:11" ht="39.6">
-      <c r="A6" s="138"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="140"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="146"/>
     </row>
     <row r="7" spans="1:11" ht="66">
-      <c r="A7" s="138"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="140"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="146"/>
       <c r="K7" s="7">
         <f>55250*58%</f>
         <v>32044.999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="66">
-      <c r="A8" s="138"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="112